--- a/data/mistakes/bert_XPOS_mistakes.xlsx
+++ b/data/mistakes/bert_XPOS_mistakes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D475"/>
+  <dimension ref="A1:E475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,10 +441,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Context</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Gold Standard</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Prediction</t>
         </is>
@@ -461,10 +466,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Melchior urodzony roku</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ppas:sg:nom:m1:perf:aff</t>
         </is>
@@ -481,10 +491,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Godziszewo parafii Rypnin</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>subst:sg:loc:f</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>subst:sg:gen:f</t>
         </is>
@@ -501,10 +516,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>parafii Rypnin syn</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>subst:sg:nom:m3</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>subst:sg:nom:m1</t>
         </is>
@@ -521,10 +541,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>a nie Antoniego</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>part</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>conj</t>
         </is>
@@ -541,10 +566,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>był starszym bratem</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>adj:sg:inst:m1:com</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>adj:sg:inst:m1:pos</t>
         </is>
@@ -561,10 +591,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>. p .</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>brev:npun</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>brev:pun</t>
         </is>
@@ -581,10 +616,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>później wdokumentach się</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>subst:pl:loc:m3</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>adj:pl:nom:m1:pos</t>
         </is>
@@ -601,10 +641,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>z adlinencjami Puszczanki</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>subst:pl:inst:f</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>subst:pl:inst:n:ncol</t>
         </is>
@@ -621,10 +666,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>, Ronantowizna ,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>subst:sg:gen:n:ncol</t>
         </is>
@@ -641,10 +691,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>, Żółtowizna ,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>subst:sg:inst:f</t>
         </is>
@@ -661,10 +716,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>, Będowszczyazna ,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>subst:sg:gen:n:ncol</t>
         </is>
@@ -681,10 +741,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>, Kmińszczyzna ,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>subst:sg:gen:n:ncol</t>
         </is>
@@ -701,10 +766,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>, Bęklowizna ,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>subst:sg:gen:n:ncol</t>
         </is>
@@ -721,10 +791,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>, Ruszkowizna .</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>subst:sg:gen:n:ncol</t>
         </is>
@@ -741,10 +816,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>A że śp</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>comp</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>prep:gen:wok</t>
         </is>
@@ -761,10 +841,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>że śp Dziad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>brev:npun</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>subst:sg:gen:m3</t>
         </is>
@@ -781,10 +866,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>był najmłodszy i</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m1:sup</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>adj:sg:nom:m1:com</t>
         </is>
@@ -801,10 +891,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>piąty z pomiędzy</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>prep:inst:nwok</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>prep:gen:nwok</t>
         </is>
@@ -821,10 +916,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>część najstarszemu bratu</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>adj:sg:dat:m1:sup</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>adj:sg:dat:m1:pos</t>
         </is>
@@ -841,10 +941,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>za ośm tysięcy</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>num:pl:acc:m3:rec:ncol</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>num:pl:acc:m3:rec</t>
         </is>
@@ -861,10 +966,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>Melchior czterech i</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>num:pl:acc:m1:congr:ncol</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>num:pl:acc:m1:rec</t>
         </is>
@@ -881,10 +991,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>– Antoniego Wawrzyńca</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m1</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -901,10 +1016,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>Antoniego Wawrzyńca ożenionego</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m1</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -921,10 +1041,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>Wawrzyńca ożenionego z</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>ppas:sg:acc:m1:perf:aff</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>adj:sg:acc:m1:pos</t>
         </is>
@@ -941,10 +1066,15 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>niej trzech synów</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>num:pl:acc:m3:congr:ncol</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>num:pl:acc:m1:rec</t>
         </is>
@@ -961,10 +1091,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>trzech synów Jakuba</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>subst:pl:acc:m1</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>subst:pl:gen:m1</t>
         </is>
@@ -981,10 +1116,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>synów Jakuba ,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m1</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -1001,10 +1141,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>, Łukasza i</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m1</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -1021,10 +1166,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>i Floyrana .</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m1</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -1041,10 +1191,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>Maciej z Chądzyńską</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>prep:inst:nwok</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>prep:gen:nwok</t>
         </is>
@@ -1061,10 +1216,15 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>z Chądzyńską ,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>subst:sg:inst:f</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>subst:sg:gen:n:ncol</t>
         </is>
@@ -1081,10 +1241,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>Floryan z Korytyńską</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>prep:inst:nwok</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>prep:gen:nwok</t>
         </is>
@@ -1101,10 +1266,15 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>z Korytyńską ,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>subst:sg:inst:f</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>subst:sg:gen:n:ncol</t>
         </is>
@@ -1121,10 +1291,15 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>Wawrzyniec z Muczynowską</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>prep:inst:nwok</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>prep:gen:nwok</t>
         </is>
@@ -1141,10 +1316,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>z Muczynowską –</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>subst:sg:inst:f</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>subst:sg:gen:f</t>
         </is>
@@ -1161,10 +1341,15 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>syna Ludwika –</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m1</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -1181,10 +1366,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>– wszystkich braci</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>adj:pl:acc:m1:pos</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>adj:pl:gen:m1:pos</t>
         </is>
@@ -1201,10 +1391,15 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>wszystkich braci stryjecznych</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>subst:pl:acc:m1</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>subst:pl:gen:m1</t>
         </is>
@@ -1221,10 +1416,15 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>braci stryjecznych śp</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>adj:pl:acc:m1:pos</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>adj:pl:gen:m1:pos</t>
         </is>
@@ -1241,10 +1441,15 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>– jakoby Dziad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>part</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>comp</t>
         </is>
@@ -1261,10 +1466,15 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>, prawdopodobnie ,</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>part</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>adv:pos</t>
         </is>
@@ -1281,10 +1491,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>i Skolego w</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -1301,10 +1516,15 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>w Stryjskim .</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>adj:sg:loc:m3:pos</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>adj:sg:loc:n:pos</t>
         </is>
@@ -1321,10 +1541,15 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>sobie Pana Potockiego</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>subst:sg:gen:m1</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>subst:sg:acc:m1</t>
         </is>
@@ -1341,10 +1566,15 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>Pana Potockiego ,</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>subst:sg:gen:m1</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>subst:sg:acc:m1</t>
         </is>
@@ -1361,10 +1591,15 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>swoich Brzeżany i</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>subst:pl:nom:n:pt</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>subst:sg:acc:m3</t>
         </is>
@@ -1381,10 +1616,15 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>i Skolego wziął</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>subst:sg:acc:m1</t>
         </is>
@@ -1401,10 +1641,15 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>do Skolego przekonał</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -1421,10 +1666,15 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>rozległe dobra w</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>subst:pl:nom:n:pt</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>subst:pl:nom:n:ncol</t>
         </is>
@@ -1441,10 +1691,15 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>lasach ogromnych żadnej</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>adj:pl:loc:m3:pos</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>adj:pl:loc:f:pos</t>
         </is>
@@ -1461,10 +1716,15 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>zaprowadzić potażarnię .</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>subst:sg:acc:f</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>adv:pos</t>
         </is>
@@ -1481,10 +1741,15 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>tych dóbr i</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>subst:pl:gen:n:pt</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>subst:pl:gen:n:ncol</t>
         </is>
@@ -1501,10 +1766,15 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>przyszłości jego .</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>ppron3:sg:loc:m1:ter:akc:npraep</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>ppron3:sg:gen:m1:ter:akc:npraep</t>
         </is>
@@ -1521,10 +1791,15 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>Dochód jaki okazał</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m3:pos</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>adj:sg:acc:m3:pos</t>
         </is>
@@ -1541,10 +1816,15 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>był jak na</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>adv:pos</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>comp</t>
         </is>
@@ -1561,10 +1841,15 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>że ujęty tem</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>ppas:sg:nom:m1:perf:aff</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>ppas:sg:nom:m3:perf:aff</t>
         </is>
@@ -1581,10 +1866,15 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>ujęty tem zaproponował</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>subst:sg:inst:n:ncol</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>adj:sg:nom:m1:pos</t>
         </is>
@@ -1601,10 +1891,15 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>mogło to być</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>pred</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>subst:sg:nom:n:ncol</t>
         </is>
@@ -1621,10 +1916,15 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>– jak świętej</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>adv:pos</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>comp</t>
         </is>
@@ -1641,10 +1941,15 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>dzierżawę Czołhany w</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>subst:pl:acc:n:pt</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>subst:pl:acc:m3</t>
         </is>
@@ -1661,10 +1966,15 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>Panną Kobylską ,</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>subst:sg:inst:f</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>adj:sg:inst:f:pos</t>
         </is>
@@ -1681,10 +1991,15 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>nią trzech synów</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>num:pl:gen:m1:congr:ncol</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>num:pl:acc:m1:rec</t>
         </is>
@@ -1701,10 +2016,15 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>za wołami .</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>subst:pl:inst:m2</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>subst:pl:inst:m3</t>
         </is>
@@ -1721,10 +2041,15 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>Posadzie Chyrowskiey zapędziły</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>adj:sg:loc:f:pos</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -1741,10 +2066,15 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>Chyrowskiey zapędziły się</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>praet:pl:m2:perf</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>praet:pl:m3:perf</t>
         </is>
@@ -1761,10 +2091,15 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>się woły w</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>subst:pl:nom:m2</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>subst:pl:nom:m3</t>
         </is>
@@ -1781,10 +2116,15 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>. Właścicielką była</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>subst:sg:inst:f</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>subst:sg:nom:f</t>
         </is>
@@ -1801,10 +2141,15 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>domu Dzianott wdowa</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>subst:pl:gen:f</t>
         </is>
@@ -1821,10 +2166,15 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>Dzianott wdowa po</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>subst:sg:inst:f</t>
         </is>
@@ -1841,10 +2191,15 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>po dwóch mężach</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>num:pl:loc:m1:congr:ncol</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>num:pl:loc:f:congr</t>
         </is>
@@ -1861,10 +2216,15 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>pierwszym Pierściorowskim miała</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>subst:sg:inst:m1</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>adj:sg:inst:m1:pos</t>
         </is>
@@ -1881,10 +2241,15 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>, Kleofasę .</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>subst:sg:acc:f</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>subst:sg:acc:m1</t>
         </is>
@@ -1901,10 +2266,15 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>Zastawiono sute śniadanie</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>adj:sg:acc:n:pos</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>subst:sg:acc:f</t>
         </is>
@@ -1921,10 +2291,15 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>z starym winem</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>adj:sg:inst:n:pos</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>adj:sg:inst:m3:pos</t>
         </is>
@@ -1941,10 +2316,15 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>starym winem –</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>subst:sg:inst:n:ncol</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>subst:sg:inst:m3</t>
         </is>
@@ -1961,10 +2341,15 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>– rada była</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>adj:sg:nom:f:pos</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>subst:sg:nom:f</t>
         </is>
@@ -1981,10 +2366,15 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>była gosposia gościowi</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>subst:sg:inst:f</t>
         </is>
@@ -2001,10 +2391,15 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>wiesz Asińdźka co</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>subst:sg:voc:f</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>subst:sg:nom:f</t>
         </is>
@@ -2021,10 +2416,15 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>Asińdźka co ?</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>subst:sg:nom:n:ncol</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>subst:sg:acc:n:ncol</t>
         </is>
@@ -2041,10 +2441,15 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>Jesteś wdowa –</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>subst:sg:inst:f</t>
         </is>
@@ -2061,10 +2466,15 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>„ Ja już</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>ppron12:sg:nom:f:pri</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>ppron12:sg:nom:m1:pri</t>
         </is>
@@ -2081,10 +2491,15 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>że mi się</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>ppron12:sg:dat:f:pri:nakc</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>ppron12:sg:dat:m1:pri:nakc</t>
         </is>
@@ -2101,10 +2516,15 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>wola Twoja oddam</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>adj:sg:nom:f:pos</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>adj:sg:inst:f:pos</t>
         </is>
@@ -2121,10 +2541,15 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>słyszała Kleosia całą</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>subst:sg:acc:m1</t>
         </is>
@@ -2141,10 +2566,15 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>wyobrazić co działo</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>subst:sg:nom:n:ncol</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>subst:sg:acc:n:ncol</t>
         </is>
@@ -2161,10 +2591,15 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>rączkę drżącą Pan</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>adj:sg:acc:f:pos</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>pact:sg:acc:f:imperf:aff</t>
         </is>
@@ -2181,10 +2616,15 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>i objecał ,</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>praet:sg:m1:perf</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>praet:sg:m1:imperf</t>
         </is>
@@ -2201,10 +2641,15 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>się submittować .</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>inf:perf</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>inf:imperf</t>
         </is>
@@ -2221,10 +2666,15 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>W 1784 roku</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>adj:sg:loc:m3</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>adj:sg:loc:m3:pos</t>
         </is>
@@ -2241,10 +2691,15 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>były dwie córki</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>num:pl:nom:f:congr:ncol</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>num:pl:nom:f:congr</t>
         </is>
@@ -2261,10 +2716,15 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>. Starsi bracia</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>adj:pl:nom:m1:com</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>adj:pl:nom:m1:pos</t>
         </is>
@@ -2281,10 +2741,15 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>pokończywszy nauki osiedli</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>subst:sg:gen:f</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>subst:pl:acc:f</t>
         </is>
@@ -2301,10 +2766,15 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>w Bolechowie umarła</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>subst:sg:loc:n:ncol</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>subst:sg:loc:m3</t>
         </is>
@@ -2321,10 +2791,15 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>, bawiły pod</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>praet:pl:n:imperf</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>praet:pl:f:imperf</t>
         </is>
@@ -2341,10 +2816,15 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>starościny Czermińskiej we</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>subst:sg:gen:f</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>adj:sg:gen:f:pos</t>
         </is>
@@ -2361,10 +2841,15 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>za mąż jedna</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>frag</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>subst:sg:acc:m1</t>
         </is>
@@ -2381,10 +2866,15 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>za Świeżawskiego komornika</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m1</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>adj:sg:acc:m1:pos</t>
         </is>
@@ -2401,10 +2891,15 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>komornika ziemskiego i</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>adj:sg:acc:m1:pos</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>adj:sg:gen:m1:pos</t>
         </is>
@@ -2421,10 +2916,15 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>właściciela Maksymowic w</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>subst:sg:gen:m3</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>subst:pl:gen:n:pt</t>
         </is>
@@ -2441,10 +2941,15 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>. Poniatowskiego –</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m1</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -2461,10 +2966,15 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>go jak mieszkał</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>adv:pos</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>comp</t>
         </is>
@@ -2481,10 +2991,15 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>oficynie dwa pokoje</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>num:pl:nom:m3:congr:ncol</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>num:pl:acc:m3:congr</t>
         </is>
@@ -2501,10 +3016,15 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>dwa pokoje –</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>subst:pl:nom:m3</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>subst:pl:acc:m3</t>
         </is>
@@ -2521,10 +3041,15 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>swój oddał akademii</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>praet:sg:m1:perf</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>praet:sg:m3:perf</t>
         </is>
@@ -2541,10 +3066,15 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>gabinet oddany z</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m3:pos</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>ppas:sg:nom:m3:perf:aff</t>
         </is>
@@ -2561,10 +3091,15 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>drzwiami Abbum Treterianum</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>ign</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>subst:sg:nom:m3</t>
         </is>
@@ -2581,10 +3116,15 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>Abbum Treterianum .</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>ign</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>subst:sg:nom:m3</t>
         </is>
@@ -2601,10 +3141,15 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>Przy bombardowaniu Lwowa</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>subst:sg:loc:n:ncol</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>ger:sg:loc:n:imperf:aff</t>
         </is>
@@ -2621,10 +3166,15 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>w perzynę obrucona</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>subst:sg:acc:f</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>subst:sg:loc:f</t>
         </is>
@@ -2641,10 +3191,15 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>perzynę obrucona –</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>ppas:sg:nom:f:perf:aff</t>
         </is>
@@ -2661,10 +3216,15 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>więc i zbiory</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>conj</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>part</t>
         </is>
@@ -2681,10 +3241,15 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>– oryginał jakich</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>subst:sg:nom:m1</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>subst:sg:nom:m3</t>
         </is>
@@ -2701,10 +3266,15 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>oryginał jakich dziś</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>adj:pl:gen:m1:pos</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>adj:pl:gen:m3:pos</t>
         </is>
@@ -2721,10 +3291,15 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>się niespotyka .</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>fin:sg:ter:imperf</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>fin:pl:ter:perf</t>
         </is>
@@ -2741,10 +3316,15 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>wziął 100000 zł</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>num:pl:acc:m3:congr</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>num:pl:acc:m2:rec</t>
         </is>
@@ -2761,10 +3341,15 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>. polskich w</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>adj:pl:acc:m3:pos</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>adj:pl:gen:m1:pos</t>
         </is>
@@ -2781,10 +3366,15 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>, to zarządzał</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>comp</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>part</t>
         </is>
@@ -2801,10 +3391,15 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>zarządzał jako plenipotent</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>conj</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>comp</t>
         </is>
@@ -2821,10 +3416,15 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>wielkimi dobrami ,</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>subst:pl:inst:n:pt</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>subst:pl:inst:n:ncol</t>
         </is>
@@ -2841,10 +3441,15 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>wyśpiewywał różne arye</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>adj:pl:nom:f:pos</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>adj:pl:acc:m3:pos</t>
         </is>
@@ -2861,10 +3466,15 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>różne arye krakowiaki</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>subst:pl:nom:f</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>subst:pl:acc:m3</t>
         </is>
@@ -2881,10 +3491,15 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>arye krakowiaki i</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>subst:pl:nom:m3</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>subst:pl:acc:m2</t>
         </is>
@@ -2901,10 +3516,15 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>i kołomyjki .</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>subst:pl:nom:f</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>subst:sg:gen:f</t>
         </is>
@@ -2921,10 +3541,15 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>koniu po znajomych</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>prep:acc</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>prep:loc</t>
         </is>
@@ -2941,10 +3566,15 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>po znajomych a</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>subst:pl:acc:m1</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>subst:pl:loc:m1</t>
         </is>
@@ -2961,10 +3591,15 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>domu mojego Oyca</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>adj:sg:gen:m1:pos</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>adj:sg:gen:m3:pos</t>
         </is>
@@ -2981,10 +3616,15 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>niej dużo szczegółów</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>num:pl:gen:m3:rec</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>num:pl:acc:m3:rec</t>
         </is>
@@ -3001,10 +3641,15 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>familii Oyca się</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -3021,10 +3666,15 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>Opowiadano mi też</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m1:ncol</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>ppron12:sg:dat:m1:pri:nakc</t>
         </is>
@@ -3041,10 +3691,15 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>z pożycia moich</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>ger:sg:gen:n:perf:aff</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>subst:sg:inst:f</t>
         </is>
@@ -3061,10 +3716,15 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>katafalk oświecony a</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>subst:sg:nom:m3</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>ppas:sg:acc:m3:perf:aff</t>
         </is>
@@ -3081,10 +3741,15 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>opowiedziała jej czeladź</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>ppron3:sg:gen:f:ter:akc:npraep</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>ppron3:sg:dat:f:ter:akc:npraep</t>
         </is>
@@ -3101,10 +3766,15 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>jej czeladź ,</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>subst:sg:nom:m1</t>
         </is>
@@ -3121,10 +3791,15 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>z Tobą Stasiu</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>ppron12:sg:inst:m1:sec</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>ppron12:sg:inst:f:sec</t>
         </is>
@@ -3141,10 +3816,15 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>Stasiu tyle a</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>num:pl:nom:m3:rec</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>num:pl:acc:m3:rec</t>
         </is>
@@ -3161,10 +3841,15 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>a tyle lat</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>num:pl:nom:m3:rec</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>num:pl:acc:m3:rec</t>
         </is>
@@ -3181,10 +3866,15 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>Zostawiasz mię z</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>ppron12:sg:acc:m1:pri:nakc</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>subst:sg:acc:n:ncol</t>
         </is>
@@ -3201,10 +3891,15 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>– ani kęsa</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>conj</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>part</t>
         </is>
@@ -3221,10 +3916,15 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>– zato ,</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>interj</t>
         </is>
@@ -3241,10 +3941,15 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>obracają ich rodziny</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>ppron3:pl:gen:n:ter:akc:npraep</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>ppron3:pl:gen:m1:ter:akc:npraep</t>
         </is>
@@ -3261,10 +3966,15 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>ich rodziny .</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>subst:pl:acc:f</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>subst:pl:nom:f</t>
         </is>
@@ -3281,10 +3991,15 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>wuj Świerzawski kuzyn</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>subst:sg:nom:m1</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>adj:sg:nom:m1:pos</t>
         </is>
@@ -3301,10 +4016,15 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>z Bełzkiego często</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>adj:sg:gen:m3:pos</t>
         </is>
@@ -3321,10 +4041,15 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>w Moszkowie z</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>subst:sg:loc:n:ncol</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>subst:sg:loc:m3</t>
         </is>
@@ -3341,10 +4066,15 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>Dziadek móy Ostaszewski</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>subst:sg:nom:m1</t>
         </is>
@@ -3361,10 +4091,15 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>i trefieniu a</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>ger:sg:dat:n:imperf:aff</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>ger:sg:loc:n:imperf:aff</t>
         </is>
@@ -3381,10 +4116,15 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>drogę stać na</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>pred</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>inf:imperf</t>
         </is>
@@ -3401,10 +4141,15 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>było dwóch synów</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>num:pl:nom:m1:rec:ncol</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>num:pl:nom:m1:rec</t>
         </is>
@@ -3421,10 +4166,15 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>pokończyli nauki ale</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>subst:sg:gen:f</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>subst:pl:acc:f</t>
         </is>
@@ -3441,10 +4191,15 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>. Niewiem jakim</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>fin:sg:pri:imperf</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>adv</t>
         </is>
@@ -3461,10 +4216,15 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>sposobem majątek zniszczał</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>subst:sg:nom:m3</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>subst:sg:acc:m3</t>
         </is>
@@ -3481,10 +4241,15 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>majątek zniszczał –</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>praet:sg:m3:perf</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>praet:sg:m1:perf</t>
         </is>
@@ -3501,10 +4266,15 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>siostrą Treterówną -</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>subst:sg:inst:f</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>adj:sg:inst:f:pos</t>
         </is>
@@ -3521,10 +4291,15 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>dziwak napastował ludzi</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>praet:sg:m1:perf</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>praet:sg:m1:imperf</t>
         </is>
@@ -3541,10 +4316,15 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>, aż się</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>comp</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>part</t>
         </is>
@@ -3561,10 +4341,15 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>się nim Pan</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>ppron3:sg:inst:m1:ter:akc:npraep</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>ppron3:sg:inst:m1:ter:akc:praep</t>
         </is>
@@ -3581,10 +4366,15 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>wstydu nierobił .</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>subst:sg:gen:m3</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>praet:sg:m1:imperf</t>
         </is>
@@ -3601,10 +4391,15 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>Ojciec móy sierota</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>subst:sg:gen:f</t>
         </is>
@@ -3621,10 +4416,15 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>móy sierota oddany</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>subst:sg:nom:m1</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>subst:sg:inst:f</t>
         </is>
@@ -3641,10 +4441,15 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>, niżeli książki</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>conj</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>comp</t>
         </is>
@@ -3661,10 +4466,15 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>Mogło to być</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>pred</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>subst:sg:nom:n:ncol</t>
         </is>
@@ -3681,10 +4491,15 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>być około 1801</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>part</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>prep:gen</t>
         </is>
@@ -3701,10 +4516,15 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>– podpodczas wojen</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>prep:gen</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>adv</t>
         </is>
@@ -3721,10 +4541,15 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>do Sachsen Cobary</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>ign</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>subst:sg:gen:n:ncol</t>
         </is>
@@ -3741,10 +4566,15 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>Sachsen Cobary Ułanów</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>ign</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>subst:sg:gen:f</t>
         </is>
@@ -3761,10 +4591,15 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>Ojciec kadectwo ,</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>subst:sg:nom:n:ncol</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>subst:sg:acc:m1</t>
         </is>
@@ -3781,10 +4616,15 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>czasów niewiele opowiadał</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>adv</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>num:pl:acc:m3:rec</t>
         </is>
@@ -3801,10 +4641,15 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>. p .</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>brev:npun</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>brev:pun</t>
         </is>
@@ -3821,10 +4666,15 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>Wreszcie niebył em</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>praet:sg:m1:imperf</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>praet:sg:m1:perf</t>
         </is>
@@ -3841,10 +4691,15 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>nigdy dłuższy czas</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>adj:sg:acc:m3:com</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>adj:sg:nom:m3:com</t>
         </is>
@@ -3861,10 +4716,15 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>Młodzieniaszkiem oddany do</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>ppas:sg:nom:m1:perf:aff</t>
         </is>
@@ -3881,10 +4741,15 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>czasie świąt lub</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>subst:pl:gen:n:ncol</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>subst:pl:gen:n:pt</t>
         </is>
@@ -3901,10 +4766,15 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>a najwięcej czasu</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>num:sg:acc:m3:rec</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>adv:sup</t>
         </is>
@@ -3921,10 +4791,15 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>ciągle zajęty gospodarstwem</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>ppas:sg:nom:m3:perf:aff</t>
         </is>
@@ -3941,10 +4816,15 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>. móy Oyciec</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>subst:sg:nom:m1</t>
         </is>
@@ -3961,10 +4841,15 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>Oyciec około 1808</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>part</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>prep:gen</t>
         </is>
@@ -3981,10 +4866,15 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>około 1808 –</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>adj:sg:gen:m3:pos</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>dig</t>
         </is>
@@ -4001,10 +4891,15 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>albo 1809 –</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>adj:sg:gen:m3:pos</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>dig</t>
         </is>
@@ -4021,10 +4916,15 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>randze nadporucznika ,</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>subst:sg:gen:m1</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>subst:sg:gen:m3</t>
         </is>
@@ -4041,10 +4941,15 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>kończ życia .</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>ger:sg:gen:n:imperf:aff</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>subst:sg:gen:n:ncol</t>
         </is>
@@ -4061,10 +4966,15 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>pod Wagram stojąc</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>subst:sg:inst:m3</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>subst:sg:acc:m3</t>
         </is>
@@ -4081,10 +4991,15 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>pobojowisku jak nieżywy</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>adv:pos</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>comp</t>
         </is>
@@ -4101,10 +5016,15 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>jak nieżywy –</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>adj:sg:nom:m3:pos</t>
         </is>
@@ -4121,10 +5041,15 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>– cały pułk</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
           <t>adj:sg:acc:m3:pos</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>adj:sg:nom:m3:pos</t>
         </is>
@@ -4141,10 +5066,15 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>cały pułk pieszy</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m3</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>subst:sg:nom:m3</t>
         </is>
@@ -4161,10 +5091,15 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
+          <t>pułk pieszy Francuzów</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
           <t>adj:sg:acc:m3:pos</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>adj:sg:nom:m3:pos</t>
         </is>
@@ -4181,10 +5116,15 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
+          <t>kłując bagnetami lub</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
           <t>subst:pl:inst:m3</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>subst:pl:inst:f</t>
         </is>
@@ -4201,10 +5141,15 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
+          <t>fortuny skrzętnem gospodarstwem</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>adj:sg:inst:n</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>adj:sg:inst:n:pos</t>
         </is>
@@ -4221,10 +5166,15 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
+          <t>wieś Siemiginów w</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
           <t>subst:pl:nom:m3</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>subst:pl:gen:m1</t>
         </is>
@@ -4241,10 +5191,15 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
+          <t>- po tem</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
           <t>prep:loc</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>prep:acc</t>
         </is>
@@ -4261,10 +5216,15 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
+          <t>po tem jak</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
           <t>subst:pl:gen:n:ncol</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>subst:sg:loc:n:ncol</t>
         </is>
@@ -4281,10 +5241,15 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
+          <t>tem jak powiadano</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
           <t>adv:pos</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>comp</t>
         </is>
@@ -4301,10 +5266,15 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
+          <t>indyki których po</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
           <t>adj:pl:gen:m2:pos</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>adj:pl:gen:m1:pos</t>
         </is>
@@ -4321,10 +5291,15 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
+          <t>po parę set</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
           <t>num:pl:acc:f:rec</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>num:pl:acc:m3:rec</t>
         </is>
@@ -4341,10 +5316,15 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
+          <t>parę set sztuk</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
           <t>subst:pl:gen:f</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>subst:pl:gen:m3</t>
         </is>
@@ -4361,10 +5341,15 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
+          <t>kupił Bludniki za</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
           <t>subst:pl:nom:n:pt</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>subst:pl:acc:m3</t>
         </is>
@@ -4381,10 +5366,15 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
+          <t>za które wyliczył</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
           <t>adj:pl:nom:n:pos</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>adj:pl:acc:m3:pos</t>
         </is>
@@ -4401,10 +5391,15 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
+          <t>Rozwadowskiej 10000 dukatów</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
           <t>num:pl:nom:m2:rec</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>num:pl:acc:m3:rec</t>
         </is>
@@ -4421,10 +5416,15 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>10000 dukatów .</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
           <t>subst:pl:gen:m2</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>subst:pl:gen:m3</t>
         </is>
@@ -4441,10 +5441,15 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
+          <t>brakowało 2000 dukatów</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
           <t>num:pl:gen:m2:rec</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>num:pl:gen:m3:congr</t>
         </is>
@@ -4461,10 +5466,15 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
+          <t>2000 dukatów pełnłnomocnik</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
           <t>subst:pl:gen:m2</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>subst:pl:gen:m3</t>
         </is>
@@ -4481,10 +5491,15 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
+          <t>we posiadanie majątku</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
           <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>ger:sg:acc:n:imperf:aff</t>
         </is>
@@ -4501,10 +5516,15 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
+          <t>nad któremi obeymował</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
           <t>adj:pl:inst:m1:pos</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>adj:pl:inst:n:pos</t>
         </is>
@@ -4521,10 +5541,15 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
+          <t>policyjną pierwszey instantacyi</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
           <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>subst:pl:acc:f</t>
         </is>
@@ -4541,10 +5566,15 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
+          <t>odbywali poddani wedle</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
           <t>subst:pl:nom:m1</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>ppas:pl:nom:m1:perf:aff</t>
         </is>
@@ -4561,10 +5591,15 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
+          <t>ilości posiadanych morgów</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
           <t>ppas:pl:gen:m1:imperf:aff</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>ppas:pl:gen:m3:perf:aff</t>
         </is>
@@ -4581,10 +5616,15 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
+          <t>bydłem co tygodnia</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
           <t>prep:acc</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>prep:gen</t>
         </is>
@@ -4601,10 +5641,15 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
+          <t>i chałupnicy -</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
           <t>subst:pl:nom:m1</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>adj:pl:nom:m1:pos</t>
         </is>
@@ -4621,10 +5666,15 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
+          <t>Oprócz tego z</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
           <t>adj:sg:gen:m3:pos</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>subst:sg:gen:n:ncol</t>
         </is>
@@ -4641,10 +5691,15 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
+          <t>oddawali poddani jakąś</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
           <t>subst:pl:nom:m1</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>ppas:pl:nom:m1:perf:aff</t>
         </is>
@@ -4661,10 +5716,15 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
+          <t>albo dwa korce</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
           <t>num:pl:acc:m3:congr:ncol</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>num:pl:acc:m3:congr</t>
         </is>
@@ -4681,10 +5741,15 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
+          <t>tak zwane spaśne</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
           <t>ppas:sg:acc:n:imperf:aff</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>ppas:pl:acc:f:perf:aff</t>
         </is>
@@ -4701,10 +5766,15 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
+          <t>zwane spaśne -</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
           <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="E214" t="inlineStr">
         <is>
           <t>adj:pl:acc:f:pos</t>
         </is>
@@ -4721,10 +5791,15 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
+          <t>kury kapłony kaczki</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
           <t>subst:pl:acc:m2</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>subst:pl:acc:f</t>
         </is>
@@ -4741,10 +5816,15 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
+          <t>motków uprząść –</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
           <t>inf:perf</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>subst:sg:acc:f</t>
         </is>
@@ -4761,10 +5841,15 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
+          <t>to razy słyszał</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
           <t>subst:pl:acc:m3</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>subst:pl:gen:m3</t>
         </is>
@@ -4781,10 +5866,15 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
+          <t>Dziadka Ostaszewskigo jak</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m1</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -4801,10 +5891,15 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
+          <t>Ostaszewskigo jak się</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
           <t>adv:pos</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>comp</t>
         </is>
@@ -4821,10 +5916,15 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
+          <t>jego kmiecie na</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
           <t>subst:sg:nom:m1</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>subst:pl:nom:m2</t>
         </is>
@@ -4841,10 +5941,15 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
+          <t>na Długim najlepsze</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
           <t>adj:sg:loc:m3:pos</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>adj:sg:loc:n:pos</t>
         </is>
@@ -4861,10 +5966,15 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
+          <t>Długim najlepsze mają</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
           <t>adj:sg:acc:n:sup</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>adv:sup</t>
         </is>
@@ -4881,10 +5991,15 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
+          <t>morgów suchey łąki</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
           <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>adj:pl:acc:f:pos</t>
         </is>
@@ -4901,10 +6016,15 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
+          <t>suchey łąki podedworem</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
           <t>subst:sg:gen:f</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>subst:pl:nom:f</t>
         </is>
@@ -4921,10 +6041,15 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
+          <t>łąki podedworem a</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
           <t>subst:sg:loc:m3</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>subst:sg:inst:m3</t>
         </is>
@@ -4941,10 +6066,15 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
+          <t>a nayskładniey położone</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
           <t>adv:sup</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
+      <c r="E226" t="inlineStr">
         <is>
           <t>prep:acc</t>
         </is>
@@ -4961,10 +6091,15 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
+          <t>nayskładniey położone dla</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
           <t>adj:pl:nom:m3:pos</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
+      <c r="E227" t="inlineStr">
         <is>
           <t>ppas:pl:nom:f:perf:aff</t>
         </is>
@@ -4981,10 +6116,15 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
+          <t>. Oycowskiey .</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
           <t>subst:sg:acc:f</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr">
+      <c r="E228" t="inlineStr">
         <is>
           <t>subst:sg:nom:m1</t>
         </is>
@@ -5001,10 +6141,15 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
+          <t>prawo warżenia piwa</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
           <t>ger:sg:gen:n:perf:aff</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr">
+      <c r="E229" t="inlineStr">
         <is>
           <t>ger:sg:gen:n:imperf:aff</t>
         </is>
@@ -5021,10 +6166,15 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
+          <t>i polowania na</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
           <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>ger:sg:gen:n:imperf:aff</t>
         </is>
@@ -5041,10 +6191,15 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
+          <t>i gromadzkim .</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
           <t>adj:sg:loc:m3:pos</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>subst:sg:inst:m3</t>
         </is>
@@ -5061,10 +6216,15 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
+          <t>– obowiązani byli</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
           <t>adj:pl:nom:m1:pos</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>ppas:pl:nom:m1:imperf:aff</t>
         </is>
@@ -5081,10 +6241,15 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
+          <t>byli leśni -</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
           <t>subst:pl:nom:m1</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>adj:pl:nom:m1:pos</t>
         </is>
@@ -5101,10 +6266,15 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
+          <t>- poddani uwolnieni</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
           <t>subst:pl:nom:m1</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>ppas:pl:nom:m1:perf:aff</t>
         </is>
@@ -5121,10 +6291,15 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
+          <t>wianki suszonych grzybów</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
           <t>ppas:pl:gen:m3:imperf:aff</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>ppas:pl:gen:m3:perf:aff</t>
         </is>
@@ -5141,10 +6316,15 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
+          <t>– miarkmi wianki</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
           <t>subst:pl:inst:f</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>subst:pl:nom:f</t>
         </is>
@@ -5161,10 +6341,15 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
+          <t>z niego dziesięcinę</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
           <t>ppron3:sg:gen:m3:ter:akc:praep</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>ppron3:sg:gen:m1:ter:akc:praep</t>
         </is>
@@ -5181,10 +6366,15 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
+          <t>jest dziesiąty pniak</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
           <t>adj:sg:acc:m3:pos</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>adj:sg:nom:m3:pos</t>
         </is>
@@ -5201,10 +6391,15 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
+          <t>dziesiąty pniak do</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m3</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>subst:sg:nom:m3</t>
         </is>
@@ -5221,10 +6416,15 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
+          <t>były wyłącznie w</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
           <t>part</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>adv:pos</t>
         </is>
@@ -5241,10 +6441,15 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
+          <t>Dominium Bludniki –</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
           <t>subst:pl:nom:n:pt</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
+      <c r="E241" t="inlineStr">
         <is>
           <t>subst:pl:nom:m3</t>
         </is>
@@ -5261,10 +6466,15 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
+          <t>. Nieszlachcic niemógł</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
           <t>subst:sg:nom:m1</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr">
+      <c r="E242" t="inlineStr">
         <is>
           <t>inf:perf</t>
         </is>
@@ -5281,10 +6491,15 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
+          <t>Nieszlachcic niemógł kupować</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
           <t>praet:sg:m1:imperf</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
+      <c r="E243" t="inlineStr">
         <is>
           <t>pred</t>
         </is>
@@ -5301,10 +6516,15 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
+          <t>postanawiał na swojem</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
           <t>prep:acc</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
+      <c r="E244" t="inlineStr">
         <is>
           <t>prep:loc</t>
         </is>
@@ -5321,10 +6541,15 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
+          <t>swojem mieycus Mandatariusza</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
           <t>subst:sg:loc:n:ncol</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr">
+      <c r="E245" t="inlineStr">
         <is>
           <t>subst:sg:loc:m3</t>
         </is>
@@ -5341,10 +6566,15 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
+          <t>– egzekował –</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
           <t>praet:sg:m1:perf</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr">
+      <c r="E246" t="inlineStr">
         <is>
           <t>praet:sg:m1:imperf</t>
         </is>
@@ -5361,10 +6591,15 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
+          <t>się żadne małżeństwo</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
           <t>adj:sg:nom:n:pos</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr">
+      <c r="E247" t="inlineStr">
         <is>
           <t>adj:sg:acc:n:pos</t>
         </is>
@@ -5381,10 +6616,15 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
+          <t>żadne małżeństwo skojarzyć</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
           <t>subst:sg:nom:n:ncol</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>subst:sg:acc:n:ncol</t>
         </is>
@@ -5401,10 +6641,15 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
+          <t>z Dominii nieprzyniósł</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
           <t>subst:sg:gen:f</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr">
+      <c r="E249" t="inlineStr">
         <is>
           <t>subst:sg:gen:n:ncol</t>
         </is>
@@ -5421,10 +6666,15 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
+          <t>nieprzyniósł kartki pozwolenia</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
           <t>subst:sg:gen:f</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr">
+      <c r="E250" t="inlineStr">
         <is>
           <t>subst:pl:acc:f</t>
         </is>
@@ -5441,10 +6691,15 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
+          <t>A chociaż i</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
           <t>part</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr">
+      <c r="E251" t="inlineStr">
         <is>
           <t>comp</t>
         </is>
@@ -5461,10 +6716,15 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
+          <t>chociaż i tu</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
           <t>conj</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
+      <c r="E252" t="inlineStr">
         <is>
           <t>part</t>
         </is>
@@ -5481,10 +6741,15 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
+          <t>mogły one być</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
           <t>ppron3:pl:nom:n:ter:akc:npraep</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr">
+      <c r="E253" t="inlineStr">
         <is>
           <t>ppron3:pl:nom:f:ter:akc:npraep</t>
         </is>
@@ -5501,10 +6766,15 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
+          <t>a ktoby był</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
           <t>part</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
+      <c r="E254" t="inlineStr">
         <is>
           <t>subst:sg:nom:m1</t>
         </is>
@@ -5521,10 +6791,15 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
+          <t>ktoby był niesprawiedliwym</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
           <t>praet:sg:m3:imperf</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr">
+      <c r="E255" t="inlineStr">
         <is>
           <t>praet:sg:m1:imperf</t>
         </is>
@@ -5541,10 +6816,15 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
+          <t>był niesprawiedliwym dla</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
           <t>adj:sg:inst:m3:pos</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr">
+      <c r="E256" t="inlineStr">
         <is>
           <t>adj:sg:inst:m1:pos</t>
         </is>
@@ -5561,10 +6841,15 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
+          <t>poddanych stawał pod</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
           <t>praet:sg:m3:imperf</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>praet:sg:m1:imperf</t>
         </is>
@@ -5581,10 +6866,15 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
+          <t>w Sanockie –</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
           <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>adj:sg:acc:n:pos</t>
         </is>
@@ -5601,10 +6891,15 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
+          <t>domu P .</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
           <t>brev:npun</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr">
+      <c r="E259" t="inlineStr">
         <is>
           <t>brev:pun</t>
         </is>
@@ -5621,10 +6916,15 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
+          <t>Dziadek móy mawiał</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr">
+      <c r="E260" t="inlineStr">
         <is>
           <t>subst:sg:nom:m1</t>
         </is>
@@ -5641,10 +6941,15 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
+          <t>po większej części</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
           <t>adj:sg:loc:f:com</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr">
+      <c r="E261" t="inlineStr">
         <is>
           <t>adj:sg:gen:f:com</t>
         </is>
@@ -5661,10 +6966,15 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
+          <t>– cząstkową –</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
           <t>adj:sg:inst:f:pos</t>
         </is>
       </c>
-      <c r="D262" t="inlineStr">
+      <c r="E262" t="inlineStr">
         <is>
           <t>adj:sg:nom:f:pos</t>
         </is>
@@ -5681,10 +6991,15 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
+          <t>– czynszową –</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
           <t>adj:sg:inst:f:pos</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr">
+      <c r="E263" t="inlineStr">
         <is>
           <t>adj:sg:nom:f:pos</t>
         </is>
@@ -5701,10 +7016,15 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
+          <t>dziś ludowemi zwanych</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
           <t>adj:pl:inst:f</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr">
+      <c r="E264" t="inlineStr">
         <is>
           <t>adj:pl:inst:f:pos</t>
         </is>
@@ -5721,10 +7041,15 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
+          <t>ludowemi zwanych czytać</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
           <t>ppas:pl:loc:f:imperf:aff</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr">
+      <c r="E265" t="inlineStr">
         <is>
           <t>ppas:pl:gen:f:perf:aff</t>
         </is>
@@ -5741,10 +7066,15 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
+          <t>czasem lizną trochę</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
           <t>praet:sg:m1:perf</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr">
+      <c r="E266" t="inlineStr">
         <is>
           <t>subst:sg:inst:f</t>
         </is>
@@ -5761,10 +7091,15 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
+          <t>lizną trochę łaciny</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
           <t>num:pl:acc:m3:rec</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr">
+      <c r="E267" t="inlineStr">
         <is>
           <t>adv</t>
         </is>
@@ -5781,10 +7116,15 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
+          <t>w gymnazyum –</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
           <t>subst:sg:loc:m3</t>
         </is>
       </c>
-      <c r="D268" t="inlineStr">
+      <c r="E268" t="inlineStr">
         <is>
           <t>subst:sg:loc:n:ncol</t>
         </is>
@@ -5801,10 +7141,15 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
+          <t>manipulacyi urzędowey –</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
           <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
-      <c r="D269" t="inlineStr">
+      <c r="E269" t="inlineStr">
         <is>
           <t>adj:pl:acc:f:pos</t>
         </is>
@@ -5821,10 +7166,15 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
+          <t>reprezentanta Domnikalnego czyli</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
           <t>adj:sg:acc:m1:pos</t>
         </is>
       </c>
-      <c r="D270" t="inlineStr">
+      <c r="E270" t="inlineStr">
         <is>
           <t>adj:sg:gen:m1:pos</t>
         </is>
@@ -5841,10 +7191,15 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
+          <t>. Mandatyrusza przyjmował</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
           <t>subst:sg:acc:f</t>
         </is>
       </c>
-      <c r="D271" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>subst:pl:acc:m3</t>
         </is>
@@ -5861,10 +7216,15 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
+          <t>przyjmował Dziedzic na</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D272" t="inlineStr">
+      <c r="E272" t="inlineStr">
         <is>
           <t>subst:sg:nom:m1</t>
         </is>
@@ -5881,10 +7241,15 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
+          <t>Dziedzica pensyę od</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
           <t>subst:sg:acc:f</t>
         </is>
       </c>
-      <c r="D273" t="inlineStr">
+      <c r="E273" t="inlineStr">
         <is>
           <t>subst:pl:acc:m3</t>
         </is>
@@ -5901,10 +7266,15 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
+          <t>od 120 do</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
           <t>num:pl:gen:m2:rec</t>
         </is>
       </c>
-      <c r="D274" t="inlineStr">
+      <c r="E274" t="inlineStr">
         <is>
           <t>num:pl:gen:m3:congr</t>
         </is>
@@ -5921,10 +7291,15 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
+          <t>do 200 –</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
           <t>num:pl:gen:m2:rec</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr">
+      <c r="E275" t="inlineStr">
         <is>
           <t>num:pl:gen:m3:congr</t>
         </is>
@@ -5941,10 +7316,15 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
+          <t>– 300 fl</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
           <t>num:pl:gen:m2:rec</t>
         </is>
       </c>
-      <c r="D276" t="inlineStr">
+      <c r="E276" t="inlineStr">
         <is>
           <t>num:pl:gen:m3:congr</t>
         </is>
@@ -5961,10 +7341,15 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
+          <t>fl 20 do</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
           <t>num:pl:gen:m3:rec</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr">
+      <c r="E277" t="inlineStr">
         <is>
           <t>dig</t>
         </is>
@@ -5981,10 +7366,15 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
+          <t>do 50 korcy</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
           <t>num:pl:gen:m3:rec</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr">
+      <c r="E278" t="inlineStr">
         <is>
           <t>num:pl:gen:m3:congr</t>
         </is>
@@ -6001,10 +7391,15 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
+          <t>50 korcy ordynaryi</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
           <t>subst:pl:gen:m3</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr">
+      <c r="E279" t="inlineStr">
         <is>
           <t>subst:sg:gen:m3</t>
         </is>
@@ -6021,10 +7416,15 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
+          <t>korcy ordynaryi –</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
           <t>subst:pl:gen:f</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr">
+      <c r="E280" t="inlineStr">
         <is>
           <t>subst:sg:gen:f</t>
         </is>
@@ -6041,10 +7441,15 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
+          <t>– pastwisko –</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
           <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr">
+      <c r="E281" t="inlineStr">
         <is>
           <t>subst:sg:nom:n:ncol</t>
         </is>
@@ -6061,10 +7466,15 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
+          <t>w jakim zastępował</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
           <t>adj:sg:loc:n:pos</t>
         </is>
       </c>
-      <c r="D282" t="inlineStr">
+      <c r="E282" t="inlineStr">
         <is>
           <t>adj:sg:loc:m3:pos</t>
         </is>
@@ -6081,10 +7491,15 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
+          <t>. Mimo tak</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
           <t>prep:gen</t>
         </is>
       </c>
-      <c r="D283" t="inlineStr">
+      <c r="E283" t="inlineStr">
         <is>
           <t>prep:acc</t>
         </is>
@@ -6101,10 +7516,15 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
+          <t>tak szczupłey dotacyi</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
           <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr">
+      <c r="E284" t="inlineStr">
         <is>
           <t>adj:pl:acc:f:pos</t>
         </is>
@@ -6121,10 +7541,15 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
+          <t>szczupłey dotacyi uwzględniając</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
           <t>subst:sg:gen:f</t>
         </is>
       </c>
-      <c r="D285" t="inlineStr">
+      <c r="E285" t="inlineStr">
         <is>
           <t>pcon:imperf</t>
         </is>
@@ -6141,10 +7566,15 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
+          <t>w one czasy</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
           <t>adj:pl:acc:m3:pos</t>
         </is>
       </c>
-      <c r="D286" t="inlineStr">
+      <c r="E286" t="inlineStr">
         <is>
           <t>ppron3:pl:nom:f:ter:akc:npraep</t>
         </is>
@@ -6161,10 +7591,15 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
+          <t>kosztował dzisiejszych 4</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
           <t>adj:pl:acc:m3:pos</t>
         </is>
       </c>
-      <c r="D287" t="inlineStr">
+      <c r="E287" t="inlineStr">
         <is>
           <t>adj:pl:gen:m3:pos</t>
         </is>
@@ -6181,10 +7616,15 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
+          <t>dzisiejszych 4 do</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
           <t>num:pl:acc:m2:rec</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr">
+      <c r="E288" t="inlineStr">
         <is>
           <t>num:pl:acc:m3:congr</t>
         </is>
@@ -6201,10 +7641,15 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
+          <t>do 5 centów</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
           <t>num:pl:gen:m2:rec</t>
         </is>
       </c>
-      <c r="D289" t="inlineStr">
+      <c r="E289" t="inlineStr">
         <is>
           <t>num:pl:acc:m3:rec</t>
         </is>
@@ -6221,10 +7666,15 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
+          <t>5 centów –</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
           <t>subst:pl:gen:m2</t>
         </is>
       </c>
-      <c r="D290" t="inlineStr">
+      <c r="E290" t="inlineStr">
         <is>
           <t>subst:pl:gen:m3</t>
         </is>
@@ -6241,10 +7691,15 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
+          <t>owsa cwansigera –</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m3</t>
         </is>
       </c>
-      <c r="D291" t="inlineStr">
+      <c r="E291" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -6261,10 +7716,15 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
+          <t>czyli 33 centy</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
           <t>num:pl:acc:m2:rec</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr">
+      <c r="E292" t="inlineStr">
         <is>
           <t>num:pl:acc:m3:congr</t>
         </is>
@@ -6281,10 +7741,15 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
+          <t>33 centy –</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
           <t>subst:pl:nom:m2</t>
         </is>
       </c>
-      <c r="D293" t="inlineStr">
+      <c r="E293" t="inlineStr">
         <is>
           <t>subst:pl:acc:m3</t>
         </is>
@@ -6301,10 +7766,15 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
+          <t>– korzec żyta</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
           <t>subst:sg:nom:m3</t>
         </is>
       </c>
-      <c r="D294" t="inlineStr">
+      <c r="E294" t="inlineStr">
         <is>
           <t>subst:sg:acc:f</t>
         </is>
@@ -6321,10 +7791,15 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
+          <t>żyta dzisiejszych 1</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
           <t>adj:pl:gen:m2:pos</t>
         </is>
       </c>
-      <c r="D295" t="inlineStr">
+      <c r="E295" t="inlineStr">
         <is>
           <t>adj:pl:gen:m3:pos</t>
         </is>
@@ -6341,10 +7816,15 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
+          <t>dzisiejszych 1 fl</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
           <t>num:sg:acc:m2:rec</t>
         </is>
       </c>
-      <c r="D296" t="inlineStr">
+      <c r="E296" t="inlineStr">
         <is>
           <t>num:pl:gen:m3:congr</t>
         </is>
@@ -6361,10 +7841,15 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
+          <t>korzec 10 do</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
           <t>num:pl:acc:m2:rec</t>
         </is>
       </c>
-      <c r="D297" t="inlineStr">
+      <c r="E297" t="inlineStr">
         <is>
           <t>num:pl:acc:m3:rec</t>
         </is>
@@ -6381,10 +7866,15 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
+          <t>do 14 centów</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
           <t>num:pl:gen:m2:rec</t>
         </is>
       </c>
-      <c r="D298" t="inlineStr">
+      <c r="E298" t="inlineStr">
         <is>
           <t>num:pl:gen:m3:congr</t>
         </is>
@@ -6401,10 +7891,15 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
+          <t>14 centów –</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
           <t>subst:pl:gen:m2</t>
         </is>
       </c>
-      <c r="D299" t="inlineStr">
+      <c r="E299" t="inlineStr">
         <is>
           <t>subst:pl:gen:m3</t>
         </is>
@@ -6421,10 +7916,15 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
+          <t>mając przytem jakiś</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
           <t>subst:sg:loc:n:ncol</t>
         </is>
       </c>
-      <c r="D300" t="inlineStr">
+      <c r="E300" t="inlineStr">
         <is>
           <t>subst:sg:inst:m3</t>
         </is>
@@ -6441,10 +7941,15 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
+          <t>i małe ale</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
           <t>adj:pl:nom:m3:pos</t>
         </is>
       </c>
-      <c r="D301" t="inlineStr">
+      <c r="E301" t="inlineStr">
         <is>
           <t>adj:pl:acc:f:pos</t>
         </is>
@@ -6461,10 +7966,15 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
+          <t>ale częste obrywki</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
           <t>adj:pl:nom:m3:pos</t>
         </is>
       </c>
-      <c r="D302" t="inlineStr">
+      <c r="E302" t="inlineStr">
         <is>
           <t>adj:pl:acc:f:pos</t>
         </is>
@@ -6481,10 +7991,15 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
+          <t>częste obrywki Panowie</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
           <t>subst:pl:nom:m3</t>
         </is>
       </c>
-      <c r="D303" t="inlineStr">
+      <c r="E303" t="inlineStr">
         <is>
           <t>subst:pl:acc:f</t>
         </is>
@@ -6501,10 +8016,15 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
+          <t>nieraz lepiey jak</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
           <t>adv:com</t>
         </is>
       </c>
-      <c r="D304" t="inlineStr">
+      <c r="E304" t="inlineStr">
         <is>
           <t>adj:sg:acc:m3:pos</t>
         </is>
@@ -6521,10 +8041,15 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
+          <t>było i Panom</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
           <t>conj</t>
         </is>
       </c>
-      <c r="D305" t="inlineStr">
+      <c r="E305" t="inlineStr">
         <is>
           <t>part</t>
         </is>
@@ -6541,10 +8066,15 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
+          <t>Urzędnikom Cyrkularnym –</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
           <t>adj:sg:dat:m1:pos</t>
         </is>
       </c>
-      <c r="D306" t="inlineStr">
+      <c r="E306" t="inlineStr">
         <is>
           <t>adj:pl:dat:m1:pos</t>
         </is>
@@ -6561,10 +8091,15 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
+          <t>– ładąn parą</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
           <t>adj:pl:inst:f:pos</t>
         </is>
       </c>
-      <c r="D307" t="inlineStr">
+      <c r="E307" t="inlineStr">
         <is>
           <t>subst:sg:nom:m1</t>
         </is>
@@ -6581,10 +8116,15 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
+          <t>ładąn parą siwoszów</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
           <t>subst:sg:inst:f</t>
         </is>
       </c>
-      <c r="D308" t="inlineStr">
+      <c r="E308" t="inlineStr">
         <is>
           <t>subst:sg:nom:f</t>
         </is>
@@ -6601,10 +8141,15 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
+          <t>parą siwoszów ,</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
           <t>subst:pl:gen:m2</t>
         </is>
       </c>
-      <c r="D309" t="inlineStr">
+      <c r="E309" t="inlineStr">
         <is>
           <t>subst:pl:gen:m3</t>
         </is>
@@ -6621,10 +8166,15 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
+          <t>elegancko ubrany –</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
-      <c r="D310" t="inlineStr">
+      <c r="E310" t="inlineStr">
         <is>
           <t>ppas:sg:nom:m1:perf:aff</t>
         </is>
@@ -6641,10 +8191,15 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
+          <t>brał pensyi 600</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
           <t>part</t>
         </is>
       </c>
-      <c r="D311" t="inlineStr">
+      <c r="E311" t="inlineStr">
         <is>
           <t>subst:pl:acc:m3</t>
         </is>
@@ -6661,10 +8216,15 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
+          <t>pensyi 600 fl</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
           <t>num:pl:acc:m2:rec</t>
         </is>
       </c>
-      <c r="D312" t="inlineStr">
+      <c r="E312" t="inlineStr">
         <is>
           <t>num:pl:acc:m3:rec</t>
         </is>
@@ -6681,10 +8241,15 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
+          <t>gdy móy Dziad</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
-      <c r="D313" t="inlineStr">
+      <c r="E313" t="inlineStr">
         <is>
           <t>subst:pl:nom:m1</t>
         </is>
@@ -6701,10 +8266,15 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
+          <t>w Bludnikach –</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
           <t>subst:pl:loc:n:pt</t>
         </is>
       </c>
-      <c r="D314" t="inlineStr">
+      <c r="E314" t="inlineStr">
         <is>
           <t>subst:pl:loc:m3</t>
         </is>
@@ -6721,10 +8291,15 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
+          <t>Bludnik należały Pokasowce</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
           <t>praet:pl:f:imperf</t>
         </is>
       </c>
-      <c r="D315" t="inlineStr">
+      <c r="E315" t="inlineStr">
         <is>
           <t>praet:pl:n:imperf</t>
         </is>
@@ -6741,10 +8316,15 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
+          <t>i Siedliska –</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
           <t>subst:pl:nom:f</t>
         </is>
       </c>
-      <c r="D316" t="inlineStr">
+      <c r="E316" t="inlineStr">
         <is>
           <t>subst:pl:nom:n:ncol</t>
         </is>
@@ -6761,10 +8341,15 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
+          <t>wobec zakłopotania nowego</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
           <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
-      <c r="D317" t="inlineStr">
+      <c r="E317" t="inlineStr">
         <is>
           <t>ger:sg:gen:n:perf:aff</t>
         </is>
@@ -6781,10 +8366,15 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
+          <t>się Notiak –</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D318" t="inlineStr">
+      <c r="E318" t="inlineStr">
         <is>
           <t>subst:sg:nom:m1</t>
         </is>
@@ -6801,10 +8391,15 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
+          <t>to jego samego</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
           <t>ppron3:sg:acc:m1:ter:akc:npraep</t>
         </is>
       </c>
-      <c r="D319" t="inlineStr">
+      <c r="E319" t="inlineStr">
         <is>
           <t>ppron3:sg:gen:m1:ter:akc:npraep</t>
         </is>
@@ -6821,10 +8416,15 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
+          <t>jego samego bo</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
           <t>adj:sg:acc:m1:pos</t>
         </is>
       </c>
-      <c r="D320" t="inlineStr">
+      <c r="E320" t="inlineStr">
         <is>
           <t>adj:sg:gen:m1:pos</t>
         </is>
@@ -6841,10 +8441,15 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
+          <t>dokoła ławy i</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D321" t="inlineStr">
+      <c r="E321" t="inlineStr">
         <is>
           <t>subst:sg:gen:f</t>
         </is>
@@ -6861,10 +8466,15 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
+          <t>stół nakryty długim</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
           <t>ppas:sg:nom:m3:perf:aff</t>
         </is>
       </c>
-      <c r="D322" t="inlineStr">
+      <c r="E322" t="inlineStr">
         <is>
           <t>ppas:sg:acc:m3:perf:aff</t>
         </is>
@@ -6881,10 +8491,15 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
+          <t>końcach czerwoną przędzą</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
           <t>adj:sg:inst:f:pos</t>
         </is>
       </c>
-      <c r="D323" t="inlineStr">
+      <c r="E323" t="inlineStr">
         <is>
           <t>adj:sg:nom:f:pos</t>
         </is>
@@ -6901,10 +8516,15 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
+          <t>czerwoną przędzą i</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
           <t>subst:sg:inst:f</t>
         </is>
       </c>
-      <c r="D324" t="inlineStr">
+      <c r="E324" t="inlineStr">
         <is>
           <t>subst:sg:nom:f</t>
         </is>
@@ -6921,10 +8541,15 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
+          <t>i frędzlą białą</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
           <t>subst:sg:inst:f</t>
         </is>
       </c>
-      <c r="D325" t="inlineStr">
+      <c r="E325" t="inlineStr">
         <is>
           <t>subst:sg:nom:f</t>
         </is>
@@ -6941,10 +8566,15 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
+          <t>frędzlą białą zkończone</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
           <t>adj:sg:inst:f:pos</t>
         </is>
       </c>
-      <c r="D326" t="inlineStr">
+      <c r="E326" t="inlineStr">
         <is>
           <t>adj:sg:nom:f:pos</t>
         </is>
@@ -6961,10 +8591,15 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
+          <t>białą zkończone )</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
           <t>adj:sg:inst:f:pos</t>
         </is>
       </c>
-      <c r="D327" t="inlineStr">
+      <c r="E327" t="inlineStr">
         <is>
           <t>ppas:sg:nom:n:perf:aff</t>
         </is>
@@ -6981,10 +8616,15 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
+          <t>– gotowe każdej</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
           <t>subst:sg:nom:n:ncol</t>
         </is>
       </c>
-      <c r="D328" t="inlineStr">
+      <c r="E328" t="inlineStr">
         <is>
           <t>adj:pl:nom:f:pos</t>
         </is>
@@ -7001,10 +8641,15 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
+          <t>każdej chwili do</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
           <t>subst:sg:gen:f</t>
         </is>
       </c>
-      <c r="D329" t="inlineStr">
+      <c r="E329" t="inlineStr">
         <is>
           <t>subst:sg:dat:f</t>
         </is>
@@ -7021,10 +8666,15 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
+          <t>Dziadek móy odpowiedział</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
-      <c r="D330" t="inlineStr">
+      <c r="E330" t="inlineStr">
         <is>
           <t>subst:sg:nom:m1</t>
         </is>
@@ -7041,10 +8691,15 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
+          <t>mu Ty człowiecze</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
           <t>ppron12:sg:voc:m1:sec</t>
         </is>
       </c>
-      <c r="D331" t="inlineStr">
+      <c r="E331" t="inlineStr">
         <is>
           <t>ppron12:sg:nom:m1:sec</t>
         </is>
@@ -7061,10 +8716,15 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
+          <t>mi nieporadzisz –</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
           <t>fin:sg:sec:perf</t>
         </is>
       </c>
-      <c r="D332" t="inlineStr">
+      <c r="E332" t="inlineStr">
         <is>
           <t>fin:sg:sec:imperf</t>
         </is>
@@ -7081,10 +8741,15 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
+          <t>Dziadek potrzebuję 2000</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
           <t>fin:sg:pri:imperf</t>
         </is>
       </c>
-      <c r="D333" t="inlineStr">
+      <c r="E333" t="inlineStr">
         <is>
           <t>fin:sg:ter:imperf</t>
         </is>
@@ -7101,10 +8766,15 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
+          <t>potrzebuję 2000 Dukatów</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
           <t>num:pl:acc:m2:rec</t>
         </is>
       </c>
-      <c r="D334" t="inlineStr">
+      <c r="E334" t="inlineStr">
         <is>
           <t>num:pl:gen:m3:congr</t>
         </is>
@@ -7121,10 +8791,15 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
+          <t>2000 Dukatów –</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
           <t>subst:pl:gen:m2</t>
         </is>
       </c>
-      <c r="D335" t="inlineStr">
+      <c r="E335" t="inlineStr">
         <is>
           <t>subst:pl:gen:m3</t>
         </is>
@@ -7141,10 +8816,15 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
+          <t>wyliczył 2000 sztuk</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
           <t>num:pl:acc:m2:rec</t>
         </is>
       </c>
-      <c r="D336" t="inlineStr">
+      <c r="E336" t="inlineStr">
         <is>
           <t>num:pl:acc:f:rec</t>
         </is>
@@ -7161,10 +8841,15 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
+          <t>za mojey pamięci</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
           <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
-      <c r="D337" t="inlineStr">
+      <c r="E337" t="inlineStr">
         <is>
           <t>adj:pl:acc:f:pos</t>
         </is>
@@ -7181,10 +8866,15 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
+          <t>liczono sześciu w</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
           <t>num:pl:nom:m1:rec:ncol</t>
         </is>
       </c>
-      <c r="D338" t="inlineStr">
+      <c r="E338" t="inlineStr">
         <is>
           <t>num:pl:acc:m1:rec</t>
         </is>
@@ -7201,10 +8891,15 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
+          <t>w Bludnikach .</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
           <t>subst:pl:loc:n:pt</t>
         </is>
       </c>
-      <c r="D339" t="inlineStr">
+      <c r="E339" t="inlineStr">
         <is>
           <t>subst:pl:loc:m3</t>
         </is>
@@ -7221,10 +8916,15 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
+          <t>był jaszcze tam</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
           <t>part</t>
         </is>
       </c>
-      <c r="D340" t="inlineStr">
+      <c r="E340" t="inlineStr">
         <is>
           <t>adv</t>
         </is>
@@ -7241,10 +8941,15 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
+          <t>jaszcze tam za</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
           <t>part</t>
         </is>
       </c>
-      <c r="D341" t="inlineStr">
+      <c r="E341" t="inlineStr">
         <is>
           <t>adv</t>
         </is>
@@ -7261,10 +8966,15 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
+          <t>, księżunio od</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
           <t>subst:sg:nom:m1</t>
         </is>
       </c>
-      <c r="D342" t="inlineStr">
+      <c r="E342" t="inlineStr">
         <is>
           <t>subst:sg:voc:m1</t>
         </is>
@@ -7281,10 +8991,15 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
+          <t>owego Głoweckiego –</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
           <t>subst:sg:gen:m1</t>
         </is>
       </c>
-      <c r="D343" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>adj:sg:gen:m1:pos</t>
         </is>
@@ -7301,10 +9016,15 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
+          <t>w Lubelskie jako</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
           <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
-      <c r="D344" t="inlineStr">
+      <c r="E344" t="inlineStr">
         <is>
           <t>adj:sg:acc:n:pos</t>
         </is>
@@ -7321,10 +9041,15 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
+          <t>Lubelskie jako pop</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
           <t>conj</t>
         </is>
       </c>
-      <c r="D345" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>comp</t>
         </is>
@@ -7341,10 +9066,15 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
+          <t>pop szyzmatycki jako</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
-      <c r="D346" t="inlineStr">
+      <c r="E346" t="inlineStr">
         <is>
           <t>subst:sg:nom:m1</t>
         </is>
@@ -7361,10 +9091,15 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
+          <t>szyzmatycki jako renegat</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
           <t>conj</t>
         </is>
       </c>
-      <c r="D347" t="inlineStr">
+      <c r="E347" t="inlineStr">
         <is>
           <t>comp</t>
         </is>
@@ -7381,10 +9116,15 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
+          <t>. I tak</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
           <t>conj</t>
         </is>
       </c>
-      <c r="D348" t="inlineStr">
+      <c r="E348" t="inlineStr">
         <is>
           <t>part</t>
         </is>
@@ -7401,10 +9141,15 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
+          <t>tak późney dokupił</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
           <t>adv:com</t>
         </is>
       </c>
-      <c r="D349" t="inlineStr">
+      <c r="E349" t="inlineStr">
         <is>
           <t>subst:sg:nom:m1</t>
         </is>
@@ -7421,10 +9166,15 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
+          <t>Dziad móy Dorchów</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
-      <c r="D350" t="inlineStr">
+      <c r="E350" t="inlineStr">
         <is>
           <t>subst:sg:nom:m1</t>
         </is>
@@ -7441,10 +9191,15 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
+          <t>móy Dorchów i</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m3</t>
         </is>
       </c>
-      <c r="D351" t="inlineStr">
+      <c r="E351" t="inlineStr">
         <is>
           <t>subst:pl:acc:m1</t>
         </is>
@@ -7461,10 +9216,15 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
+          <t>i Kurypów –</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m3</t>
         </is>
       </c>
-      <c r="D352" t="inlineStr">
+      <c r="E352" t="inlineStr">
         <is>
           <t>subst:pl:gen:m1</t>
         </is>
@@ -7481,10 +9241,15 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
+          <t>osadził nayjstarszego syna</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
           <t>adj:sg:acc:m1:sup</t>
         </is>
       </c>
-      <c r="D353" t="inlineStr">
+      <c r="E353" t="inlineStr">
         <is>
           <t>adj:sg:acc:m1:pos</t>
         </is>
@@ -7501,10 +9266,15 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
+          <t>syna Michała –</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m1</t>
         </is>
       </c>
-      <c r="D354" t="inlineStr">
+      <c r="E354" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -7521,10 +9291,15 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
+          <t>tych dóbr napisał</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
           <t>subst:pl:gen:n:pt</t>
         </is>
       </c>
-      <c r="D355" t="inlineStr">
+      <c r="E355" t="inlineStr">
         <is>
           <t>subst:pl:gen:n:ncol</t>
         </is>
@@ -7541,10 +9316,15 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
+          <t>– Toje diło</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
           <t>ign</t>
         </is>
       </c>
-      <c r="D356" t="inlineStr">
+      <c r="E356" t="inlineStr">
         <is>
           <t>fin:sg:ter:imperf</t>
         </is>
@@ -7561,10 +9341,15 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
+          <t>Toje diło daruju</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
           <t>ign</t>
         </is>
       </c>
-      <c r="D357" t="inlineStr">
+      <c r="E357" t="inlineStr">
         <is>
           <t>subst:sg:nom:n:ncol</t>
         </is>
@@ -7581,10 +9366,15 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
+          <t>diło daruju ukochanomu</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
           <t>ign</t>
         </is>
       </c>
-      <c r="D358" t="inlineStr">
+      <c r="E358" t="inlineStr">
         <is>
           <t>subst:sg:dat:m1</t>
         </is>
@@ -7601,10 +9391,15 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
+          <t>daruju ukochanomu Synu</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
           <t>ign</t>
         </is>
       </c>
-      <c r="D359" t="inlineStr">
+      <c r="E359" t="inlineStr">
         <is>
           <t>adj:sg:dat:m1:pos</t>
         </is>
@@ -7621,10 +9416,15 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
+          <t>ukochanomu Synu mojomu</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
           <t>ign</t>
         </is>
       </c>
-      <c r="D360" t="inlineStr">
+      <c r="E360" t="inlineStr">
         <is>
           <t>subst:sg:voc:m1</t>
         </is>
@@ -7641,10 +9441,15 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
+          <t>Synu mojomu Mychayłowu</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
           <t>ign</t>
         </is>
       </c>
-      <c r="D361" t="inlineStr">
+      <c r="E361" t="inlineStr">
         <is>
           <t>subst:sg:dat:m1</t>
         </is>
@@ -7661,10 +9466,15 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
+          <t>mojomu Mychayłowu .</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
           <t>ign</t>
         </is>
       </c>
-      <c r="D362" t="inlineStr">
+      <c r="E362" t="inlineStr">
         <is>
           <t>subst:sg:dat:m1</t>
         </is>
@@ -7681,10 +9491,15 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
+          <t>. Bludniki oddał</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
           <t>subst:pl:nom:n:pt</t>
         </is>
       </c>
-      <c r="D363" t="inlineStr">
+      <c r="E363" t="inlineStr">
         <is>
           <t>subst:sg:nom:m1</t>
         </is>
@@ -7701,10 +9516,15 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
+          <t>Oyciec móy objął</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
-      <c r="D364" t="inlineStr">
+      <c r="E364" t="inlineStr">
         <is>
           <t>subst:sg:nom:m1</t>
         </is>
@@ -7721,10 +9541,15 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
+          <t>to tak aż</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
           <t>part</t>
         </is>
       </c>
-      <c r="D365" t="inlineStr">
+      <c r="E365" t="inlineStr">
         <is>
           <t>adv:pos</t>
         </is>
@@ -7741,10 +9566,15 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
+          <t>Dziadek móy do</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
-      <c r="D366" t="inlineStr">
+      <c r="E366" t="inlineStr">
         <is>
           <t>subst:sg:acc:m1</t>
         </is>
@@ -7761,10 +9591,15 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
+          <t>aż dośmierci Oyca</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
           <t>subst:pl:gen:f</t>
         </is>
       </c>
-      <c r="D367" t="inlineStr">
+      <c r="E367" t="inlineStr">
         <is>
           <t>fin:sg:ter:perf</t>
         </is>
@@ -7781,10 +9616,15 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
+          <t>dośmierci Oyca przy</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
           <t>subst:sg:gen:m1</t>
         </is>
       </c>
-      <c r="D368" t="inlineStr">
+      <c r="E368" t="inlineStr">
         <is>
           <t>subst:sg:acc:m1</t>
         </is>
@@ -7801,10 +9641,15 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
+          <t>Dziadek móy ku</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
-      <c r="D369" t="inlineStr">
+      <c r="E369" t="inlineStr">
         <is>
           <t>subst:sg:nom:m1</t>
         </is>
@@ -7821,10 +9666,15 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
+          <t>i ile sobie</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
           <t>adv</t>
         </is>
       </c>
-      <c r="D370" t="inlineStr">
+      <c r="E370" t="inlineStr">
         <is>
           <t>num:pl:acc:m3:rec</t>
         </is>
@@ -7841,10 +9691,15 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
+          <t>przypominam około 1826</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
           <t>part</t>
         </is>
       </c>
-      <c r="D371" t="inlineStr">
+      <c r="E371" t="inlineStr">
         <is>
           <t>prep:gen</t>
         </is>
@@ -7861,10 +9716,15 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
+          <t>własność Semiginów .</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
           <t>subst:pl:acc:m1</t>
         </is>
       </c>
-      <c r="D372" t="inlineStr">
+      <c r="E372" t="inlineStr">
         <is>
           <t>subst:pl:gen:m1</t>
         </is>
@@ -7881,10 +9741,15 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
+          <t>wydzielił Oyciec schedę</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
           <t>subst:sg:nom:m1</t>
         </is>
       </c>
-      <c r="D373" t="inlineStr">
+      <c r="E373" t="inlineStr">
         <is>
           <t>subst:sg:acc:m3</t>
         </is>
@@ -7901,10 +9766,15 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
+          <t>końcu pono w</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
           <t>part</t>
         </is>
       </c>
-      <c r="D374" t="inlineStr">
+      <c r="E374" t="inlineStr">
         <is>
           <t>subst:sg:acc:m3</t>
         </is>
@@ -7921,10 +9791,15 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
+          <t>która to Lipa</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
           <t>comp</t>
         </is>
       </c>
-      <c r="D375" t="inlineStr">
+      <c r="E375" t="inlineStr">
         <is>
           <t>pred</t>
         </is>
@@ -7941,10 +9816,15 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
+          <t>Lipa niewinem .</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
           <t>fin:sg:pri:imperf</t>
         </is>
       </c>
-      <c r="D376" t="inlineStr">
+      <c r="E376" t="inlineStr">
         <is>
           <t>subst:sg:inst:m3</t>
         </is>
@@ -7961,10 +9841,15 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
+          <t>z Bludnikami o</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
           <t>subst:pl:inst:n:pt</t>
         </is>
       </c>
-      <c r="D377" t="inlineStr">
+      <c r="E377" t="inlineStr">
         <is>
           <t>subst:pl:inst:m3</t>
         </is>
@@ -7981,10 +9866,15 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
+          <t>Bludnikami o miedzę</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
           <t>prep:acc</t>
         </is>
       </c>
-      <c r="D378" t="inlineStr">
+      <c r="E378" t="inlineStr">
         <is>
           <t>prep:loc</t>
         </is>
@@ -8001,10 +9891,15 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
+          <t>o miedzę .</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
           <t>subst:sg:acc:f</t>
         </is>
       </c>
-      <c r="D379" t="inlineStr">
+      <c r="E379" t="inlineStr">
         <is>
           <t>subst:sg:loc:f</t>
         </is>
@@ -8021,10 +9916,15 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
+          <t>Ożeniony ze Zabilską</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
           <t>prep:inst:wok</t>
         </is>
       </c>
-      <c r="D380" t="inlineStr">
+      <c r="E380" t="inlineStr">
         <is>
           <t>prep:gen:wok</t>
         </is>
@@ -8041,10 +9941,15 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
+          <t>ze Zabilską z</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
           <t>subst:sg:inst:f</t>
         </is>
       </c>
-      <c r="D381" t="inlineStr">
+      <c r="E381" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -8061,10 +9966,15 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
+          <t>Zabilską z Temerowiec</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
           <t>prep:gen:nwok</t>
         </is>
       </c>
-      <c r="D382" t="inlineStr">
+      <c r="E382" t="inlineStr">
         <is>
           <t>prep:inst:nwok</t>
         </is>
@@ -8081,10 +9991,15 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
+          <t>z Temerowiec ,</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
           <t>subst:pl:gen:n:ncol</t>
         </is>
       </c>
-      <c r="D383" t="inlineStr">
+      <c r="E383" t="inlineStr">
         <is>
           <t>subst:sg:inst:f</t>
         </is>
@@ -8101,10 +10016,15 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
+          <t>, siostra Teodora</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D384" t="inlineStr">
+      <c r="E384" t="inlineStr">
         <is>
           <t>subst:sg:inst:f</t>
         </is>
@@ -8121,10 +10041,15 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
+          <t>Stanisława Zabilskich –</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
           <t>subst:pl:acc:m1</t>
         </is>
       </c>
-      <c r="D385" t="inlineStr">
+      <c r="E385" t="inlineStr">
         <is>
           <t>subst:pl:gen:m1</t>
         </is>
@@ -8141,10 +10066,15 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
+          <t>jedynaka Sabina .</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
           <t>subst:sg:gen:m1</t>
         </is>
       </c>
-      <c r="D386" t="inlineStr">
+      <c r="E386" t="inlineStr">
         <is>
           <t>subst:sg:acc:m1</t>
         </is>
@@ -8161,10 +10091,15 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
+          <t>ale i syn</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
           <t>conj</t>
         </is>
       </c>
-      <c r="D387" t="inlineStr">
+      <c r="E387" t="inlineStr">
         <is>
           <t>part</t>
         </is>
@@ -8181,10 +10116,15 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
+          <t>poszedł za Oycem</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
           <t>prep:acc</t>
         </is>
       </c>
-      <c r="D388" t="inlineStr">
+      <c r="E388" t="inlineStr">
         <is>
           <t>prep:inst</t>
         </is>
@@ -8201,10 +10141,15 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
+          <t>lat około 24</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
           <t>part</t>
         </is>
       </c>
-      <c r="D389" t="inlineStr">
+      <c r="E389" t="inlineStr">
         <is>
           <t>prep:gen</t>
         </is>
@@ -8221,10 +10166,15 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
+          <t>około 24 na</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
           <t>num:pl:gen:m3:rec</t>
         </is>
       </c>
-      <c r="D390" t="inlineStr">
+      <c r="E390" t="inlineStr">
         <is>
           <t>num:pl:gen:m3:congr</t>
         </is>
@@ -8241,10 +10191,15 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
+          <t>po synie na</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
           <t>subst:sg:loc:m3</t>
         </is>
       </c>
-      <c r="D391" t="inlineStr">
+      <c r="E391" t="inlineStr">
         <is>
           <t>subst:sg:loc:m1</t>
         </is>
@@ -8261,10 +10216,15 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
+          <t>zapisała Dorchów bratu</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
           <t>subst:pl:acc:m3</t>
         </is>
       </c>
-      <c r="D392" t="inlineStr">
+      <c r="E392" t="inlineStr">
         <is>
           <t>subst:sg:acc:m3</t>
         </is>
@@ -8281,10 +10241,15 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
+          <t>żona temu pono</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
           <t>subst:sg:dat:n:ncol</t>
         </is>
       </c>
-      <c r="D393" t="inlineStr">
+      <c r="E393" t="inlineStr">
         <is>
           <t>adj:sg:dat:m1:pos</t>
         </is>
@@ -8301,10 +10266,15 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
+          <t>z Bełzkiego ,</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
           <t>subst:sg:gen:m3</t>
         </is>
       </c>
-      <c r="D394" t="inlineStr">
+      <c r="E394" t="inlineStr">
         <is>
           <t>subst:sg:gen:n:ncol</t>
         </is>
@@ -8321,10 +10291,15 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
+          <t>zostawił Dorchów swojemu</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
           <t>subst:pl:acc:m1</t>
         </is>
       </c>
-      <c r="D395" t="inlineStr">
+      <c r="E395" t="inlineStr">
         <is>
           <t>subst:sg:acc:m3</t>
         </is>
@@ -8341,10 +10316,15 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
+          <t>– niebył gospodarzem</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
           <t>praet:sg:ter:imperf</t>
         </is>
       </c>
-      <c r="D396" t="inlineStr">
+      <c r="E396" t="inlineStr">
         <is>
           <t>praet:sg:m1:perf</t>
         </is>
@@ -8361,10 +10341,15 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
+          <t>gospodarzem więcey fantasta</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
           <t>adv:com</t>
         </is>
       </c>
-      <c r="D397" t="inlineStr">
+      <c r="E397" t="inlineStr">
         <is>
           <t>subst:sg:gen:m3</t>
         </is>
@@ -8381,10 +10366,15 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
+          <t>czytywał wgłos „</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
           <t>adv</t>
         </is>
       </c>
-      <c r="D398" t="inlineStr">
+      <c r="E398" t="inlineStr">
         <is>
           <t>subst:sg:acc:f</t>
         </is>
@@ -8401,10 +10391,15 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
+          <t>„ Pana Tadeusza</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m1</t>
         </is>
       </c>
-      <c r="D399" t="inlineStr">
+      <c r="E399" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -8421,10 +10416,15 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
+          <t>Pana Tadeusza ”</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m1</t>
         </is>
       </c>
-      <c r="D400" t="inlineStr">
+      <c r="E400" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -8441,10 +10441,15 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
+          <t>i częstował cały</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
           <t>praet:sg:m3:imperf</t>
         </is>
       </c>
-      <c r="D401" t="inlineStr">
+      <c r="E401" t="inlineStr">
         <is>
           <t>praet:sg:m1:imperf</t>
         </is>
@@ -8461,10 +10466,15 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
+          <t>na gołey podłodze</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
           <t>adj:sg:loc:f:pos</t>
         </is>
       </c>
-      <c r="D402" t="inlineStr">
+      <c r="E402" t="inlineStr">
         <is>
           <t>subst:pl:acc:m3</t>
         </is>
@@ -8481,10 +10491,15 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
+          <t>do tey praktyki</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
           <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
-      <c r="D403" t="inlineStr">
+      <c r="E403" t="inlineStr">
         <is>
           <t>subst:sg:gen:f</t>
         </is>
@@ -8501,10 +10516,15 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
+          <t>ale ci niemogli</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
           <t>ppron12:sg:dat:m1:sec:nakc</t>
         </is>
       </c>
-      <c r="D404" t="inlineStr">
+      <c r="E404" t="inlineStr">
         <is>
           <t>adj:pl:nom:m1:pos</t>
         </is>
@@ -8521,10 +10541,15 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
+          <t>Gdy przyszedł wielki</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
           <t>praet:sg:m1:perf</t>
         </is>
       </c>
-      <c r="D405" t="inlineStr">
+      <c r="E405" t="inlineStr">
         <is>
           <t>praet:sg:m3:perf</t>
         </is>
@@ -8541,10 +10566,15 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
+          <t>nietylko czeladź ale</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D406" t="inlineStr">
+      <c r="E406" t="inlineStr">
         <is>
           <t>subst:sg:nom:m3</t>
         </is>
@@ -8561,10 +10591,15 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
+          <t>ale i bydło</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
           <t>conj</t>
         </is>
       </c>
-      <c r="D407" t="inlineStr">
+      <c r="E407" t="inlineStr">
         <is>
           <t>part</t>
         </is>
@@ -8581,10 +10616,15 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
+          <t>więc sądny to</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m3:pos</t>
         </is>
       </c>
-      <c r="D408" t="inlineStr">
+      <c r="E408" t="inlineStr">
         <is>
           <t>subst:sg:acc:m3</t>
         </is>
@@ -8601,10 +10641,15 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
+          <t>na obeyściu niemożna</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
           <t>subst:sg:loc:n:ncol</t>
         </is>
       </c>
-      <c r="D409" t="inlineStr">
+      <c r="E409" t="inlineStr">
         <is>
           <t>ger:sg:loc:n:perf:aff</t>
         </is>
@@ -8621,10 +10666,15 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
+          <t>obeyściu niemożna było</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
           <t>pred</t>
         </is>
       </c>
-      <c r="D410" t="inlineStr">
+      <c r="E410" t="inlineStr">
         <is>
           <t>adj:sg:inst:f:pos</t>
         </is>
@@ -8641,10 +10691,15 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
+          <t>zacny tylko raptus</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
           <t>conj</t>
         </is>
       </c>
-      <c r="D411" t="inlineStr">
+      <c r="E411" t="inlineStr">
         <is>
           <t>part</t>
         </is>
@@ -8661,10 +10716,15 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
+          <t>tylko raptus .</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
           <t>subst:sg:nom:m1</t>
         </is>
       </c>
-      <c r="D412" t="inlineStr">
+      <c r="E412" t="inlineStr">
         <is>
           <t>subst:sg:nom:m3</t>
         </is>
@@ -8681,10 +10741,15 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
+          <t>służba klęczącym ze</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
           <t>adj:sg:inst:m1:pos</t>
         </is>
       </c>
-      <c r="D413" t="inlineStr">
+      <c r="E413" t="inlineStr">
         <is>
           <t>pact:sg:inst:m1:imperf:aff</t>
         </is>
@@ -8701,10 +10766,15 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
+          <t>ze złożonymi rękoma</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
           <t>adj:pl:inst:f:pos</t>
         </is>
       </c>
-      <c r="D414" t="inlineStr">
+      <c r="E414" t="inlineStr">
         <is>
           <t>ppas:pl:inst:f:perf:aff</t>
         </is>
@@ -8721,10 +10791,15 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
+          <t>rękoma nieżywym .</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
           <t>adj:pl:inst:f:pos</t>
         </is>
       </c>
-      <c r="D415" t="inlineStr">
+      <c r="E415" t="inlineStr">
         <is>
           <t>adj:pl:inst:n:pos</t>
         </is>
@@ -8741,10 +10816,15 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
+          <t>Sukcesya po mim</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
           <t>prep:acc</t>
         </is>
       </c>
-      <c r="D416" t="inlineStr">
+      <c r="E416" t="inlineStr">
         <is>
           <t>prep:loc</t>
         </is>
@@ -8761,10 +10841,15 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
+          <t>po mim ,</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
           <t>ppron3:sg:acc:m1:ter:akc:praep</t>
         </is>
       </c>
-      <c r="D417" t="inlineStr">
+      <c r="E417" t="inlineStr">
         <is>
           <t>subst:sg:loc:f</t>
         </is>
@@ -8781,10 +10866,15 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
+          <t>Siostrom swoim rodzonym</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
           <t>adj:sg:dat:f:pos</t>
         </is>
       </c>
-      <c r="D418" t="inlineStr">
+      <c r="E418" t="inlineStr">
         <is>
           <t>adj:pl:dat:m1:pos</t>
         </is>
@@ -8801,10 +10891,15 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
+          <t>swoim rodzonym Treterowej</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
           <t>ppas:sg:dat:f:imperf:aff</t>
         </is>
       </c>
-      <c r="D419" t="inlineStr">
+      <c r="E419" t="inlineStr">
         <is>
           <t>adj:pl:dat:m1:pos</t>
         </is>
@@ -8821,10 +10916,15 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
+          <t>rodzonym Treterowej i</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
           <t>subst:sg:dat:f</t>
         </is>
       </c>
-      <c r="D420" t="inlineStr">
+      <c r="E420" t="inlineStr">
         <is>
           <t>subst:sg:gen:f</t>
         </is>
@@ -8841,10 +10941,15 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
+          <t>i Swieżaskiey .</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
           <t>subst:sg:dat:f</t>
         </is>
       </c>
-      <c r="D421" t="inlineStr">
+      <c r="E421" t="inlineStr">
         <is>
           <t>adj:pl:acc:f:pos</t>
         </is>
@@ -8861,10 +10966,15 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
+          <t>śmierci Oyca z</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
           <t>subst:sg:gen:f</t>
         </is>
       </c>
-      <c r="D422" t="inlineStr">
+      <c r="E422" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -8881,10 +10991,15 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
+          <t>Świeżyńską urodzoną ze</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
           <t>adj:sg:inst:f:pos</t>
         </is>
       </c>
-      <c r="D423" t="inlineStr">
+      <c r="E423" t="inlineStr">
         <is>
           <t>ppas:sg:inst:f:perf:aff</t>
         </is>
@@ -8901,10 +11016,15 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
+          <t>ze Zawadzkich –</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
           <t>subst:pl:gen:m1</t>
         </is>
       </c>
-      <c r="D424" t="inlineStr">
+      <c r="E424" t="inlineStr">
         <is>
           <t>adj:pl:gen:m1:pos</t>
         </is>
@@ -8921,10 +11041,15 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
+          <t>w Stryiskim w</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
           <t>adj:sg:loc:m3:pos</t>
         </is>
       </c>
-      <c r="D425" t="inlineStr">
+      <c r="E425" t="inlineStr">
         <is>
           <t>subst:sg:loc:n:ncol</t>
         </is>
@@ -8941,10 +11066,15 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
+          <t>górach czy Kruszelnicę</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
           <t>part</t>
         </is>
       </c>
-      <c r="D426" t="inlineStr">
+      <c r="E426" t="inlineStr">
         <is>
           <t>conj</t>
         </is>
@@ -8961,10 +11091,15 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
+          <t>czy Kruszelnicę –</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
           <t>subst:sg:acc:f</t>
         </is>
       </c>
-      <c r="D427" t="inlineStr">
+      <c r="E427" t="inlineStr">
         <is>
           <t>subst:pl:acc:f</t>
         </is>
@@ -8981,10 +11116,15 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
+          <t>razem kilka generacyi</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
           <t>num:pl:nom:f:rec:ncol</t>
         </is>
       </c>
-      <c r="D428" t="inlineStr">
+      <c r="E428" t="inlineStr">
         <is>
           <t>num:pl:nom:f:rec</t>
         </is>
@@ -9001,10 +11141,15 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
+          <t>na jednem obeyściu</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
           <t>adj:sg:loc:m3:pos</t>
         </is>
       </c>
-      <c r="D429" t="inlineStr">
+      <c r="E429" t="inlineStr">
         <is>
           <t>adj:sg:loc:n:pos</t>
         </is>
@@ -9021,10 +11166,15 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
+          <t>jednem obeyściu było</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
           <t>subst:sg:loc:m3</t>
         </is>
       </c>
-      <c r="D430" t="inlineStr">
+      <c r="E430" t="inlineStr">
         <is>
           <t>ger:sg:loc:n:perf:aff</t>
         </is>
@@ -9041,10 +11191,15 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
+          <t>było dwa dwory</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
           <t>num:pl:nom:m3:congr:ncol</t>
         </is>
       </c>
-      <c r="D431" t="inlineStr">
+      <c r="E431" t="inlineStr">
         <is>
           <t>num:pl:acc:m3:congr</t>
         </is>
@@ -9061,10 +11216,15 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
+          <t>bardzo przystoyna (</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
           <t>adj:sg:nom:f:pos</t>
         </is>
       </c>
-      <c r="D432" t="inlineStr">
+      <c r="E432" t="inlineStr">
         <is>
           <t>fin:sg:ter:imperf</t>
         </is>
@@ -9081,10 +11241,15 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
+          <t>( obie nauczycielkami</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
           <t>num:pl:nom:f:congr:ncol</t>
         </is>
       </c>
-      <c r="D433" t="inlineStr">
+      <c r="E433" t="inlineStr">
         <is>
           <t>num:pl:nom:f:congr</t>
         </is>
@@ -9101,10 +11266,15 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
+          <t>– jakby jakieś</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
           <t>part</t>
         </is>
       </c>
-      <c r="D434" t="inlineStr">
+      <c r="E434" t="inlineStr">
         <is>
           <t>comp</t>
         </is>
@@ -9121,10 +11291,15 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
+          <t>sąsiedztwo Bludnik do</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
           <t>subst:pl:gen:n:pt</t>
         </is>
       </c>
-      <c r="D435" t="inlineStr">
+      <c r="E435" t="inlineStr">
         <is>
           <t>subst:sg:gen:m3</t>
         </is>
@@ -9141,10 +11316,15 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
+          <t>Państwa Rudzkich gdzie</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
           <t>adj:pl:gen:m1:pos</t>
         </is>
       </c>
-      <c r="D436" t="inlineStr">
+      <c r="E436" t="inlineStr">
         <is>
           <t>subst:pl:gen:f</t>
         </is>
@@ -9161,10 +11341,15 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
+          <t>były dwie panienki</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
           <t>num:pl:nom:f:congr:ncol</t>
         </is>
       </c>
-      <c r="D437" t="inlineStr">
+      <c r="E437" t="inlineStr">
         <is>
           <t>num:pl:nom:f:congr</t>
         </is>
@@ -9181,10 +11366,15 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
+          <t>z tąd bywała</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
           <t>adv</t>
         </is>
       </c>
-      <c r="D438" t="inlineStr">
+      <c r="E438" t="inlineStr">
         <is>
           <t>subst:sg:inst:m3</t>
         </is>
@@ -9201,10 +11391,15 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
+          <t>. Jakby instynktownie</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
           <t>comp</t>
         </is>
       </c>
-      <c r="D439" t="inlineStr">
+      <c r="E439" t="inlineStr">
         <is>
           <t>part</t>
         </is>
@@ -9221,10 +11416,15 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
+          <t>moja jey znieść</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
           <t>ppron3:sg:gen:m1:ter:nakc:npraep</t>
         </is>
       </c>
-      <c r="D440" t="inlineStr">
+      <c r="E440" t="inlineStr">
         <is>
           <t>subst:sg:acc:f</t>
         </is>
@@ -9241,10 +11441,15 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
+          <t>znieść niemogła .</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
           <t>praet:sg:f:imperf</t>
         </is>
       </c>
-      <c r="D441" t="inlineStr">
+      <c r="E441" t="inlineStr">
         <is>
           <t>adj:sg:acc:f:pos</t>
         </is>
@@ -9261,10 +11466,15 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
+          <t>Józef osiadły na</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
           <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
-      <c r="D442" t="inlineStr">
+      <c r="E442" t="inlineStr">
         <is>
           <t>ppas:sg:nom:m1:perf:aff</t>
         </is>
@@ -9281,10 +11491,15 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
+          <t>na Siemiginowie już</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
           <t>subst:sg:loc:m3</t>
         </is>
       </c>
-      <c r="D443" t="inlineStr">
+      <c r="E443" t="inlineStr">
         <is>
           <t>subst:sg:loc:m1</t>
         </is>
@@ -9301,10 +11516,15 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
+          <t>zbijał talarki oszczędzał</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
           <t>subst:pl:nom:m2</t>
         </is>
       </c>
-      <c r="D444" t="inlineStr">
+      <c r="E444" t="inlineStr">
         <is>
           <t>subst:pl:acc:f</t>
         </is>
@@ -9321,10 +11541,15 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
+          <t>o kilka mil</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
           <t>num:pl:acc:f:rec:ncol</t>
         </is>
       </c>
-      <c r="D445" t="inlineStr">
+      <c r="E445" t="inlineStr">
         <is>
           <t>num:pl:acc:f:rec</t>
         </is>
@@ -9341,10 +11566,15 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
+          <t>mil odległey od</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
           <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
-      <c r="D446" t="inlineStr">
+      <c r="E446" t="inlineStr">
         <is>
           <t>adj:pl:acc:f:pos</t>
         </is>
@@ -9361,10 +11591,15 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
+          <t>od Siemignowa –</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
           <t>subst:sg:gen:m1</t>
         </is>
       </c>
-      <c r="D447" t="inlineStr">
+      <c r="E447" t="inlineStr">
         <is>
           <t>subst:sg:gen:m3</t>
         </is>
@@ -9381,10 +11616,15 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
+          <t>się hoża jak</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
           <t>adj:sg:nom:f:pos</t>
         </is>
       </c>
-      <c r="D448" t="inlineStr">
+      <c r="E448" t="inlineStr">
         <is>
           <t>subst:sg:nom:f</t>
         </is>
@@ -9401,10 +11641,15 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
+          <t>hoża jak łania</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
           <t>prep:nom</t>
         </is>
       </c>
-      <c r="D449" t="inlineStr">
+      <c r="E449" t="inlineStr">
         <is>
           <t>comp</t>
         </is>
@@ -9421,10 +11666,15 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
+          <t>jak łania Panna</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
           <t>adj:sg:nom:f:pos</t>
         </is>
       </c>
-      <c r="D450" t="inlineStr">
+      <c r="E450" t="inlineStr">
         <is>
           <t>subst:sg:nom:f</t>
         </is>
@@ -9441,10 +11691,15 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
+          <t>wyswatano Jegomości już</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
           <t>subst:pl:acc:m1</t>
         </is>
       </c>
-      <c r="D451" t="inlineStr">
+      <c r="E451" t="inlineStr">
         <is>
           <t>subst:sg:dat:m1</t>
         </is>
@@ -9461,10 +11716,15 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
+          <t>bardzo niemłodego .</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
           <t>adj:sg:acc:m1:pos</t>
         </is>
       </c>
-      <c r="D452" t="inlineStr">
+      <c r="E452" t="inlineStr">
         <is>
           <t>subst:sg:acc:m1</t>
         </is>
@@ -9481,10 +11741,15 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
+          <t>Było to około</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
           <t>pred</t>
         </is>
       </c>
-      <c r="D453" t="inlineStr">
+      <c r="E453" t="inlineStr">
         <is>
           <t>subst:sg:nom:n:ncol</t>
         </is>
@@ -9501,10 +11766,15 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
+          <t>była jedyna córka</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
           <t>adj:sg:nom:f:pos</t>
         </is>
       </c>
-      <c r="D454" t="inlineStr">
+      <c r="E454" t="inlineStr">
         <is>
           <t>adj:sg:inst:f:pos</t>
         </is>
@@ -9521,10 +11791,15 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
+          <t>córka Sabina ,</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
         </is>
       </c>
-      <c r="D455" t="inlineStr">
+      <c r="E455" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -9541,10 +11816,15 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
+          <t>, jedyna sukcessorka</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
           <t>adj:sg:nom:f:pos</t>
         </is>
       </c>
-      <c r="D456" t="inlineStr">
+      <c r="E456" t="inlineStr">
         <is>
           <t>adj:sg:inst:f:pos</t>
         </is>
@@ -9561,10 +11841,15 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
+          <t>jedyna sukcessorka Siemiginowa</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
           <t>adj:sg:nom:f:pos</t>
         </is>
       </c>
-      <c r="D457" t="inlineStr">
+      <c r="E457" t="inlineStr">
         <is>
           <t>subst:sg:inst:f</t>
         </is>
@@ -9581,10 +11866,15 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
+          <t>sukcessorka Siemiginowa –</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
           <t>subst:sg:gen:f</t>
         </is>
       </c>
-      <c r="D458" t="inlineStr">
+      <c r="E458" t="inlineStr">
         <is>
           <t>subst:sg:gen:m1</t>
         </is>
@@ -9601,10 +11891,15 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
+          <t>miejscowość Leśniowice z</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
           <t>subst:pl:acc:n:pt</t>
         </is>
       </c>
-      <c r="D459" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>subst:sg:nom:n:ncol</t>
         </is>
@@ -9621,10 +11916,15 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
+          <t>pod Lwowem koło</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
           <t>subst:sg:inst:m3</t>
         </is>
       </c>
-      <c r="D460" t="inlineStr">
+      <c r="E460" t="inlineStr">
         <is>
           <t>subst:sg:inst:n:ncol</t>
         </is>
@@ -9641,10 +11941,15 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
+          <t>tam życie zakończył</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
           <t>subst:sg:nom:n:ncol</t>
         </is>
       </c>
-      <c r="D461" t="inlineStr">
+      <c r="E461" t="inlineStr">
         <is>
           <t>subst:sg:acc:n:ncol</t>
         </is>
@@ -9661,10 +11966,15 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
+          <t>zaczęli uwijać się</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
           <t>inf:imperf</t>
         </is>
       </c>
-      <c r="D462" t="inlineStr">
+      <c r="E462" t="inlineStr">
         <is>
           <t>inf:perf</t>
         </is>
@@ -9681,10 +11991,15 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
+          <t>ale ciepłey wdowy</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
           <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
-      <c r="D463" t="inlineStr">
+      <c r="E463" t="inlineStr">
         <is>
           <t>praet:pl:f:perf</t>
         </is>
@@ -9701,10 +12016,15 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
+          <t>ciepłey wdowy .</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
           <t>subst:sg:gen:f</t>
         </is>
       </c>
-      <c r="D464" t="inlineStr">
+      <c r="E464" t="inlineStr">
         <is>
           <t>subst:pl:nom:f</t>
         </is>
@@ -9721,10 +12041,15 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
+          <t>pana Szołayskiego młodzika</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
           <t>subst:sg:gen:m1</t>
         </is>
       </c>
-      <c r="D465" t="inlineStr">
+      <c r="E465" t="inlineStr">
         <is>
           <t>subst:sg:acc:m1</t>
         </is>
@@ -9741,10 +12066,15 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
+          <t>Szołayskiego młodzika około</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
           <t>subst:sg:gen:m1</t>
         </is>
       </c>
-      <c r="D466" t="inlineStr">
+      <c r="E466" t="inlineStr">
         <is>
           <t>subst:sg:acc:m1</t>
         </is>
@@ -9761,10 +12091,15 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
+          <t>około 24 lat</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
           <t>num:pl:gen:m3:rec</t>
         </is>
       </c>
-      <c r="D467" t="inlineStr">
+      <c r="E467" t="inlineStr">
         <is>
           <t>num:pl:gen:m3:congr</t>
         </is>
@@ -9781,10 +12116,15 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
+          <t>lat liczącego –</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
           <t>pact:sg:acc:m1:imperf:aff</t>
         </is>
       </c>
-      <c r="D468" t="inlineStr">
+      <c r="E468" t="inlineStr">
         <is>
           <t>pact:sg:gen:m1:imperf:aff</t>
         </is>
@@ -9801,10 +12141,15 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
+          <t>nim pożyciu –</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
           <t>ger:sg:dat:n:perf:aff</t>
         </is>
       </c>
-      <c r="D469" t="inlineStr">
+      <c r="E469" t="inlineStr">
         <is>
           <t>ger:sg:loc:n:perf:aff</t>
         </is>
@@ -9821,10 +12166,15 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
+          <t>Julia secundo voto</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
           <t>ign</t>
         </is>
       </c>
-      <c r="D470" t="inlineStr">
+      <c r="E470" t="inlineStr">
         <is>
           <t>subst:sg:nom:f</t>
         </is>
@@ -9841,10 +12191,15 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
+          <t>secundo voto Szołayska</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
           <t>ign</t>
         </is>
       </c>
-      <c r="D471" t="inlineStr">
+      <c r="E471" t="inlineStr">
         <is>
           <t>subst:sg:nom:f</t>
         </is>
@@ -9861,10 +12216,15 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
+          <t>lubiła procesa –</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m3</t>
         </is>
       </c>
-      <c r="D472" t="inlineStr">
+      <c r="E472" t="inlineStr">
         <is>
           <t>subst:sg:acc:m2</t>
         </is>
@@ -9881,10 +12241,15 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
+          <t>miała ich też</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
           <t>ppron3:pl:acc:m3:ter:akc:npraep</t>
         </is>
       </c>
-      <c r="D473" t="inlineStr">
+      <c r="E473" t="inlineStr">
         <is>
           <t>ppron3:pl:gen:f:ter:akc:npraep</t>
         </is>
@@ -9901,10 +12266,15 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
+          <t>też sporo –</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
           <t>num:pl:nom:m3:rec</t>
         </is>
       </c>
-      <c r="D474" t="inlineStr">
+      <c r="E474" t="inlineStr">
         <is>
           <t>num:pl:acc:m3:rec</t>
         </is>
@@ -9921,10 +12291,15 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
+          <t>przyległe Mosty .</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
           <t>subst:pl:acc:n:pt</t>
         </is>
       </c>
-      <c r="D475" t="inlineStr">
+      <c r="E475" t="inlineStr">
         <is>
           <t>subst:pl:acc:m3</t>
         </is>

--- a/data/mistakes/bert_XPOS_mistakes.xlsx
+++ b/data/mistakes/bert_XPOS_mistakes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E354"/>
+  <dimension ref="A1:E348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>Pinińskich</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>. p .</t>
+          <t>z Pinińskich właścicieli</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>brev:npun</t>
+          <t>subst:pl:gen:m1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>brev:pun</t>
+          <t>adj:pl:gen:m1:pos</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pinińskich</t>
+          <t>Dóbr</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>z Pinińskich właścicieli</t>
+          <t>właścicieli Dóbr Strużewo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m1</t>
+          <t>subst:pl:gen:n:pt</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>adj:pl:gen:m1:pos</t>
+          <t>subst:pl:gen:m3</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dóbr</t>
+          <t>Ronantowizna</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>właścicieli Dóbr Strużewo</t>
+          <t>, Ronantowizna ,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>subst:pl:gen:n:pt</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m3</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ronantowizna</t>
+          <t>Żółtowizna</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>, Ronantowizna ,</t>
+          <t>, Żółtowizna ,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Żółtowizna</t>
+          <t>Będowszczyazna</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>, Żółtowizna ,</t>
+          <t>, Będowszczyazna ,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -636,12 +636,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Będowszczyazna</t>
+          <t>Bęklowizna</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>, Będowszczyazna ,</t>
+          <t>, Bęklowizna ,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bęklowizna</t>
+          <t>Ruszkowizna</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>, Bęklowizna ,</t>
+          <t>, Ruszkowizna .</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ruszkowizna</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>, Ruszkowizna .</t>
+          <t>że śp Dziad</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>brev:npun</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>brev:pun</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>najmłodszy</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>że śp Dziad</t>
+          <t>był najmłodszy i</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>brev:npun</t>
+          <t>adj:sg:nom:m1:sup</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>brev:pun</t>
+          <t>adj:sg:nom:m1:com</t>
         </is>
       </c>
     </row>
@@ -736,22 +736,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>najmłodszy</t>
+          <t>najstarszemu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>był najmłodszy i</t>
+          <t>część najstarszemu bratu</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:sup</t>
+          <t>adj:sg:dat:m1:sup</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:com</t>
+          <t>adj:sg:dat:m1:pos</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>najstarszemu</t>
+          <t>ośm</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>część najstarszemu bratu</t>
+          <t>za ośm tysięcy</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>adj:sg:dat:m1:sup</t>
+          <t>num:pl:acc:m3:rec:ncol</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>adj:sg:dat:m1:pos</t>
+          <t>num:pl:acc:m3:rec</t>
         </is>
       </c>
     </row>
@@ -786,22 +786,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ośm</t>
+          <t>tynfów</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>za ośm tysięcy</t>
+          <t>tysięcy tynfów .</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:rec:ncol</t>
+          <t>subst:pl:gen:m2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:rec</t>
+          <t>subst:pl:gen:m3</t>
         </is>
       </c>
     </row>
@@ -811,22 +811,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>tynfów</t>
+          <t>Stryjów</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>tysięcy tynfów .</t>
+          <t>. Stryjów miał</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m2</t>
+          <t>subst:pl:acc:m1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m3</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
     </row>
@@ -836,22 +836,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Stryjów</t>
+          <t>czterech</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>. Stryjów miał</t>
+          <t>Melchior czterech i</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m1</t>
+          <t>num:pl:acc:m1:congr</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>num:pl:acc:m1:rec</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>czterech</t>
+          <t>trzech</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Melchior czterech i</t>
+          <t>niej trzech synów</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -886,22 +886,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>trzech</t>
+          <t>synów</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>niej trzech synów</t>
+          <t>trzech synów Jakuba</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>num:pl:acc:m1:congr</t>
+          <t>subst:pl:acc:m1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>num:pl:acc:m1:rec</t>
+          <t>subst:pl:gen:m1</t>
         </is>
       </c>
     </row>
@@ -911,22 +911,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>synów</t>
+          <t>Jakuba</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>trzech synów Jakuba</t>
+          <t>synów Jakuba ,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m1</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m1</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jakuba</t>
+          <t>Łukasza</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>synów Jakuba ,</t>
+          <t>, Łukasza i</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Łukasza</t>
+          <t>Floyrana</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>, Łukasza i</t>
+          <t>i Floyrana .</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -986,22 +986,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Floyrana</t>
+          <t>Ciotka</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>i Floyrana .</t>
+          <t>– Ciotka za</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>subst:sg:nom:f</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m1</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -1011,22 +1011,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ciotka</t>
+          <t>stryjecznych</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>– Ciotka za</t>
+          <t>braci stryjecznych śp</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>adj:pl:acc:m1:pos</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>adj:pl:gen:m1:pos</t>
         </is>
       </c>
     </row>
@@ -1036,22 +1036,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>stryjecznych</t>
+          <t>niepamiętam</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>braci stryjecznych śp</t>
+          <t>jakim niepamiętam .</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>adj:pl:acc:m1:pos</t>
+          <t>fin:sg:pri:imperf</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>adj:pl:gen:m1:pos</t>
+          <t>fin:sg:pri:perf</t>
         </is>
       </c>
     </row>
@@ -1061,22 +1061,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jakoby</t>
+          <t>Skolego</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>– jakoby Dziad</t>
+          <t>i Skolego w</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>comp</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>niepamiętam</t>
+          <t>chłopczyna</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>jakim niepamiętam .</t>
+          <t>był chłopczyna więc</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>fin:sg:pri:imperf</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>fin:sg:pri:perf</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
     </row>
@@ -1111,22 +1111,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Skolego</t>
+          <t>rychło</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>i Skolego w</t>
+          <t>natury rychło ujął</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>adv:pos</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
@@ -1136,22 +1136,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>chłopczyna</t>
+          <t>Brzeżany</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>był chłopczyna więc</t>
+          <t>swoich Brzeżany i</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>subst:pl:nom:n:pt</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>subst:pl:gen:n:pt</t>
         </is>
       </c>
     </row>
@@ -1161,22 +1161,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>rychło</t>
+          <t>Skolego</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>natury rychło ujął</t>
+          <t>i Skolego wziął</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>adv:pos</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -1186,22 +1186,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Brzeżany</t>
+          <t>Skolego</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>swoich Brzeżany i</t>
+          <t>do Skolego przekonał</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>subst:pl:nom:n:pt</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>subst:pl:gen:n:pt</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -1211,22 +1211,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Skolego</t>
+          <t>dobra</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>i Skolego wziął</t>
+          <t>rozległe dobra w</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>subst:pl:nom:n:pt</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>subst:pl:nom:n:ncol</t>
         </is>
       </c>
     </row>
@@ -1236,22 +1236,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Skolego</t>
+          <t>jaki</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>do Skolego przekonał</t>
+          <t>Dochód jaki okazał</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>adj:sg:nom:m3:pos</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>adj:sg:acc:m3:pos</t>
         </is>
       </c>
     </row>
@@ -1261,22 +1261,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>dobra</t>
+          <t>ujęty</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>rozległe dobra w</t>
+          <t>że ujęty tem</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>subst:pl:nom:n:pt</t>
+          <t>ppas:sg:nom:m1:perf:aff</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>subst:pl:nom:n:ncol</t>
+          <t>ppas:sg:nom:m3:perf:aff</t>
         </is>
       </c>
     </row>
@@ -1286,22 +1286,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>jego</t>
+          <t>tem</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>przyszłości jego .</t>
+          <t>ujęty tem zaproponował</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ppron3:sg:loc:m1:ter:akc:npraep</t>
+          <t>subst:sg:inst:n:ncol</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ppron3:sg:gen:m1:ter:akc:npraep</t>
+          <t>part</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jaki</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Dochód jaki okazał</t>
+          <t>– i to</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m3:pos</t>
+          <t>conj</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>adj:sg:acc:m3:pos</t>
+          <t>part</t>
         </is>
       </c>
     </row>
@@ -1336,22 +1336,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ujęty</t>
+          <t>to</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>że ujęty tem</t>
+          <t>mogło to być</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ppas:sg:nom:m1:perf:aff</t>
+          <t>pred</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ppas:sg:nom:m3:perf:aff</t>
+          <t>subst:sg:nom:n:ncol</t>
         </is>
       </c>
     </row>
@@ -1361,22 +1361,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tem</t>
+          <t>świętej</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ujęty tem zaproponował</t>
+          <t>jak świętej pamięci</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>subst:sg:inst:n:ncol</t>
+          <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>adj:sg:dat:f:pos</t>
         </is>
       </c>
     </row>
@@ -1386,22 +1386,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>Czołhany</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>– i to</t>
+          <t>dzierżawę Czołhany w</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>conj</t>
+          <t>subst:pl:acc:n:pt</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>subst:pl:acc:m3</t>
         </is>
       </c>
     </row>
@@ -1411,22 +1411,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>trzech</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>mogło to być</t>
+          <t>nią trzech synów</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>pred</t>
+          <t>num:pl:acc:m1:congr</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>subst:sg:nom:n:ncol</t>
+          <t>num:pl:acc:m1:rec</t>
         </is>
       </c>
     </row>
@@ -1436,22 +1436,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>synów</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>jak świętej pamięci</t>
+          <t>trzech synów Michała</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>adj:sg:gen:f:pos</t>
+          <t>subst:pl:acc:m1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>adj:sg:dat:f:pos</t>
+          <t>subst:pl:gen:m1</t>
         </is>
       </c>
     </row>
@@ -1461,22 +1461,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Czołhany</t>
+          <t>Michała</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>dzierżawę Czołhany w</t>
+          <t>synów Michała ,</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>subst:pl:acc:n:pt</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m3</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -1486,22 +1486,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>trzech</t>
+          <t>Józefa</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>nią trzech synów</t>
+          <t>, Józefa i</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>num:pl:acc:m1:congr</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>num:pl:acc:m1:rec</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -1511,22 +1511,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>synów</t>
+          <t>Kazimierza</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>trzech synów Michała</t>
+          <t>i Kazimierza –</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m1</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m1</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -1536,22 +1536,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Michała</t>
+          <t>wołami</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>synów Michała ,</t>
+          <t>za wołami .</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>subst:pl:inst:m2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>subst:pl:inst:m3</t>
         </is>
       </c>
     </row>
@@ -1561,22 +1561,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Józefa</t>
+          <t>Posadzie</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>, Józefa i</t>
+          <t>na Posadzie Chyrowskiey</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>subst:sg:loc:f</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>subst:sg:loc:m3</t>
         </is>
       </c>
     </row>
@@ -1586,22 +1586,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Kazimierza</t>
+          <t>Chyrowskiey</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>i Kazimierza –</t>
+          <t>Posadzie Chyrowskiey zapędziły</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>adj:sg:loc:f:pos</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>subst:sg:loc:m3</t>
         </is>
       </c>
     </row>
@@ -1611,22 +1611,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>wołami</t>
+          <t>zapędziły</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>za wołami .</t>
+          <t>Chyrowskiey zapędziły się</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>subst:pl:inst:m2</t>
+          <t>praet:pl:m2:perf</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>subst:pl:inst:m3</t>
+          <t>praet:pl:m3:perf</t>
         </is>
       </c>
     </row>
@@ -1636,22 +1636,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Posadzie</t>
+          <t>Dzianott</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>na Posadzie Chyrowskiey</t>
+          <t>domu Dzianott wdowa</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>subst:sg:loc:f</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>subst:sg:loc:m3</t>
+          <t>subst:pl:gen:f</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Chyrowskiey</t>
+          <t>dwóch</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Posadzie Chyrowskiey zapędziły</t>
+          <t>po dwóch mężach</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>adj:sg:loc:f:pos</t>
+          <t>num:pl:loc:m1:congr</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>subst:sg:loc:m3</t>
+          <t>num:pl:loc:m3:congr</t>
         </is>
       </c>
     </row>
@@ -1686,22 +1686,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>zapędziły</t>
+          <t>starym</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Chyrowskiey zapędziły się</t>
+          <t>z starym winem</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>praet:pl:m2:perf</t>
+          <t>adj:sg:inst:n:pos</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>praet:pl:m3:perf</t>
+          <t>adj:sg:inst:m3:pos</t>
         </is>
       </c>
     </row>
@@ -1711,22 +1711,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Dzianott</t>
+          <t>winem</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>domu Dzianott wdowa</t>
+          <t>starym winem –</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>subst:sg:inst:n:ncol</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>subst:pl:gen:f</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
     </row>
@@ -1736,22 +1736,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>dwóch</t>
+          <t>rada</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>po dwóch mężach</t>
+          <t>– rada była</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>num:pl:loc:m1:congr</t>
+          <t>adj:sg:nom:f:pos</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>num:pl:loc:m3:congr</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
     </row>
@@ -1761,22 +1761,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>starym</t>
+          <t>oko</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>z starym winem</t>
+          <t>w oko –</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>adj:sg:inst:n:pos</t>
+          <t>subst:sg:acc:n:col</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>adj:sg:inst:m3:pos</t>
+          <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
     </row>
@@ -1786,22 +1786,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>winem</t>
+          <t>Asińdźka</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>starym winem –</t>
+          <t>wiesz Asińdźka co</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>subst:sg:inst:n:ncol</t>
+          <t>subst:sg:voc:f</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
     </row>
@@ -1811,22 +1811,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>rada</t>
+          <t>co</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>– rada była</t>
+          <t>Asińdźka co ?</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>adj:sg:nom:f:pos</t>
+          <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>part</t>
         </is>
       </c>
     </row>
@@ -1836,22 +1836,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>oko</t>
+          <t>Ja</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>w oko –</t>
+          <t>„ Ja już</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>subst:sg:acc:n:col</t>
+          <t>ppron12:sg:nom:f:pri</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>subst:sg:acc:n:ncol</t>
+          <t>ppron12:sg:nom:m1:pri</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Asińdźka</t>
+          <t>zamęścia</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>wiesz Asińdźka co</t>
+          <t>z zamęścia zrezygnowała</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>subst:sg:voc:f</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
     </row>
@@ -1886,22 +1886,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Asińdźka co ?</t>
+          <t>że mi się</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>subst:sg:acc:n:ncol</t>
+          <t>ppron12:sg:dat:f:pri:nakc</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>ppron12:sg:dat:m1:pri:nakc</t>
         </is>
       </c>
     </row>
@@ -1911,22 +1911,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>Kleosia</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>„ Ja już</t>
+          <t>słyszała Kleosia całą</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ppron12:sg:nom:f:pri</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ppron12:sg:nom:m1:pri</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
     </row>
@@ -1936,22 +1936,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>zamęścia</t>
+          <t>co</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>z zamęścia zrezygnowała</t>
+          <t>wyobrazić co działo</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>subst:sg:nom:n:ncol</t>
         </is>
       </c>
     </row>
@@ -1961,22 +1961,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>Starsi</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>że mi się</t>
+          <t>. Starsi bracia</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ppron12:sg:dat:f:pri:nakc</t>
+          <t>adj:pl:nom:m1:com</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ppron12:sg:dat:m1:pri:nakc</t>
+          <t>adj:pl:nom:m1:pos</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Kleosia</t>
+          <t>nauki</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>słyszała Kleosia całą</t>
+          <t>pokończywszy nauki osiedli</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
     </row>
@@ -2011,22 +2011,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>pono</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>wyobrazić co działo</t>
+          <t>która pono w</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>subst:sg:acc:n:ncol</t>
+          <t>part</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>subst:sg:nom:n:ncol</t>
+          <t>praet:sg:f:perf</t>
         </is>
       </c>
     </row>
@@ -2036,22 +2036,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Starsi</t>
+          <t>Bolechowie</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>. Starsi bracia</t>
+          <t>w Bolechowie umarła</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>adj:pl:nom:m1:com</t>
+          <t>subst:sg:loc:m3</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>adj:pl:nom:m1:pos</t>
+          <t>subst:sg:loc:n:ncol</t>
         </is>
       </c>
     </row>
@@ -2061,22 +2061,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>nauki</t>
+          <t>mąż</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>pokończywszy nauki osiedli</t>
+          <t>za mąż jedna</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>frag</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
     </row>
@@ -2086,22 +2086,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pono</t>
+          <t>Tretera</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>która pono w</t>
+          <t>za Tretera –</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>praet:sg:f:perf</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -2111,22 +2111,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Bolechowie</t>
+          <t>szambelanica</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>w Bolechowie umarła</t>
+          <t>– szambelanica ,</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>subst:sg:loc:m3</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>subst:sg:loc:n:ncol</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
     </row>
@@ -2136,22 +2136,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>bawiły</t>
+          <t>Cyrkule</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>, bawiły pod</t>
+          <t>w Cyrkule Samborskim</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>praet:pl:n:imperf</t>
+          <t>subst:sg:loc:m3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>praet:pl:f:imperf</t>
+          <t>subst:sg:loc:n:ncol</t>
         </is>
       </c>
     </row>
@@ -2161,22 +2161,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>mąż</t>
+          <t>Samborskim</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>za mąż jedna</t>
+          <t>Cyrkule Samborskim .</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>frag</t>
+          <t>adj:sg:loc:m3:pos</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>adj:sg:loc:n:pos</t>
         </is>
       </c>
     </row>
@@ -2186,22 +2186,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tretera</t>
+          <t>za</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>za Tretera –</t>
+          <t>szambelanem za Stan</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>prep:gen</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>prep:acc</t>
         </is>
       </c>
     </row>
@@ -2211,22 +2211,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>szambelanica</t>
+          <t>Stan</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>– szambelanica ,</t>
+          <t>za Stan .</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>brev:pun</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>subst:sg:acc:m1</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>subst:sg:nom:f</t>
         </is>
       </c>
     </row>
@@ -2236,22 +2236,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cyrkule</t>
+          <t>oddał</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>w Cyrkule Samborskim</t>
+          <t>swój oddał akademii</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>subst:sg:loc:m3</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>subst:sg:loc:n:ncol</t>
+          <t>praet:sg:m3:perf</t>
         </is>
       </c>
     </row>
@@ -2261,22 +2261,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Samborskim</t>
+          <t>Abbum</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Cyrkule Samborskim .</t>
+          <t>drzwiami Abbum Treterianum</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>adj:sg:loc:m3:pos</t>
+          <t>ign</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>adj:sg:loc:n:pos</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -2286,22 +2286,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>za</t>
+          <t>Treterianum</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>szambelanem za Stan</t>
+          <t>Abbum Treterianum .</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>prep:gen</t>
+          <t>ign</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>prep:acc</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
     </row>
@@ -2311,22 +2311,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Stan</t>
+          <t>bombardowaniu</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>za Stan .</t>
+          <t>Przy bombardowaniu Lwowa</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>brev:pun</t>
+          <t>subst:sg:loc:n:ncol</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>ger:sg:loc:n:imperf:aff</t>
         </is>
       </c>
     </row>
@@ -2336,22 +2336,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>oddał</t>
+          <t>w</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>swój oddał akademii</t>
+          <t>akademia w została</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>prep:loc:nwok</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>praet:sg:m3:perf</t>
+          <t>prep:acc:nwok</t>
         </is>
       </c>
     </row>
@@ -2361,22 +2361,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Abbum</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>drzwiami Abbum Treterianum</t>
+          <t>więc i zbiory</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ign</t>
+          <t>conj</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>part</t>
         </is>
       </c>
     </row>
@@ -2386,22 +2386,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Treterianum</t>
+          <t>fantasta</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Abbum Treterianum .</t>
+          <t>to fantasta –</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ign</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
     </row>
@@ -2411,22 +2411,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>bombardowaniu</t>
+          <t>oryginał</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Przy bombardowaniu Lwowa</t>
+          <t>– oryginał jakich</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>subst:sg:loc:n:ncol</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ger:sg:loc:n:imperf:aff</t>
+          <t>subst:sg:nom:m3</t>
         </is>
       </c>
     </row>
@@ -2436,22 +2436,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>w</t>
+          <t>jakich</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>akademia w została</t>
+          <t>oryginał jakich dziś</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>prep:loc:nwok</t>
+          <t>adj:pl:gen:m1:pos</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>prep:acc:nwok</t>
+          <t>adj:pl:gen:m3:pos</t>
         </is>
       </c>
     </row>
@@ -2461,22 +2461,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>polskich</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>więc i zbiory</t>
+          <t>. polskich w</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>conj</t>
+          <t>adj:pl:acc:m2:pos</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>adj:pl:gen:m1:pos</t>
         </is>
       </c>
     </row>
@@ -2486,22 +2486,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>fantasta</t>
+          <t>dobrami</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>to fantasta –</t>
+          <t>wielkimi dobrami ,</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>subst:pl:inst:n:pt</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>subst:pl:inst:n:ncol</t>
         </is>
       </c>
     </row>
@@ -2511,22 +2511,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>oryginał</t>
+          <t>to</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>– oryginał jakich</t>
+          <t>, to dzierżawił</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>comp</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m3</t>
+          <t>part</t>
         </is>
       </c>
     </row>
@@ -2536,22 +2536,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>jakich</t>
+          <t>po</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>oryginał jakich dziś</t>
+          <t>jeździł po znajomych</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>adj:pl:gen:m1:pos</t>
+          <t>prep:loc</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>adj:pl:gen:m3:pos</t>
+          <t>prep:acc</t>
         </is>
       </c>
     </row>
@@ -2561,22 +2561,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>polskich</t>
+          <t>znajomych</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>. polskich w</t>
+          <t>po znajomych i</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>adj:pl:acc:m2:pos</t>
+          <t>subst:pl:loc:m1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>adj:pl:gen:m1:pos</t>
+          <t>subst:pl:acc:m1</t>
         </is>
       </c>
     </row>
@@ -2586,22 +2586,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>dobrami</t>
+          <t>różne</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>wielkimi dobrami ,</t>
+          <t>wyśpiewywał różne arye</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>subst:pl:inst:n:pt</t>
+          <t>adj:pl:acc:f:pos</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>subst:pl:inst:n:ncol</t>
+          <t>adj:pl:acc:m3:pos</t>
         </is>
       </c>
     </row>
@@ -2611,22 +2611,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>arye</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>, to dzierżawił</t>
+          <t>różne arye krakowiaki</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>comp</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>subst:pl:acc:m3</t>
         </is>
       </c>
     </row>
@@ -2636,22 +2636,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>po</t>
+          <t>kołomyjki</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>jeździł po znajomych</t>
+          <t>i kołomyjki .</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>prep:loc</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>prep:acc</t>
+          <t>subst:pl:acc:m3</t>
         </is>
       </c>
     </row>
@@ -2661,22 +2661,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>znajomych</t>
+          <t>po</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>po znajomych i</t>
+          <t>koniu po znajomych</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>subst:pl:loc:m1</t>
+          <t>prep:loc</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m1</t>
+          <t>prep:acc</t>
         </is>
       </c>
     </row>
@@ -2686,22 +2686,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>różne</t>
+          <t>znajomych</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>wyśpiewywał różne arye</t>
+          <t>po znajomych a</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>adj:pl:acc:f:pos</t>
+          <t>subst:pl:loc:m1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>adj:pl:acc:m3:pos</t>
+          <t>subst:pl:acc:m1</t>
         </is>
       </c>
     </row>
@@ -2711,22 +2711,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>arye</t>
+          <t>dużo</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>różne arye krakowiaki</t>
+          <t>niej dużo szczegółów</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>num:pl:gen:m3:congr</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m3</t>
+          <t>num:pl:acc:m3:rec</t>
         </is>
       </c>
     </row>
@@ -2736,22 +2736,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>kołomyjki</t>
+          <t>katafalk</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>i kołomyjki .</t>
+          <t>zastaje katafalk oświecony</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>subst:sg:acc:m3</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m3</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
     </row>
@@ -2761,22 +2761,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>po</t>
+          <t>oświecony</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>koniu po znajomych</t>
+          <t>katafalk oświecony a</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>prep:loc</t>
+          <t>ppas:sg:acc:m3:perf:aff</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>prep:acc</t>
+          <t>ppas:sg:nom:m1:perf:aff</t>
         </is>
       </c>
     </row>
@@ -2786,22 +2786,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>znajomych</t>
+          <t>Zaraz</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>po znajomych a</t>
+          <t>. Zaraz na</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>subst:pl:loc:m1</t>
+          <t>adv</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m1</t>
+          <t>part</t>
         </is>
       </c>
     </row>
@@ -2811,22 +2811,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>dużo</t>
+          <t>czeladź</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>niej dużo szczegółów</t>
+          <t>jej czeladź ,</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>num:pl:gen:m3:congr</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:rec</t>
+          <t>subst:sg:acc:f</t>
         </is>
       </c>
     </row>
@@ -2836,22 +2836,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>katafalk</t>
+          <t>jak</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>zastaje katafalk oświecony</t>
+          <t>wiedzieć jak Pani</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m3</t>
+          <t>comp</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>adv:pos</t>
         </is>
       </c>
     </row>
@@ -2861,22 +2861,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>oświecony</t>
+          <t>mię</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>katafalk oświecony a</t>
+          <t>Zostawiasz mię z</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ppas:sg:acc:m3:perf:aff</t>
+          <t>ppron12:sg:acc:f:pri:nakc</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ppas:sg:nom:m1:perf:aff</t>
+          <t>ppron12:sg:acc:m1:pri:akc</t>
         </is>
       </c>
     </row>
@@ -2886,17 +2886,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Zaraz</t>
+          <t>ani</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>. Zaraz na</t>
+          <t>– ani kęsa</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>conj</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2911,22 +2911,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>czeladź</t>
+          <t>zato</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>jej czeladź ,</t>
+          <t>– zato ,</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>subst:sg:acc:f</t>
+          <t>fin:sg:ter:imperf</t>
         </is>
       </c>
     </row>
@@ -2936,22 +2936,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jak</t>
+          <t>ich</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>wiedzieć jak Pani</t>
+          <t>obracają ich rodziny</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>comp</t>
+          <t>ppron3:pl:gen:n:ter:akc:npraep</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>adv:pos</t>
+          <t>ppron3:pl:gen:m1:ter:akc:npraep</t>
         </is>
       </c>
     </row>
@@ -2961,22 +2961,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>mię</t>
+          <t>Bełzkiego</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Zostawiasz mię z</t>
+          <t>z Bełzkiego często</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ppron12:sg:acc:f:pri:nakc</t>
+          <t>adj:sg:gen:n:pos</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ppron12:sg:acc:m1:pri:akc</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
     </row>
@@ -2986,22 +2986,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ani</t>
+          <t>Pań</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>– ani kęsa</t>
+          <t>od Pań oblegany</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>conj</t>
+          <t>subst:pl:gen:f</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>subst:pl:gen:n:pt</t>
         </is>
       </c>
     </row>
@@ -3011,22 +3011,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>zato</t>
+          <t>oblegany</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>– zato ,</t>
+          <t>Pań oblegany –</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>subst:sg:acc:n:ncol</t>
+          <t>ppas:sg:nom:m1:imperf:aff</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>fin:sg:ter:imperf</t>
+          <t>ppas:sg:nom:m1:perf:aff</t>
         </is>
       </c>
     </row>
@@ -3036,22 +3036,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ich</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>obracają ich rodziny</t>
+          <t>Dziadek móy Ostaszewski</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ppron3:pl:gen:n:ter:akc:npraep</t>
+          <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ppron3:pl:gen:m1:ter:akc:npraep</t>
+          <t>praet:sg:m1:imperf</t>
         </is>
       </c>
     </row>
@@ -3061,22 +3061,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Bełzkiego</t>
+          <t>trefieniu</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>z Bełzkiego często</t>
+          <t>i trefieniu a</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>ger:sg:dat:n:imperf:aff</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>subst:sg:loc:n:ncol</t>
         </is>
       </c>
     </row>
@@ -3086,22 +3086,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Pań</t>
+          <t>niepomięła</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>od Pań oblegany</t>
+          <t>Komornikowej niepomięła –</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>subst:pl:gen:f</t>
+          <t>praet:sg:f:perf</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>subst:pl:gen:n:pt</t>
+          <t>adj:sg:nom:f:pos</t>
         </is>
       </c>
     </row>
@@ -3111,22 +3111,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>oblegany</t>
+          <t>nauki</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Pań oblegany –</t>
+          <t>pokończyli nauki ale</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ppas:sg:nom:m1:imperf:aff</t>
+          <t>subst:sg:acc:f</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ppas:sg:nom:m1:perf:aff</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
     </row>
@@ -3136,22 +3136,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>majątek</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Dziadek móy Ostaszewski</t>
+          <t>sposobem majątek zniszczał</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>subst:sg:nom:m3</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>praet:sg:m1:imperf</t>
+          <t>subst:sg:acc:m3</t>
         </is>
       </c>
     </row>
@@ -3161,22 +3161,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>trefieniu</t>
+          <t>podpodczas</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>i trefieniu a</t>
+          <t>– podpodczas wojen</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ger:sg:dat:n:imperf:aff</t>
+          <t>prep:gen</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>subst:sg:loc:n:ncol</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
@@ -3186,22 +3186,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>stać</t>
+          <t>Sachsen</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>drogę stać na</t>
+          <t>do Sachsen Cobary</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>inf:perf</t>
+          <t>ign</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>inf:imperf</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
     </row>
@@ -3211,22 +3211,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>niepomięła</t>
+          <t>Cobary</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Komornikowej niepomięła –</t>
+          <t>Sachsen Cobary Ułanów</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>praet:sg:f:perf</t>
+          <t>ign</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>adj:sg:nom:f:pos</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -3236,22 +3236,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>nauki</t>
+          <t>Ułanów</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>pokończyli nauki ale</t>
+          <t>Cobary Ułanów mając</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>subst:pl:gen:m1</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>subst:pl:gen:m2</t>
         </is>
       </c>
     </row>
@@ -3261,22 +3261,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>majątek</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>sposobem majątek zniszczał</t>
+          <t>lat 14 .</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m3</t>
+          <t>num:pl:acc:m3:rec</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m3</t>
+          <t>num:pl:gen:m3:congr</t>
         </is>
       </c>
     </row>
@@ -3286,22 +3286,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>podpodczas</t>
+          <t>niebył</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>– podpodczas wojen</t>
+          <t>Wreszcie niebył em</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>prep:gen</t>
+          <t>praet:sg:m1:imperf</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
     </row>
@@ -3311,22 +3311,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Sachsen</t>
+          <t>dłuższy</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>do Sachsen Cobary</t>
+          <t>nigdy dłuższy czas</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ign</t>
+          <t>adj:sg:acc:m3:com</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>adj:sg:nom:m3:com</t>
         </is>
       </c>
     </row>
@@ -3336,22 +3336,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cobary</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Sachsen Cobary Ułanów</t>
+          <t>. móy Oyciec</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ign</t>
+          <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
     </row>
@@ -3361,22 +3361,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Ułanów</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Cobary Ułanów mając</t>
+          <t>albo 1809 –</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m1</t>
+          <t>adj:sg:gen:m3:pos</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m2</t>
+          <t>dig</t>
         </is>
       </c>
     </row>
@@ -3386,22 +3386,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>nadporucznika</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>lat 14 .</t>
+          <t>randze nadporucznika ,</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:rec</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>num:pl:gen:m3:congr</t>
+          <t>subst:sg:gen:m2</t>
         </is>
       </c>
     </row>
@@ -3411,22 +3411,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>niebył</t>
+          <t>kończ</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Wreszcie niebył em</t>
+          <t>do kończ życia</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>praet:sg:m1:imperf</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>subst:pl:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -3436,22 +3436,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>dłuższy</t>
+          <t>Iglan</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>nigdy dłuższy czas</t>
+          <t>pod Iglan był</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>adj:sg:acc:m3:com</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m3:com</t>
+          <t>subst:sg:inst:n:ncol</t>
         </is>
       </c>
     </row>
@@ -3461,22 +3461,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>pod</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>. móy Oyciec</t>
+          <t>a pod Wagram</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>prep:inst:nwok</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>prep:acc:nwok</t>
         </is>
       </c>
     </row>
@@ -3486,22 +3486,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>Wagram</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>albo 1809 –</t>
+          <t>pod Wagram stojąc</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>adj:sg:gen:m3:pos</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>dig</t>
+          <t>subst:sg:acc:m3</t>
         </is>
       </c>
     </row>
@@ -3511,22 +3511,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>nadporucznika</t>
+          <t>nieżywy</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>randze nadporucznika ,</t>
+          <t>jak nieżywy –</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m2</t>
+          <t>adj:sg:nom:m3:pos</t>
         </is>
       </c>
     </row>
@@ -3536,22 +3536,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>kończ</t>
+          <t>nim</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>do kończ życia</t>
+          <t>po nim ,</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>ppron3:sg:loc:m1:ter:akc:praep</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>subst:pl:gen:n:ncol</t>
+          <t>ppron3:sg:loc:m3:ter:akc:praep</t>
         </is>
       </c>
     </row>
@@ -3561,22 +3561,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Iglan</t>
+          <t>bagnetami</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>pod Iglan był</t>
+          <t>kłując bagnetami lub</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>subst:pl:inst:m3</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>subst:sg:inst:n:ncol</t>
+          <t>subst:pl:inst:n:pt</t>
         </is>
       </c>
     </row>
@@ -3586,22 +3586,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>pod</t>
+          <t>Siemiginów</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>a pod Wagram</t>
+          <t>wieś Siemiginów w</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>prep:inst:nwok</t>
+          <t>subst:pl:nom:m3</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>prep:acc:nwok</t>
+          <t>subst:sg:nom:m3</t>
         </is>
       </c>
     </row>
@@ -3611,22 +3611,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Wagram</t>
+          <t>tem</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>pod Wagram stojąc</t>
+          <t>po tem jak</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>subst:pl:loc:n:ncol</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m3</t>
+          <t>adjp</t>
         </is>
       </c>
     </row>
@@ -3636,22 +3636,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>nieżywy</t>
+          <t>których</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>jak nieżywy –</t>
+          <t>indyki których po</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>adj:pl:gen:m2:pos</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m3:pos</t>
+          <t>adj:pl:gen:f:pos</t>
         </is>
       </c>
     </row>
@@ -3661,22 +3661,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>nim</t>
+          <t>parę</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>po nim ,</t>
+          <t>po parę set</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ppron3:sg:loc:m1:ter:akc:praep</t>
+          <t>num:pl:acc:f:rec</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ppron3:sg:loc:m3:ter:akc:praep</t>
+          <t>num:pl:acc:m3:rec</t>
         </is>
       </c>
     </row>
@@ -3686,22 +3686,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>bagnetami</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>kłując bagnetami lub</t>
+          <t>kupił Bludniki za</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>subst:pl:inst:m3</t>
+          <t>subst:pl:acc:n:pt</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>subst:pl:inst:n:pt</t>
+          <t>subst:pl:acc:m2</t>
         </is>
       </c>
     </row>
@@ -3711,22 +3711,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Siemiginów</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>wieś Siemiginów w</t>
+          <t>Rozwadowskiej 10000 dukatów</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>subst:pl:nom:m3</t>
+          <t>num:pl:acc:m2:rec</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m3</t>
+          <t>num:pl:acc:m3:rec</t>
         </is>
       </c>
     </row>
@@ -3736,22 +3736,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>tem</t>
+          <t>dukatów</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>po tem jak</t>
+          <t>10000 dukatów .</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>subst:pl:loc:n:ncol</t>
+          <t>subst:pl:gen:m2</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>adjp</t>
+          <t>subst:pl:gen:m3</t>
         </is>
       </c>
     </row>
@@ -3761,22 +3761,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>których</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>indyki których po</t>
+          <t>brakowało 2000 dukatów</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>adj:pl:gen:m2:pos</t>
+          <t>num:pl:gen:m2:congr</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>adj:pl:gen:f:pos</t>
+          <t>num:pl:gen:m3:congr</t>
         </is>
       </c>
     </row>
@@ -3786,22 +3786,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>parę</t>
+          <t>dukatów</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>po parę set</t>
+          <t>2000 dukatów pełnłnomocnik</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>num:pl:acc:f:rec</t>
+          <t>subst:pl:gen:m2</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:rec</t>
+          <t>subst:pl:gen:m3</t>
         </is>
       </c>
     </row>
@@ -3811,22 +3811,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>któremi</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>kupił Bludniki za</t>
+          <t>nad któremi obeymował</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>subst:pl:acc:n:pt</t>
+          <t>adj:pl:inst:m1:pos</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m2</t>
+          <t>adj:pl:inst:n:pos</t>
         </is>
       </c>
     </row>
@@ -3836,22 +3836,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>Dziedzictwo</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Rozwadowskiej 10000 dukatów</t>
+          <t>obeymował Dziedzictwo opiekę</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>num:pl:acc:m2:rec</t>
+          <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:rec</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
     </row>
@@ -3861,22 +3861,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>dukatów</t>
+          <t>pierwszey</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>10000 dukatów .</t>
+          <t>policyjną pierwszey instantacyi</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m2</t>
+          <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m3</t>
+          <t>adj:pl:acc:m3:pos</t>
         </is>
       </c>
     </row>
@@ -3886,22 +3886,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>instantacyi</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>brakowało 2000 dukatów</t>
+          <t>pierwszey instantacyi .</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>num:pl:gen:m2:congr</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>num:pl:gen:m3:congr</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
     </row>
@@ -3911,22 +3911,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>dukatów</t>
+          <t>poddani</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2000 dukatów pełnłnomocnik</t>
+          <t>odbywali poddani wedle</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m2</t>
+          <t>subst:pl:nom:m1</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m3</t>
+          <t>ppas:pl:nom:m1:perf:aff</t>
         </is>
       </c>
     </row>
@@ -3936,22 +3936,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>któremi</t>
+          <t>posiadanych</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>nad któremi obeymował</t>
+          <t>ilości posiadanych morgów</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>adj:pl:inst:m1:pos</t>
+          <t>ppas:pl:gen:m3:imperf:aff</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>adj:pl:inst:n:pos</t>
+          <t>ppas:pl:gen:m3:perf:aff</t>
         </is>
       </c>
     </row>
@@ -3961,22 +3961,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Dziedzictwo</t>
+          <t>tego</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>obeymował Dziedzictwo opiekę</t>
+          <t>Oprócz tego z</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>subst:sg:acc:n:ncol</t>
+          <t>adj:sg:gen:m3:pos</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -3986,22 +3986,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>pierwszey</t>
+          <t>poddani</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>policyjną pierwszey instantacyi</t>
+          <t>oddawali poddani jakąś</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>adj:sg:gen:f:pos</t>
+          <t>subst:pl:nom:m1</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>adj:pl:acc:m3:pos</t>
+          <t>ppas:pl:nom:m1:perf:aff</t>
         </is>
       </c>
     </row>
@@ -4011,22 +4011,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>instantacyi</t>
+          <t>owsa</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>pierwszey instantacyi .</t>
+          <t>ilość owsa –</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>subst:sg:gen:m2</t>
         </is>
       </c>
     </row>
@@ -4036,22 +4036,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>poddani</t>
+          <t>zwane</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>odbywali poddani wedle</t>
+          <t>tak zwane spaśne</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>subst:pl:nom:m1</t>
+          <t>ppas:sg:acc:n:imperf:aff</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>ppas:pl:nom:m1:perf:aff</t>
+          <t>adj:pl:acc:n:pos</t>
         </is>
       </c>
     </row>
@@ -4061,22 +4061,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>posiadanych</t>
+          <t>spaśne</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ilości posiadanych morgów</t>
+          <t>zwane spaśne -</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>ppas:pl:gen:m3:imperf:aff</t>
+          <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ppas:pl:gen:m3:perf:aff</t>
+          <t>adj:pl:acc:n:pos</t>
         </is>
       </c>
     </row>
@@ -4086,22 +4086,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>tego</t>
+          <t>Ostaszewskigo</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Oprócz tego z</t>
+          <t>Dziadka Ostaszewskigo jak</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>adj:sg:gen:m3:pos</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -4111,22 +4111,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>poddani</t>
+          <t>jak</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>oddawali poddani jakąś</t>
+          <t>Ostaszewskigo jak się</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>subst:pl:nom:m1</t>
+          <t>comp</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ppas:pl:nom:m1:perf:aff</t>
+          <t>adv:pos</t>
         </is>
       </c>
     </row>
@@ -4136,22 +4136,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>owsa</t>
+          <t>Długim</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ilość owsa –</t>
+          <t>na Długim najlepsze</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>adj:sg:loc:m3:pos</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m2</t>
+          <t>subst:sg:loc:m3</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>zwane</t>
+          <t>najlepsze</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>tak zwane spaśne</t>
+          <t>Długim najlepsze mają</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>ppas:sg:acc:n:imperf:aff</t>
+          <t>adj:sg:acc:m2:sup</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>adj:pl:acc:n:pos</t>
+          <t>adj:sg:nom:n:sup</t>
         </is>
       </c>
     </row>
@@ -4186,22 +4186,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>spaśne</t>
+          <t>Oddzieli</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>zwane spaśne -</t>
+          <t>– Oddzieli śp</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>subst:sg:acc:n:ncol</t>
+          <t>fin:sg:ter:perf</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>adj:pl:acc:n:pos</t>
+          <t>praet:pl:m1:perf</t>
         </is>
       </c>
     </row>
@@ -4211,22 +4211,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ostaszewskigo</t>
+          <t>suchey</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Dziadka Ostaszewskigo jak</t>
+          <t>morgów suchey łąki</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>adj:pl:acc:f:pos</t>
         </is>
       </c>
     </row>
@@ -4236,22 +4236,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>jak</t>
+          <t>łąki</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Ostaszewskigo jak się</t>
+          <t>suchey łąki podedworem</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>comp</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>adv:pos</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
     </row>
@@ -4261,22 +4261,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Długim</t>
+          <t>podedworem</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>na Długim najlepsze</t>
+          <t>łąki podedworem a</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>adj:sg:loc:m3:pos</t>
+          <t>subst:sg:loc:m3</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>subst:sg:loc:m3</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>najlepsze</t>
+          <t>nayskładniey</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Długim najlepsze mają</t>
+          <t>a nayskładniey położone</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>adj:sg:acc:m2:sup</t>
+          <t>adv:sup</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>adj:sg:nom:n:sup</t>
+          <t>prep:acc</t>
         </is>
       </c>
     </row>
@@ -4311,22 +4311,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Oddzieli</t>
+          <t>położone</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>– Oddzieli śp</t>
+          <t>nayskładniey położone dla</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>fin:sg:ter:perf</t>
+          <t>ppas:pl:nom:m3:perf:aff</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>praet:pl:m1:perf</t>
+          <t>ppas:pl:acc:f:perf:aff</t>
         </is>
       </c>
     </row>
@@ -4336,22 +4336,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>suchey</t>
+          <t>Niebył</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>morgów suchey łąki</t>
+          <t>. Niebył to</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>adj:sg:gen:f:pos</t>
+          <t>praet:sg:m3:imperf</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>adj:pl:acc:f:pos</t>
+          <t>part</t>
         </is>
       </c>
     </row>
@@ -4361,22 +4361,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>łąki</t>
+          <t>Oycowskiey</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>suchey łąki podedworem</t>
+          <t>. Oycowskiey .</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>subst:pl:nom:m3</t>
         </is>
       </c>
     </row>
@@ -4386,22 +4386,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>podedworem</t>
+          <t>polowania</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>łąki podedworem a</t>
+          <t>i polowania na</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>subst:sg:loc:m3</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>ger:sg:gen:n:imperf:aff</t>
         </is>
       </c>
     </row>
@@ -4411,22 +4411,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>nayskładniey</t>
+          <t>poddani</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>a nayskładniey położone</t>
+          <t>- poddani uwolnieni</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>adv:sup</t>
+          <t>subst:pl:nom:m1</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>prep:acc</t>
+          <t>ppas:pl:nom:m1:perf:aff</t>
         </is>
       </c>
     </row>
@@ -4436,22 +4436,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>położone</t>
+          <t>wianki</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>nayskładniey położone dla</t>
+          <t>dawać wianki suszonych</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ppas:pl:nom:m3:perf:aff</t>
+          <t>subst:pl:acc:m3</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>ppas:pl:acc:f:perf:aff</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
     </row>
@@ -4461,22 +4461,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Niebył</t>
+          <t>suszonych</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>. Niebył to</t>
+          <t>wianki suszonych grzybów</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>praet:sg:m3:imperf</t>
+          <t>ppas:pl:gen:m3:imperf:aff</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>ppas:pl:gen:m3:perf:aff</t>
         </is>
       </c>
     </row>
@@ -4486,22 +4486,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Oycowskiey</t>
+          <t>grzybów</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>. Oycowskiey .</t>
+          <t>suszonych grzybów –</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>subst:pl:gen:m3</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>subst:pl:nom:m3</t>
+          <t>subst:pl:gen:m2</t>
         </is>
       </c>
     </row>
@@ -4511,22 +4511,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>polowania</t>
+          <t>miarkmi</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>i polowania na</t>
+          <t>– miarkmi wianki</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>subst:pl:inst:f</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>ger:sg:gen:n:imperf:aff</t>
+          <t>subst:pl:nom:f</t>
         </is>
       </c>
     </row>
@@ -4536,22 +4536,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>poddani</t>
+          <t>wianki</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>- poddani uwolnieni</t>
+          <t>miarkmi wianki powinny</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>subst:pl:nom:m1</t>
+          <t>subst:pl:nom:m3</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ppas:pl:nom:m1:perf:aff</t>
+          <t>subst:pl:nom:f</t>
         </is>
       </c>
     </row>
@@ -4561,22 +4561,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>wianki</t>
+          <t>były</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>dawać wianki suszonych</t>
+          <t>powinny były mierzyć</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m3</t>
+          <t>praet:pl:m3:imperf</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>praet:pl:f:imperf</t>
         </is>
       </c>
     </row>
@@ -4586,22 +4586,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>suszonych</t>
+          <t>niego</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>wianki suszonych grzybów</t>
+          <t>z niego dziesięcinę</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>ppas:pl:gen:m3:imperf:aff</t>
+          <t>ppron3:sg:gen:m3:ter:akc:praep</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ppas:pl:gen:m3:perf:aff</t>
+          <t>ppron3:sg:gen:m1:ter:akc:praep</t>
         </is>
       </c>
     </row>
@@ -4611,22 +4611,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>grzybów</t>
+          <t>to</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>suszonych grzybów –</t>
+          <t>, to jest</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m3</t>
+          <t>subst:sg:nom:n:ncol</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m2</t>
+          <t>pred</t>
         </is>
       </c>
     </row>
@@ -4636,22 +4636,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>miarkmi</t>
+          <t>dziesiąty</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>– miarkmi wianki</t>
+          <t>jest dziesiąty pniak</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>subst:pl:inst:f</t>
+          <t>adj:sg:acc:m3:pos</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>subst:pl:nom:f</t>
+          <t>adj:sg:nom:m3:pos</t>
         </is>
       </c>
     </row>
@@ -4661,22 +4661,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>wianki</t>
+          <t>pniak</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>miarkmi wianki powinny</t>
+          <t>dziesiąty pniak do</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>subst:pl:nom:m3</t>
+          <t>subst:sg:acc:m3</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>subst:pl:nom:f</t>
+          <t>subst:sg:nom:m3</t>
         </is>
       </c>
     </row>
@@ -4686,22 +4686,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>były</t>
+          <t>niemógł</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>powinny były mierzyć</t>
+          <t>Nieszlachcic niemógł kupować</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>praet:pl:m3:imperf</t>
+          <t>praet:sg:m1:imperf</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>praet:pl:f:imperf</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
     </row>
@@ -4711,22 +4711,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>niego</t>
+          <t>swojem</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>z niego dziesięcinę</t>
+          <t>na swojem mieycus</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>ppron3:sg:gen:m3:ter:akc:praep</t>
+          <t>adj:sg:loc:n:pos</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ppron3:sg:gen:m1:ter:akc:praep</t>
+          <t>adj:sg:loc:m3:pos</t>
         </is>
       </c>
     </row>
@@ -4736,22 +4736,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>mieycus</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>, to jest</t>
+          <t>swojem mieycus Mandatariusza</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>subst:sg:nom:n:ncol</t>
+          <t>subst:sg:loc:n:ncol</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>pred</t>
+          <t>subst:sg:acc:m3</t>
         </is>
       </c>
     </row>
@@ -4761,22 +4761,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>dziesiąty</t>
+          <t>Mandatariusza</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>jest dziesiąty pniak</t>
+          <t>mieycus Mandatariusza -</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>adj:sg:acc:m3:pos</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m3:pos</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -4786,22 +4786,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>pniak</t>
+          <t>niemogło</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>dziesiąty pniak do</t>
+          <t>– niemogło się</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m3</t>
+          <t>praet:sg:n:imperf</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m3</t>
+          <t>pred</t>
         </is>
       </c>
     </row>
@@ -4811,22 +4811,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>niemógł</t>
+          <t>małżeństwo</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Nieszlachcic niemógł kupować</t>
+          <t>żadne małżeństwo skojarzyć</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>praet:sg:m1:imperf</t>
+          <t>subst:sg:nom:n:ncol</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>swojem</t>
+          <t>dopokąd</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>na swojem mieycus</t>
+          <t>– dopokąd z</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>adj:sg:loc:n:pos</t>
+          <t>comp</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>adj:sg:loc:m3:pos</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
@@ -4861,22 +4861,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>mieycus</t>
+          <t>z</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>swojem mieycus Mandatariusza</t>
+          <t>dopokąd z Dominii</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>subst:sg:loc:n:ncol</t>
+          <t>prep:gen:nwok</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m3</t>
+          <t>prep:inst:nwok</t>
         </is>
       </c>
     </row>
@@ -4886,22 +4886,22 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Mandatariusza</t>
+          <t>Dominii</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>mieycus Mandatariusza -</t>
+          <t>z Dominii nieprzyniósł</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>subst:sg:inst:m1</t>
         </is>
       </c>
     </row>
@@ -4911,22 +4911,22 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>niemogło</t>
+          <t>kartki</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>– niemogło się</t>
+          <t>nieprzyniósł kartki pozwolenia</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>praet:sg:n:imperf</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>pred</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
     </row>
@@ -4936,22 +4936,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>małżeństwo</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>żadne małżeństwo skojarzyć</t>
+          <t>chociaż i tu</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>subst:sg:nom:n:ncol</t>
+          <t>conj</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>subst:sg:acc:n:ncol</t>
+          <t>part</t>
         </is>
       </c>
     </row>
@@ -4961,22 +4961,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>dopokąd</t>
+          <t>one</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>– dopokąd z</t>
+          <t>mogły one być</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>comp</t>
+          <t>ppron3:pl:nom:n:ter:akc:npraep</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>ppron3:pl:nom:f:ter:akc:npraep</t>
         </is>
       </c>
     </row>
@@ -4986,22 +4986,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>dopokąd z Dominii</t>
+          <t>Dziadek móy mawiał</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>prep:gen:nwok</t>
+          <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>prep:inst:nwok</t>
+          <t>praet:sg:m1:imperf</t>
         </is>
       </c>
     </row>
@@ -5011,22 +5011,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Dominii</t>
+          <t>tego</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>z Dominii nieprzyniósł</t>
+          <t>Pana tego nie</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>adj:sg:gen:m1:pos</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m1</t>
+          <t>adj:sg:gen:n:pos</t>
         </is>
       </c>
     </row>
@@ -5036,22 +5036,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>kartki</t>
+          <t>Mandatariaty</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>nieprzyniósł kartki pozwolenia</t>
+          <t>. Mandatariaty po</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>subst:pl:nom:m3</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>subst:pl:nom:f</t>
         </is>
       </c>
     </row>
@@ -5061,22 +5061,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>obsadzane</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>chociaż i tu</t>
+          <t>części obsadzane były</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>conj</t>
+          <t>ppas:pl:nom:m3:imperf:aff</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>ppas:pl:nom:f:imperf:aff</t>
         </is>
       </c>
     </row>
@@ -5086,22 +5086,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>były</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>mogły one być</t>
+          <t>obsadzane były szlachtą</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>ppron3:pl:nom:n:ter:akc:npraep</t>
+          <t>praet:pl:m3:imperf</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ppron3:pl:nom:f:ter:akc:npraep</t>
+          <t>praet:pl:f:imperf</t>
         </is>
       </c>
     </row>
@@ -5111,22 +5111,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>ludowemi</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Dziadek móy mawiał</t>
+          <t>dziś ludowemi zwanych</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>adj:pl:inst:f:pos</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>praet:sg:m1:imperf</t>
+          <t>adj:pl:loc:f:pos</t>
         </is>
       </c>
     </row>
@@ -5136,22 +5136,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>tego</t>
+          <t>zwanych</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Pana tego nie</t>
+          <t>ludowemi zwanych czytać</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>adj:sg:gen:m1:pos</t>
+          <t>ppas:pl:loc:f:imperf:aff</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>adj:sg:gen:n:pos</t>
+          <t>ppas:pl:loc:f:perf:aff</t>
         </is>
       </c>
     </row>
@@ -5161,22 +5161,22 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Mandatariaty</t>
+          <t>lizną</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>. Mandatariaty po</t>
+          <t>czasem lizną trochę</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>subst:pl:nom:m3</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>subst:pl:nom:f</t>
+          <t>fin:pl:ter:perf</t>
         </is>
       </c>
     </row>
@@ -5186,22 +5186,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>obsadzane</t>
+          <t>trochę</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>części obsadzane były</t>
+          <t>lizną trochę łaciny</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ppas:pl:nom:m3:imperf:aff</t>
+          <t>num:pl:acc:f:rec</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ppas:pl:nom:f:imperf:aff</t>
+          <t>num:sg:acc:m3:rec</t>
         </is>
       </c>
     </row>
@@ -5211,22 +5211,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>były</t>
+          <t>manipulacyi</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>obsadzane były szlachtą</t>
+          <t>– manipulacyi urzędowey</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>praet:pl:m3:imperf</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>praet:pl:f:imperf</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
     </row>
@@ -5236,22 +5236,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ludowemi</t>
+          <t>urzędowey</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>dziś ludowemi zwanych</t>
+          <t>manipulacyi urzędowey –</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>adj:pl:inst:f:pos</t>
+          <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>adj:pl:loc:f:pos</t>
+          <t>adj:pl:acc:m3:pos</t>
         </is>
       </c>
     </row>
@@ -5261,22 +5261,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>zwanych</t>
+          <t>Cyrkule</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>ludowemi zwanych czytać</t>
+          <t>w Cyrkule i</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>ppas:pl:loc:f:imperf:aff</t>
+          <t>subst:sg:loc:m3</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>ppas:pl:loc:f:perf:aff</t>
+          <t>subst:sg:loc:f</t>
         </is>
       </c>
     </row>
@@ -5286,22 +5286,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>lizną</t>
+          <t>Mandatyrusza</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>czasem lizną trochę</t>
+          <t>. Mandatyrusza przyjmował</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>fin:pl:ter:perf</t>
+          <t>subst:pl:acc:m3</t>
         </is>
       </c>
     </row>
@@ -5311,22 +5311,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>trochę</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>lizną trochę łaciny</t>
+          <t>od 120 do</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>num:pl:acc:f:rec</t>
+          <t>num:pl:gen:m2:congr</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>num:sg:acc:m3:rec</t>
+          <t>num:pl:gen:m3:congr</t>
         </is>
       </c>
     </row>
@@ -5336,22 +5336,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>manipulacyi</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>– manipulacyi urzędowey</t>
+          <t>do 200 –</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>num:pl:gen:m2:congr</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>num:pl:gen:m3:congr</t>
         </is>
       </c>
     </row>
@@ -5361,22 +5361,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>urzędowey</t>
+          <t>300</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>manipulacyi urzędowey –</t>
+          <t>– 300 fl</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>adj:sg:gen:f:pos</t>
+          <t>num:pl:gen:m2:congr</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>adj:pl:acc:m3:pos</t>
+          <t>num:pl:gen:m3:congr</t>
         </is>
       </c>
     </row>
@@ -5386,22 +5386,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Cyrkule</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>w Cyrkule i</t>
+          <t>fl 20 do</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>subst:sg:loc:m3</t>
+          <t>num:pl:acc:m3:rec</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>subst:sg:loc:f</t>
+          <t>num:pl:nom:m3:rec</t>
         </is>
       </c>
     </row>
@@ -5411,22 +5411,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Mandatyrusza</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>. Mandatyrusza przyjmował</t>
+          <t>do 50 korcy</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>num:pl:gen:m3:congr</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m3</t>
+          <t>num:pl:gen:m1:congr</t>
         </is>
       </c>
     </row>
@@ -5436,22 +5436,22 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>korcy</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>od 120 do</t>
+          <t>50 korcy ordynaryi</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>num:pl:gen:m2:congr</t>
+          <t>subst:pl:gen:m3</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>num:pl:gen:m3:congr</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -5461,22 +5461,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>ordynaryi</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>do 200 –</t>
+          <t>korcy ordynaryi –</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>num:pl:gen:m2:congr</t>
+          <t>subst:pl:gen:f</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>num:pl:gen:m3:congr</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -5486,22 +5486,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>ogród</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>– 300 fl</t>
+          <t>– ogród ,</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>num:pl:gen:m2:congr</t>
+          <t>subst:sg:acc:m3</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>num:pl:gen:m3:congr</t>
+          <t>subst:sg:nom:m3</t>
         </is>
       </c>
     </row>
@@ -5511,22 +5511,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>pomieszkanie</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>fl 20 do</t>
+          <t>, pomieszkanie opał</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:rec</t>
+          <t>ger:sg:acc:n:perf:aff</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>num:pl:nom:m3:rec</t>
+          <t>ger:sg:nom:n:perf:aff</t>
         </is>
       </c>
     </row>
@@ -5536,22 +5536,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>do 50 korcy</t>
+          <t>zastępował Dziedzica .</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>num:pl:gen:m3:congr</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>num:pl:gen:m1:congr</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
     </row>
@@ -5561,22 +5561,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>korcy</t>
+          <t>one</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>50 korcy ordynaryi</t>
+          <t>w one czasy</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m3</t>
+          <t>adj:pl:acc:m3:pos</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>ppron3:pl:nom:m3:ter:akc:npraep</t>
         </is>
       </c>
     </row>
@@ -5586,22 +5586,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ordynaryi</t>
+          <t>dzisiejszych</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>korcy ordynaryi –</t>
+          <t>kosztował dzisiejszych 4</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>subst:pl:gen:f</t>
+          <t>adj:pl:acc:m2:pos</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>adj:pl:gen:f:pos</t>
         </is>
       </c>
     </row>
@@ -5611,22 +5611,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ogród</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>– ogród ,</t>
+          <t>dzisiejszych 4 do</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m3</t>
+          <t>num:pl:acc:m2:rec</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m3</t>
+          <t>num:pl:acc:m3:congr</t>
         </is>
       </c>
     </row>
@@ -5636,22 +5636,22 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>pomieszkanie</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>, pomieszkanie opał</t>
+          <t>do 5 centów</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>ger:sg:acc:n:perf:aff</t>
+          <t>num:pl:gen:m2:congr</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>ger:sg:nom:n:perf:aff</t>
+          <t>num:pl:gen:m3:congr</t>
         </is>
       </c>
     </row>
@@ -5661,22 +5661,22 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Dziedzica</t>
+          <t>owsa</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>zastępował Dziedzica .</t>
+          <t>korzec owsa cwansigera</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>subst:sg:gen:m2</t>
         </is>
       </c>
     </row>
@@ -5686,22 +5686,22 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>cwansigera</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>w one czasy</t>
+          <t>owsa cwansigera –</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>adj:pl:acc:m3:pos</t>
+          <t>subst:sg:acc:m3</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ppron3:pl:nom:m3:ter:akc:npraep</t>
+          <t>subst:sg:gen:m2</t>
         </is>
       </c>
     </row>
@@ -5711,22 +5711,22 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>dzisiejszych</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>kosztował dzisiejszych 4</t>
+          <t>czyli 33 centy</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>adj:pl:acc:m2:pos</t>
+          <t>num:pl:acc:m2:congr</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>adj:pl:gen:f:pos</t>
+          <t>num:pl:acc:m3:congr</t>
         </is>
       </c>
     </row>
@@ -5736,22 +5736,22 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>centy</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>dzisiejszych 4 do</t>
+          <t>33 centy –</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>num:pl:acc:m2:rec</t>
+          <t>subst:pl:acc:m2</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:congr</t>
+          <t>subst:pl:acc:m3</t>
         </is>
       </c>
     </row>
@@ -5761,22 +5761,22 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>dzisiejszych</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>do 5 centów</t>
+          <t>żyta dzisiejszych 1</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>num:pl:gen:m2:congr</t>
+          <t>adj:pl:gen:m2:pos</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>num:pl:gen:m3:congr</t>
+          <t>adj:pl:gen:m3:pos</t>
         </is>
       </c>
     </row>
@@ -5786,22 +5786,22 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>owsa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>korzec owsa cwansigera</t>
+          <t>dzisiejszych 1 fl</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>num:sg:nom:m2:congr</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m2</t>
+          <t>num:pl:nom:m3:rec</t>
         </is>
       </c>
     </row>
@@ -5811,22 +5811,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>cwansigera</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>owsa cwansigera –</t>
+          <t>korzec 10 do</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m3</t>
+          <t>num:pl:acc:m2:rec</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m2</t>
+          <t>num:pl:nom:m3:rec</t>
         </is>
       </c>
     </row>
@@ -5836,22 +5836,22 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>czyli 33 centy</t>
+          <t>do 14 centów</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>num:pl:acc:m2:congr</t>
+          <t>num:pl:gen:m2:congr</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:congr</t>
+          <t>num:pl:gen:m3:congr</t>
         </is>
       </c>
     </row>
@@ -5861,22 +5861,22 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>centy</t>
+          <t>przytem</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>33 centy –</t>
+          <t>mając przytem jakiś</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m2</t>
+          <t>subst:sg:loc:n:ncol</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m3</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
@@ -5886,22 +5886,22 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>dzisiejszych</t>
+          <t>małe</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>żyta dzisiejszych 1</t>
+          <t>i małe ale</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>adj:pl:gen:m2:pos</t>
+          <t>adj:pl:nom:m3:pos</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>adj:pl:gen:m3:pos</t>
+          <t>adj:pl:acc:m3:pos</t>
         </is>
       </c>
     </row>
@@ -5911,22 +5911,22 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>częste</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>dzisiejszych 1 fl</t>
+          <t>ale częste obrywki</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>num:sg:nom:m2:congr</t>
+          <t>adj:pl:nom:m3:pos</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>num:pl:nom:m3:rec</t>
+          <t>adj:pl:acc:f:pos</t>
         </is>
       </c>
     </row>
@@ -5936,22 +5936,22 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>obrywki</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>korzec 10 do</t>
+          <t>częste obrywki Panowie</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>num:pl:acc:m2:rec</t>
+          <t>subst:pl:nom:m3</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>num:pl:nom:m3:rec</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
     </row>
@@ -5961,22 +5961,22 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>lepiey</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>do 14 centów</t>
+          <t>nieraz lepiey jak</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>num:pl:gen:m2:congr</t>
+          <t>adv:com</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>num:pl:gen:m3:congr</t>
+          <t>adv:pos</t>
         </is>
       </c>
     </row>
@@ -5986,22 +5986,22 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>przytem</t>
+          <t>ładąn</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>mając przytem jakiś</t>
+          <t>– ładąn parą</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>subst:sg:loc:n:ncol</t>
+          <t>adj:pl:inst:f:pos</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>adj:sg:inst:f:pos</t>
         </is>
       </c>
     </row>
@@ -6011,22 +6011,22 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>małe</t>
+          <t>siwoszów</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>i małe ale</t>
+          <t>parą siwoszów ,</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>adj:pl:nom:m3:pos</t>
+          <t>subst:pl:gen:m2</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>adj:pl:acc:m3:pos</t>
+          <t>subst:pl:gen:m1</t>
         </is>
       </c>
     </row>
@@ -6036,22 +6036,22 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>częste</t>
+          <t>pensyi</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>ale częste obrywki</t>
+          <t>brał pensyi 600</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>adj:pl:nom:m3:pos</t>
+          <t>part</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>adj:pl:acc:f:pos</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -6061,22 +6061,22 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>obrywki</t>
+          <t>600</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>częste obrywki Panowie</t>
+          <t>pensyi 600 fl</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>subst:pl:nom:m3</t>
+          <t>num:pl:acc:m2:rec</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>num:pl:acc:m3:rec</t>
         </is>
       </c>
     </row>
@@ -6086,22 +6086,22 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>lepiey</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>nieraz lepiey jak</t>
+          <t>gdy móy Dziad</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>adv:com</t>
+          <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>adv:pos</t>
+          <t>praet:sg:m1:imperf</t>
         </is>
       </c>
     </row>
@@ -6111,22 +6111,22 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ładąn</t>
+          <t>Bludnik</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>– ładąn parą</t>
+          <t>do Bludnik należały</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>adj:pl:inst:f:pos</t>
+          <t>subst:pl:gen:n:pt</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>adj:sg:inst:f:pos</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -6136,22 +6136,22 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>siwoszów</t>
+          <t>należały</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>parą siwoszów ,</t>
+          <t>Bludnik należały Pokasowce</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m2</t>
+          <t>praet:pl:f:imperf</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m1</t>
+          <t>praet:pl:n:imperf</t>
         </is>
       </c>
     </row>
@@ -6161,22 +6161,22 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>pensyi</t>
+          <t>Pokasowce</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>brał pensyi 600</t>
+          <t>należały Pokasowce i</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>subst:pl:nom:f</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>subst:pl:nom:n:pt</t>
         </is>
       </c>
     </row>
@@ -6186,22 +6186,22 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>Siedliska</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>pensyi 600 fl</t>
+          <t>i Siedliska –</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>num:pl:acc:m2:rec</t>
+          <t>subst:pl:nom:n:pt</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:rec</t>
+          <t>subst:pl:nom:n:ncol</t>
         </is>
       </c>
     </row>
@@ -6211,22 +6211,22 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>najbliższy</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>gdy móy Dziad</t>
+          <t>gromady najbliższy sąsiad</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>adj:sg:nom:m1:sup</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>praet:sg:m1:imperf</t>
+          <t>adj:sg:nom:m1:com</t>
         </is>
       </c>
     </row>
@@ -6236,22 +6236,22 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>jego</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>do Bludnik należały</t>
+          <t>to jego samego</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>subst:pl:gen:n:pt</t>
+          <t>ppron3:sg:acc:m1:ter:akc:npraep</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>ppron3:sg:gen:m1:ter:akc:npraep</t>
         </is>
       </c>
     </row>
@@ -6261,22 +6261,22 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>należały</t>
+          <t>ławy</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Bludnik należały Pokasowce</t>
+          <t>dokoła ławy i</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>praet:pl:f:imperf</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>praet:pl:n:imperf</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -6286,22 +6286,22 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Pokasowce</t>
+          <t>zkończone</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>należały Pokasowce i</t>
+          <t>białą zkończone )</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>subst:pl:nom:f</t>
+          <t>ppas:sg:acc:n:perf:aff</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>subst:pl:nom:n:pt</t>
+          <t>ppas:sg:inst:f:perf:aff</t>
         </is>
       </c>
     </row>
@@ -6311,22 +6311,22 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Siedliska</t>
+          <t>gotowe</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>i Siedliska –</t>
+          <t>– gotowe każdej</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>subst:pl:nom:n:pt</t>
+          <t>adj:pl:nom:f:pos</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>subst:pl:nom:n:ncol</t>
+          <t>adj:sg:nom:n:pos</t>
         </is>
       </c>
     </row>
@@ -6336,22 +6336,22 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>najbliższy</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>gromady najbliższy sąsiad</t>
+          <t>Dziadek móy odpowiedział</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:sup</t>
+          <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:com</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
     </row>
@@ -6361,22 +6361,22 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>jego</t>
+          <t>Ty</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>to jego samego</t>
+          <t>mu Ty człowiecze</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>ppron3:sg:acc:m1:ter:akc:npraep</t>
+          <t>ppron12:sg:voc:m1:sec</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>ppron3:sg:gen:m1:ter:akc:npraep</t>
+          <t>ppron12:sg:nom:m1:sec</t>
         </is>
       </c>
     </row>
@@ -6386,22 +6386,22 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ławy</t>
+          <t>nieporadzisz</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>dokoła ławy i</t>
+          <t>mi nieporadzisz –</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>fin:sg:sec:perf</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>fin:sg:sec:imperf</t>
         </is>
       </c>
     </row>
@@ -6411,22 +6411,22 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>zkończone</t>
+          <t>chłopisko</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>białą zkończone )</t>
+          <t>gdy chłopisko zaczął</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>ppas:sg:acc:n:perf:aff</t>
+          <t>subst:sg:nom:n:ncol</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>ppas:sg:inst:f:perf:aff</t>
+          <t>adv:pos</t>
         </is>
       </c>
     </row>
@@ -6436,22 +6436,22 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>gotowe</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>– gotowe każdej</t>
+          <t>potrzebuję 2000 Dukatów</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>adj:pl:nom:f:pos</t>
+          <t>num:pl:acc:m2:rec</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>adj:sg:nom:n:pos</t>
+          <t>num:pl:gen:m3:congr</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>przyniósł</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Dziadek móy odpowiedział</t>
+          <t>poczekaniu przyniósł i</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>praet:sg:m1:perf:nagl</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
     </row>
@@ -6486,22 +6486,22 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Ty</t>
+          <t>za</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>mu Ty człowiecze</t>
+          <t>jeszcze za mojey</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>ppron12:sg:voc:m1:sec</t>
+          <t>prep:gen</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>ppron12:sg:nom:m1:sec</t>
+          <t>prep:acc</t>
         </is>
       </c>
     </row>
@@ -6511,22 +6511,22 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>nieporadzisz</t>
+          <t>mojey</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>mi nieporadzisz –</t>
+          <t>za mojey pamięci</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>fin:sg:sec:perf</t>
+          <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>fin:sg:sec:imperf</t>
+          <t>adj:pl:acc:f:pos</t>
         </is>
       </c>
     </row>
@@ -6536,22 +6536,22 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>chłopisko</t>
+          <t>sześciu</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>gdy chłopisko zaczął</t>
+          <t>liczono sześciu w</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>subst:sg:nom:n:ncol</t>
+          <t>num:pl:acc:m1:congr</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>adv:pos</t>
+          <t>num:pl:acc:m1:rec</t>
         </is>
       </c>
     </row>
@@ -6561,22 +6561,22 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>księżunio</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>potrzebuję 2000 Dukatów</t>
+          <t>, księżunio od</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>num:pl:acc:m2:rec</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>num:pl:gen:m3:congr</t>
+          <t>subst:sg:voc:m1</t>
         </is>
       </c>
     </row>
@@ -6586,22 +6586,22 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>przyniósł</t>
+          <t>pop</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>poczekaniu przyniósł i</t>
+          <t>jako pop szyzmatycki</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf:nagl</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>subst:sg:nom:m3</t>
         </is>
       </c>
     </row>
@@ -6611,22 +6611,22 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>za</t>
+          <t>szyzmatycki</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>jeszcze za mojey</t>
+          <t>pop szyzmatycki jako</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>prep:gen</t>
+          <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>prep:acc</t>
+          <t>adj:sg:nom:m3:pos</t>
         </is>
       </c>
     </row>
@@ -6636,22 +6636,22 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>mojey</t>
+          <t>renegat</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>za mojey pamięci</t>
+          <t>jako renegat tam</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>adj:sg:gen:f:pos</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>adj:pl:acc:f:pos</t>
+          <t>subst:sg:nom:m2</t>
         </is>
       </c>
     </row>
@@ -6661,22 +6661,22 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>sześciu</t>
+          <t>wsławił</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>liczono sześciu w</t>
+          <t>się wsławił .</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>num:pl:acc:m1:congr</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>num:pl:acc:m1:rec</t>
+          <t>praet:sg:m3:perf</t>
         </is>
       </c>
     </row>
@@ -6686,22 +6686,22 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>księżunio</t>
+          <t>późney</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>, księżunio od</t>
+          <t>tak późney dokupił</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>adv:com</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>subst:sg:voc:m1</t>
+          <t>adv:pos</t>
         </is>
       </c>
     </row>
@@ -6711,22 +6711,22 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>pop</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>jako pop szyzmatycki</t>
+          <t>Dziad móy Dorchów</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
+          <t>adj:sg:nom:m1:pos</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
           <t>subst:sg:nom:m1</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>subst:sg:nom:m3</t>
         </is>
       </c>
     </row>
@@ -6736,22 +6736,22 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>szyzmatycki</t>
+          <t>Dorchów</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>pop szyzmatycki jako</t>
+          <t>móy Dorchów i</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>subst:sg:acc:m3</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m3:pos</t>
+          <t>subst:pl:gen:m1</t>
         </is>
       </c>
     </row>
@@ -6761,22 +6761,22 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>renegat</t>
+          <t>Kurypów</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>jako renegat tam</t>
+          <t>i Kurypów –</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>subst:sg:acc:m3</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m2</t>
+          <t>subst:pl:gen:m1</t>
         </is>
       </c>
     </row>
@@ -6786,22 +6786,22 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>wsławił</t>
+          <t>nayjstarszego</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>się wsławił .</t>
+          <t>osadził nayjstarszego syna</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>adj:sg:acc:m1:sup</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>praet:sg:m3:perf</t>
+          <t>adj:sg:acc:m1:pos</t>
         </is>
       </c>
     </row>
@@ -6811,22 +6811,22 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>późney</t>
+          <t>dóbr</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>tak późney dokupił</t>
+          <t>tych dóbr napisał</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>adv:com</t>
+          <t>subst:pl:gen:n:pt</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>adv:pos</t>
+          <t>subst:pl:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -6836,22 +6836,22 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>Toje</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Dziad móy Dorchów</t>
+          <t>– Toje diło</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>ign</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>subst:sg:nom:n:ncol</t>
         </is>
       </c>
     </row>
@@ -6861,22 +6861,22 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Dorchów</t>
+          <t>diło</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>móy Dorchów i</t>
+          <t>Toje diło daruju</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m3</t>
+          <t>ign</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m1</t>
+          <t>subst:sg:nom:n:ncol</t>
         </is>
       </c>
     </row>
@@ -6886,22 +6886,22 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Kurypów</t>
+          <t>daruju</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>i Kurypów –</t>
+          <t>diło daruju ukochanomu</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m3</t>
+          <t>ign</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m1</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
     </row>
@@ -6911,22 +6911,22 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>nayjstarszego</t>
+          <t>ukochanomu</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>osadził nayjstarszego syna</t>
+          <t>daruju ukochanomu Synu</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>adj:sg:acc:m1:sup</t>
+          <t>ign</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>adj:sg:acc:m1:pos</t>
+          <t>subst:sg:dat:m1</t>
         </is>
       </c>
     </row>
@@ -6936,22 +6936,22 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>dóbr</t>
+          <t>Synu</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>tych dóbr napisał</t>
+          <t>ukochanomu Synu mojomu</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>subst:pl:gen:n:pt</t>
+          <t>ign</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>subst:pl:gen:n:ncol</t>
+          <t>subst:sg:voc:m1</t>
         </is>
       </c>
     </row>
@@ -6961,12 +6961,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Toje</t>
+          <t>mojomu</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>– Toje diło</t>
+          <t>Synu mojomu Mychayłowu</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>subst:sg:nom:n:ncol</t>
+          <t>adj:sg:gen:m1:pos</t>
         </is>
       </c>
     </row>
@@ -6986,12 +6986,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>diło</t>
+          <t>Mychayłowu</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Toje diło daruju</t>
+          <t>mojomu Mychayłowu .</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>subst:sg:nom:n:ncol</t>
+          <t>subst:sg:dat:m1</t>
         </is>
       </c>
     </row>
@@ -7011,22 +7011,22 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>daruju</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>diło daruju ukochanomu</t>
+          <t>. Bludniki oddał</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>ign</t>
+          <t>subst:pl:nom:n:pt</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>subst:pl:acc:m2</t>
         </is>
       </c>
     </row>
@@ -7036,22 +7036,22 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ukochanomu</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>daruju ukochanomu Synu</t>
+          <t>Oyciec móy objął</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>ign</t>
+          <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>subst:sg:dat:m1</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
     </row>
@@ -7061,22 +7061,22 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Synu</t>
+          <t>pono</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>ukochanomu Synu mojomu</t>
+          <t>Oyca pono 1813</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>ign</t>
+          <t>part</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>subst:sg:voc:m1</t>
+          <t>interp</t>
         </is>
       </c>
     </row>
@@ -7086,22 +7086,22 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>mojomu</t>
+          <t>1813</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Synu mojomu Mychayłowu</t>
+          <t>pono 1813 albo</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>ign</t>
+          <t>adj:sg:gen:m3:pos</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>adj:sg:gen:m1:pos</t>
+          <t>dig</t>
         </is>
       </c>
     </row>
@@ -7111,22 +7111,22 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Mychayłowu</t>
+          <t>1814</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>mojomu Mychayłowu .</t>
+          <t>albo 1814 –</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>ign</t>
+          <t>adj:sg:gen:m3:pos</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>subst:sg:dat:m1</t>
+          <t>dig</t>
         </is>
       </c>
     </row>
@@ -7136,22 +7136,22 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>. Bludniki oddał</t>
+          <t>Dziadek móy do</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>subst:pl:nom:n:pt</t>
+          <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m2</t>
+          <t>subst:pl:acc:m3</t>
         </is>
       </c>
     </row>
@@ -7161,22 +7161,22 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>Siebie</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Oyciec móy objął</t>
+          <t>do Siebie do</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>siebie:gen</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -7186,22 +7186,22 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>pono</t>
+          <t>dośmierci</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Oyca pono 1813</t>
+          <t>aż dośmierci Oyca</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>subst:pl:gen:f</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>interp</t>
+          <t>subst:pl:nom:m1</t>
         </is>
       </c>
     </row>
@@ -7211,22 +7211,22 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>1813</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>pono 1813 albo</t>
+          <t>Dziadek móy ku</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>adj:sg:gen:m3:pos</t>
+          <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>dig</t>
+          <t>praet:sg:m1:imperf</t>
         </is>
       </c>
     </row>
@@ -7236,22 +7236,22 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>1814</t>
+          <t>ile</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>albo 1814 –</t>
+          <t>i ile sobie</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>adj:sg:gen:m3:pos</t>
+          <t>adv</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>dig</t>
+          <t>num:pl:acc:m3:rec</t>
         </is>
       </c>
     </row>
@@ -7261,22 +7261,22 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>1826</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Dziadek móy do</t>
+          <t>około 1826 .</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>adj:sg:gen:m3:pos</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m3</t>
+          <t>dig</t>
         </is>
       </c>
     </row>
@@ -7286,22 +7286,22 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Siebie</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>do Siebie do</t>
+          <t>wydzielił Oyciec schedę</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>siebie:gen</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>subst:sg:dat:m1</t>
         </is>
       </c>
     </row>
@@ -7311,22 +7311,22 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>dośmierci</t>
+          <t>pono</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>aż dośmierci Oyca</t>
+          <t>końcu pono w</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>subst:pl:gen:f</t>
+          <t>part</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>subst:pl:nom:m1</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -7336,22 +7336,22 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>Lipie</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Dziadek móy ku</t>
+          <t>w Lipie –</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>subst:sg:loc:f</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>praet:sg:m1:imperf</t>
+          <t>subst:sg:loc:m3</t>
         </is>
       </c>
     </row>
@@ -7361,22 +7361,22 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ile</t>
+          <t>niewinem</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>i ile sobie</t>
+          <t>Lipa niewinem .</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>fin:sg:pri:imperf</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:rec</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
     </row>
@@ -7386,22 +7386,22 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>1826</t>
+          <t>najstarszy</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>około 1826 .</t>
+          <t>był najstarszy w</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>adj:sg:gen:m3:pos</t>
+          <t>adj:sg:nom:m1:sup</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>dig</t>
+          <t>adj:sg:nom:m1:com</t>
         </is>
       </c>
     </row>
@@ -7411,22 +7411,22 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Bludnikami</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>wydzielił Oyciec schedę</t>
+          <t>z Bludnikami o</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>subst:pl:inst:n:pt</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>subst:sg:dat:m1</t>
+          <t>subst:pl:inst:m1</t>
         </is>
       </c>
     </row>
@@ -7436,17 +7436,17 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>pono</t>
+          <t>Temerowiec</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>końcu pono w</t>
+          <t>z Temerowiec ,</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>subst:pl:gen:n:ncol</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -7461,22 +7461,22 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Lipie</t>
+          <t>Sabina</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>w Lipie –</t>
+          <t>jedynaka Sabina .</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>subst:sg:loc:f</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>subst:sg:loc:m3</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -7486,22 +7486,22 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>niewinem</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Lipa niewinem .</t>
+          <t>ale i syn</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>fin:sg:pri:imperf</t>
+          <t>conj</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>part</t>
         </is>
       </c>
     </row>
@@ -7511,22 +7511,22 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>najstarszy</t>
+          <t>doszedłszy</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>był najstarszy w</t>
+          <t>Oycem doszedłszy lat</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:sup</t>
+          <t>pant:perf</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:com</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
     </row>
@@ -7536,22 +7536,22 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Bludnikami</t>
+          <t>Dorchów</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>z Bludnikami o</t>
+          <t>zapisała Dorchów bratu</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>subst:pl:inst:n:pt</t>
+          <t>subst:pl:acc:m3</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>subst:pl:inst:m1</t>
+          <t>subst:sg:acc:m3</t>
         </is>
       </c>
     </row>
@@ -7561,22 +7561,22 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Temerowiec</t>
+          <t>temu</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>z Temerowiec ,</t>
+          <t>żona temu pono</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>subst:pl:gen:n:ncol</t>
+          <t>subst:sg:dat:n:ncol</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>adj:sg:dat:m1:pos</t>
         </is>
       </c>
     </row>
@@ -7586,22 +7586,22 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Sabina</t>
+          <t>pono</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>jedynaka Sabina .</t>
+          <t>temu pono z</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>part</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>subst:sg:dat:m3</t>
         </is>
       </c>
     </row>
@@ -7611,22 +7611,22 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>Dorchów</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>ale i syn</t>
+          <t>zostawił Dorchów swojemu</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>conj</t>
+          <t>subst:pl:acc:m1</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>subst:sg:acc:m3</t>
         </is>
       </c>
     </row>
@@ -7636,17 +7636,17 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>doszedłszy</t>
+          <t>niebył</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Oycem doszedłszy lat</t>
+          <t>– niebył gospodarzem</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>pant:perf</t>
+          <t>praet:sg:ter:imperf</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -7661,22 +7661,22 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>synie</t>
+          <t>więcey</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>po synie na</t>
+          <t>gospodarzem więcey fantasta</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>subst:sg:loc:m3</t>
+          <t>adv:com</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>subst:sg:loc:m1</t>
+          <t>comp</t>
         </is>
       </c>
     </row>
@@ -7686,17 +7686,17 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Dorchów</t>
+          <t>wgłos</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>zapisała Dorchów bratu</t>
+          <t>czytywał wgłos „</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m3</t>
+          <t>adv</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -7711,22 +7711,22 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>temu</t>
+          <t>Pana</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>żona temu pono</t>
+          <t>„ Pana Tadeusza</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>subst:sg:dat:n:ncol</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>adj:sg:dat:m1:pos</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -7736,22 +7736,22 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>pono</t>
+          <t>Tadeusza</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>temu pono z</t>
+          <t>Pana Tadeusza ”</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>subst:sg:dat:m3</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -7761,22 +7761,22 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Dorchów</t>
+          <t>masami</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>zostawił Dorchów swojemu</t>
+          <t>skupował masami poziomki</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m1</t>
+          <t>subst:pl:inst:f</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m3</t>
+          <t>subst:pl:inst:m3</t>
         </is>
       </c>
     </row>
@@ -7786,22 +7786,22 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>niebył</t>
+          <t>poziomki</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>– niebył gospodarzem</t>
+          <t>masami poziomki i</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>praet:sg:ter:imperf</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>subst:pl:acc:m3</t>
         </is>
       </c>
     </row>
@@ -7811,22 +7811,22 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>więcey</t>
+          <t>na</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>gospodarzem więcey fantasta</t>
+          <t>ligał na gołey</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>adv:com</t>
+          <t>prep:loc</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>comp</t>
+          <t>prep:acc</t>
         </is>
       </c>
     </row>
@@ -7836,22 +7836,22 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>wgłos</t>
+          <t>gołey</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>czytywał wgłos „</t>
+          <t>na gołey podłodze</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>adj:sg:loc:f:pos</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m3</t>
+          <t>subst:sg:loc:f</t>
         </is>
       </c>
     </row>
@@ -7861,22 +7861,22 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Pana</t>
+          <t>Zapraszał</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>„ Pana Tadeusza</t>
+          <t>– Zapraszał do</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>praet:sg:m1:imperf</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
     </row>
@@ -7886,22 +7886,22 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Tadeusza</t>
+          <t>tey</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Pana Tadeusza ”</t>
+          <t>do tey praktyki</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -7911,22 +7911,22 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>masami</t>
+          <t>ci</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>skupował masami poziomki</t>
+          <t>ale ci niemogli</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>subst:pl:inst:f</t>
+          <t>ppron12:sg:dat:m1:sec:nakc</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>subst:pl:inst:m3</t>
+          <t>adj:pl:nom:m1:pos</t>
         </is>
       </c>
     </row>
@@ -7936,22 +7936,22 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>poziomki</t>
+          <t>nietylko</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>masami poziomki i</t>
+          <t>– nietylko czeladź</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>conj</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m3</t>
+          <t>adv:pos</t>
         </is>
       </c>
     </row>
@@ -7961,22 +7961,22 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>na</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>ligał na gołey</t>
+          <t>ale i bydło</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>prep:loc</t>
+          <t>conj</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>prep:acc</t>
+          <t>part</t>
         </is>
       </c>
     </row>
@@ -7986,22 +7986,22 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>gołey</t>
+          <t>niemożna</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>na gołey podłodze</t>
+          <t>obeyściu niemożna było</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>adj:sg:loc:f:pos</t>
+          <t>pred</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>subst:sg:loc:f</t>
+          <t>adj:sg:nom:f:pos</t>
         </is>
       </c>
     </row>
@@ -8011,22 +8011,22 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Zapraszał</t>
+          <t>oczytany</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>– Zapraszał do</t>
+          <t>był oczytany –</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>praet:sg:m1:imperf</t>
+          <t>ppas:sg:nom:m1:perf:aff</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
     </row>
@@ -8036,22 +8036,22 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>tey</t>
+          <t>tylko</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>do tey praktyki</t>
+          <t>zacny tylko raptus</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>adj:sg:gen:f:pos</t>
+          <t>conj</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>part</t>
         </is>
       </c>
     </row>
@@ -8061,22 +8061,22 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>ci</t>
+          <t>raptus</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>ale ci niemogli</t>
+          <t>tylko raptus .</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>ppron12:sg:dat:m1:sec:nakc</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>adj:pl:nom:m1:pos</t>
+          <t>subst:sg:nom:m2</t>
         </is>
       </c>
     </row>
@@ -8086,22 +8086,22 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>nietylko</t>
+          <t>klęczącym</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>– nietylko czeladź</t>
+          <t>służba klęczącym ze</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>conj</t>
+          <t>pact:sg:inst:m1:imperf:aff</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>adv:pos</t>
+          <t>pact:pl:inst:f:imperf:aff</t>
         </is>
       </c>
     </row>
@@ -8111,22 +8111,22 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>złożonymi</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>ale i bydło</t>
+          <t>ze złożonymi rękoma</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>conj</t>
+          <t>adj:pl:inst:f:pos</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>ppas:pl:inst:f:perf:aff</t>
         </is>
       </c>
     </row>
@@ -8136,22 +8136,22 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>niemożna</t>
+          <t>nieżywym</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>obeyściu niemożna było</t>
+          <t>rękoma nieżywym .</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>pred</t>
+          <t>adj:pl:inst:f:pos</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>adj:sg:nom:f:pos</t>
+          <t>adj:sg:inst:m1:pos</t>
         </is>
       </c>
     </row>
@@ -8161,22 +8161,22 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>oczytany</t>
+          <t>Sukcesya</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>był oczytany –</t>
+          <t>. Sukcesya po</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>ppas:sg:nom:m1:perf:aff</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
     </row>
@@ -8186,22 +8186,22 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>tylko</t>
+          <t>mim</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>zacny tylko raptus</t>
+          <t>po mim ,</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>conj</t>
+          <t>ppron3:sg:acc:m1:ter:akc:praep</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
     </row>
@@ -8211,22 +8211,22 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>raptus</t>
+          <t>swoim</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>tylko raptus .</t>
+          <t>Siostrom swoim rodzonym</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>adj:sg:dat:f:pos</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m2</t>
+          <t>adj:pl:dat:m1:pos</t>
         </is>
       </c>
     </row>
@@ -8236,22 +8236,22 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>klęczącym</t>
+          <t>rodzonym</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>służba klęczącym ze</t>
+          <t>swoim rodzonym Treterowej</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>pact:sg:inst:m1:imperf:aff</t>
+          <t>ppas:sg:dat:f:imperf:aff</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>pact:pl:inst:f:imperf:aff</t>
+          <t>adj:sg:inst:m1:pos</t>
         </is>
       </c>
     </row>
@@ -8261,22 +8261,22 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>złożonymi</t>
+          <t>Swieżaskiey</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>ze złożonymi rękoma</t>
+          <t>i Swieżaskiey .</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>adj:pl:inst:f:pos</t>
+          <t>subst:sg:dat:f</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>ppas:pl:inst:f:perf:aff</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -8286,22 +8286,22 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>nieżywym</t>
+          <t>urodzoną</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>rękoma nieżywym .</t>
+          <t>Świeżyńską urodzoną ze</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>adj:pl:inst:f:pos</t>
+          <t>ppas:sg:inst:f:pos</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>adj:sg:inst:m1:pos</t>
+          <t>ppas:sg:inst:f:perf:aff</t>
         </is>
       </c>
     </row>
@@ -8311,22 +8311,22 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Sukcesya</t>
+          <t>Stryiskim</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>. Sukcesya po</t>
+          <t>w Stryiskim w</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>adj:sg:loc:m3:pos</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>subst:sg:loc:n:ncol</t>
         </is>
       </c>
     </row>
@@ -8336,22 +8336,22 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>mim</t>
+          <t>kilka</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>po mim ,</t>
+          <t>razem kilka generacyi</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>ppron3:sg:acc:m1:ter:akc:praep</t>
+          <t>num:pl:nom:f:rec</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>num:pl:nom:m1:rec</t>
         </is>
       </c>
     </row>
@@ -8361,22 +8361,22 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>swoim</t>
+          <t>generacyi</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Siostrom swoim rodzonym</t>
+          <t>kilka generacyi na</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>adj:sg:dat:f:pos</t>
+          <t>subst:pl:gen:f</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>adj:pl:dat:m1:pos</t>
+          <t>subst:pl:gen:m1</t>
         </is>
       </c>
     </row>
@@ -8386,22 +8386,22 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>rodzonym</t>
+          <t>jakby</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>swoim rodzonym Treterowej</t>
+          <t>– jakby jakieś</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>ppas:sg:dat:f:imperf:aff</t>
+          <t>comp</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>adj:sg:inst:m1:pos</t>
+          <t>part</t>
         </is>
       </c>
     </row>
@@ -8411,22 +8411,22 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Swieżaskiey</t>
+          <t>jakieś</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>i Swieżaskiey .</t>
+          <t>jakby jakieś fatum</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>subst:sg:dat:f</t>
+          <t>adj:sg:acc:n:pos</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>adj:sg:nom:n:pos</t>
         </is>
       </c>
     </row>
@@ -8436,22 +8436,22 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>urodzoną</t>
+          <t>fatum</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Świeżyńską urodzoną ze</t>
+          <t>jakieś fatum Panna</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>ppas:sg:inst:f:pos</t>
+          <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>ppas:sg:inst:f:perf:aff</t>
+          <t>subst:sg:nom:n:ncol</t>
         </is>
       </c>
     </row>
@@ -8461,22 +8461,22 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Stryiskim</t>
+          <t>Bludnik</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>w Stryiskim w</t>
+          <t>sąsiedztwo Bludnik do</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>adj:sg:loc:m3:pos</t>
+          <t>subst:pl:gen:n:pt</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>subst:sg:loc:n:ncol</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -8486,22 +8486,22 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>kilka</t>
+          <t>Państwa</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>razem kilka generacyi</t>
+          <t>do Państwa Rudzkich</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>num:pl:nom:f:rec</t>
+          <t>subst:pl:gen:n:ncol</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>num:pl:nom:m1:rec</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -8511,22 +8511,22 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>generacyi</t>
+          <t>Rudzkich</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>kilka generacyi na</t>
+          <t>Państwa Rudzkich gdzie</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>subst:pl:gen:f</t>
+          <t>adj:pl:gen:n:pos</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m1</t>
+          <t>adj:pl:gen:m1:pos</t>
         </is>
       </c>
     </row>
@@ -8536,12 +8536,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>jakby</t>
+          <t>Jakby</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>– jakby jakieś</t>
+          <t>. Jakby instynktownie</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -8561,22 +8561,22 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>jakieś</t>
+          <t>jey</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>jakby jakieś fatum</t>
+          <t>moja jey znieść</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>adj:sg:acc:n:pos</t>
+          <t>ppron3:sg:gen:m1:ter:nakc:npraep</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>adj:sg:nom:n:pos</t>
+          <t>fin:sg:ter:imperf</t>
         </is>
       </c>
     </row>
@@ -8586,22 +8586,22 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>fatum</t>
+          <t>niemogła</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>jakieś fatum Panna</t>
+          <t>znieść niemogła .</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>subst:sg:acc:n:ncol</t>
+          <t>praet:sg:f:imperf</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>subst:sg:nom:n:ncol</t>
+          <t>subst:sg:acc:f</t>
         </is>
       </c>
     </row>
@@ -8611,22 +8611,22 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>talarki</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>sąsiedztwo Bludnik do</t>
+          <t>zbijał talarki oszczędzał</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>subst:pl:gen:n:pt</t>
+          <t>subst:pl:nom:m2</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>subst:pl:acc:m3</t>
         </is>
       </c>
     </row>
@@ -8636,22 +8636,22 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Państwa</t>
+          <t>odległey</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>do Państwa Rudzkich</t>
+          <t>mil odległey od</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>subst:pl:gen:n:ncol</t>
+          <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>adj:pl:acc:f:pos</t>
         </is>
       </c>
     </row>
@@ -8661,22 +8661,22 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Rudzkich</t>
+          <t>Siemignowa</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Państwa Rudzkich gdzie</t>
+          <t>od Siemignowa –</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>adj:pl:gen:n:pos</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>adj:pl:gen:m1:pos</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -8686,22 +8686,22 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Jakby</t>
+          <t>hoża</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>. Jakby instynktownie</t>
+          <t>się hoża jak</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>comp</t>
+          <t>adj:sg:nom:f:pos</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
     </row>
@@ -8711,22 +8711,22 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>jey</t>
+          <t>łania</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>moja jey znieść</t>
+          <t>jak łania Panna</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>ppron3:sg:gen:m1:ter:nakc:npraep</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>fin:sg:ter:imperf</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -8736,22 +8736,22 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>niemogła</t>
+          <t>wyswatano</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>znieść niemogła .</t>
+          <t>i wyswatano Jegomości</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>praet:sg:f:imperf</t>
+          <t>imps:perf</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>subst:sg:acc:f</t>
+          <t>imps:imperf</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>talarki</t>
+          <t>Jegomości</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>zbijał talarki oszczędzał</t>
+          <t>wyswatano Jegomości już</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>subst:pl:nom:m2</t>
+          <t>subst:pl:acc:m1</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m3</t>
+          <t>subst:sg:dat:f</t>
         </is>
       </c>
     </row>
@@ -8786,22 +8786,22 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>odległey</t>
+          <t>to</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>mil odległey od</t>
+          <t>Było to około</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>adj:sg:gen:f:pos</t>
+          <t>pred</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>adj:pl:acc:f:pos</t>
+          <t>subst:sg:nom:n:ncol</t>
         </is>
       </c>
     </row>
@@ -8811,22 +8811,22 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Siemignowa</t>
+          <t>Sabina</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>od Siemignowa –</t>
+          <t>córka Sabina ,</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
+          <t>subst:sg:nom:f</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
           <t>subst:sg:gen:m1</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -8836,22 +8836,22 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>hoża</t>
+          <t>Siemiginowa</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>się hoża jak</t>
+          <t>sukcessorka Siemiginowa –</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>adj:sg:nom:f:pos</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -8861,22 +8861,22 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>łania</t>
+          <t>Leśniowice</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>jak łania Panna</t>
+          <t>miejscowość Leśniowice z</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>subst:pl:acc:n:pt</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>subst:pl:nom:n:pt</t>
         </is>
       </c>
     </row>
@@ -8886,22 +8886,22 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>wyswatano</t>
+          <t>życie</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>i wyswatano Jegomości</t>
+          <t>tam życie zakończył</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>imps:perf</t>
+          <t>subst:sg:nom:n:ncol</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>imps:imperf</t>
+          <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
     </row>
@@ -8911,22 +8911,22 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Jegomości</t>
+          <t>ciepłey</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>wyswatano Jegomości już</t>
+          <t>ale ciepłey wdowy</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m1</t>
+          <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>subst:sg:dat:f</t>
+          <t>adj:pl:nom:f:pos</t>
         </is>
       </c>
     </row>
@@ -8936,22 +8936,22 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Było to około</t>
+          <t>około 24 lat</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>pred</t>
+          <t>num:pl:acc:m3:rec</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>subst:sg:nom:n:ncol</t>
+          <t>num:pl:gen:m3:congr</t>
         </is>
       </c>
     </row>
@@ -8961,22 +8961,22 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Sabina</t>
+          <t>liczącego</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>córka Sabina ,</t>
+          <t>lat liczącego –</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>pact:sg:acc:m1:imperf:aff</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>pact:sg:gen:m1:imperf:aff</t>
         </is>
       </c>
     </row>
@@ -8986,22 +8986,22 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Siemiginowa</t>
+          <t>sybarytę</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>sukcessorka Siemiginowa –</t>
+          <t>– sybarytę próżniaka</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>subst:sg:acc:f</t>
         </is>
       </c>
     </row>
@@ -9011,22 +9011,22 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Leśniowice</t>
+          <t>pożyciu</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>miejscowość Leśniowice z</t>
+          <t>nim pożyciu –</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>subst:pl:acc:n:pt</t>
+          <t>subst:sg:loc:m3</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>subst:pl:nom:n:pt</t>
+          <t>subst:sg:loc:n:ncol</t>
         </is>
       </c>
     </row>
@@ -9036,22 +9036,22 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>życie</t>
+          <t>secundo</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>tam życie zakończył</t>
+          <t>Julia secundo voto</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
+          <t>ign</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
           <t>subst:sg:nom:n:ncol</t>
-        </is>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
     </row>
@@ -9061,22 +9061,22 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>ciepłey</t>
+          <t>voto</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>ale ciepłey wdowy</t>
+          <t>secundo voto Szołayska</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>adj:sg:gen:f:pos</t>
+          <t>ign</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>adj:pl:nom:f:pos</t>
+          <t>frag</t>
         </is>
       </c>
     </row>
@@ -9086,22 +9086,22 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>procesa</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>około 24 lat</t>
+          <t>lubiła procesa –</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:rec</t>
+          <t>subst:sg:acc:m3</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>num:pl:gen:m3:congr</t>
+          <t>subst:sg:acc:m2</t>
         </is>
       </c>
     </row>
@@ -9111,170 +9111,20 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>liczącego</t>
+          <t>Mosty</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>lat liczącego –</t>
+          <t>przyległe Mosty .</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>pact:sg:acc:m1:imperf:aff</t>
+          <t>subst:pl:acc:n:pt</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
-        <is>
-          <t>pact:sg:gen:m1:imperf:aff</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>sybarytę</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>– sybarytę próżniaka</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>subst:sg:acc:m1</t>
-        </is>
-      </c>
-      <c r="E349" t="inlineStr">
-        <is>
-          <t>subst:sg:acc:f</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>pożyciu</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>nim pożyciu –</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>subst:sg:loc:m3</t>
-        </is>
-      </c>
-      <c r="E350" t="inlineStr">
-        <is>
-          <t>subst:sg:loc:n:ncol</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>secundo</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>Julia secundo voto</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>ign</t>
-        </is>
-      </c>
-      <c r="E351" t="inlineStr">
-        <is>
-          <t>subst:sg:nom:n:ncol</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>voto</t>
-        </is>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>secundo voto Szołayska</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>ign</t>
-        </is>
-      </c>
-      <c r="E352" t="inlineStr">
-        <is>
-          <t>frag</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>procesa</t>
-        </is>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>lubiła procesa –</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>subst:sg:acc:m3</t>
-        </is>
-      </c>
-      <c r="E353" t="inlineStr">
-        <is>
-          <t>subst:sg:acc:m2</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>Mosty</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>przyległe Mosty .</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>subst:pl:acc:n:pt</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr">
         <is>
           <t>subst:pl:acc:m3</t>
         </is>
